--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B182573D-4BB5-4098-A7FD-81113E3001BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EBE475-9061-43B6-865A-7AFA2E17B454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="6" activeTab="16" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1138">
   <si>
     <t>Ctrl</t>
   </si>
@@ -5368,6 +5368,10 @@
   <si>
     <t>ﾏｸﾛ13:カーソル位置のGrep検索.mac</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ﾏｸﾛ14:ファイルパスコピー</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -17803,7 +17807,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -17850,7 +17854,7 @@
         <v>551</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>553</v>
+        <v>1137</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>552</v>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825FB63-1A2A-435D-98D0-90FAACE1B9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8EA75B-8F2E-47AC-AB10-21F983A88D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="8" activeTab="16" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="8" activeTab="13" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -22,16 +22,18 @@
     <sheet name="Thunderbird" sheetId="5" r:id="rId11"/>
     <sheet name="iThoughts" sheetId="4" r:id="rId12"/>
     <sheet name="Vim" sheetId="8" r:id="rId13"/>
-    <sheet name="XChangeViewer" sheetId="11" r:id="rId14"/>
-    <sheet name="X-Finder" sheetId="13" r:id="rId15"/>
-    <sheet name="X-Finder表" sheetId="20" r:id="rId16"/>
-    <sheet name="秀丸表" sheetId="26" r:id="rId17"/>
+    <sheet name="Vim(nml)表" sheetId="27" r:id="rId14"/>
+    <sheet name="XChangeViewer" sheetId="11" r:id="rId15"/>
+    <sheet name="X-Finder" sheetId="13" r:id="rId16"/>
+    <sheet name="X-Finder表" sheetId="20" r:id="rId17"/>
+    <sheet name="秀丸表" sheetId="26" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Excel表!$A$1:$I$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Vim(nml)表'!$A$1:$I$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Word表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'X-Finder表'!$A$1:$I$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">秀丸表!$A$1:$I$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'X-Finder表'!$A$1:$I$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">秀丸表!$A$1:$I$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル178[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Excel(alt)'!$A$1:$B$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Excel表!$A$1:$I$92</definedName>
@@ -41,14 +43,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">テーブル17815[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">Vim!$A$1:$E$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'Vim(nml)表'!$A$1:$I$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル1312[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Word表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'X-Finder表'!$A$1:$I$90</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">秀丸表!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'X-Finder表'!$A$1:$I$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">秀丸表!$A$1:$I$87</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -143,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="1154">
   <si>
     <t>Ctrl</t>
   </si>
@@ -5386,6 +5389,74 @@
     <rPh sb="8" eb="11">
       <t>ギョウバンゴウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バッファリスト作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タグリスト作成</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在のプログラムを実行</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全体をコピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォントサイズをトグル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウサイズをトグル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブ⇒空白 変換</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>空白⇒タブ 変換</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在行番号コピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在ファイル拡張子コピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在フォルダパスコピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在ファイル名コピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在ファイルパスコピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>俯瞰モード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タグファイル更新</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現在相対ファイルパスコピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前行の単語をコピーしてインクリメント</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -12911,7 +12982,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -13585,6 +13658,1436 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7025525B-1E53-4015-8D35-07D4E4476666}">
+  <dimension ref="A1:I98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="19.25" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A2" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A3" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A4" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A6" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A8" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A9" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A10" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A11" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A12" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A13" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12">
+      <c r="A14" s="36">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12">
+      <c r="A17" s="36">
+        <v>4</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12">
+      <c r="A18" s="36">
+        <v>5</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12">
+      <c r="A19" s="36">
+        <v>6</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12">
+      <c r="A20" s="36">
+        <v>7</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12">
+      <c r="A21" s="36">
+        <v>8</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12">
+      <c r="A22" s="36">
+        <v>9</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12">
+      <c r="A23" s="36">
+        <v>0</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A24" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A25" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12">
+      <c r="A26" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12">
+      <c r="A27" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12">
+      <c r="A28" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12">
+      <c r="A29" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12">
+      <c r="A30" s="37" t="s">
+        <v>672</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12">
+      <c r="A31" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12">
+      <c r="A32" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12">
+      <c r="A33" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12">
+      <c r="A34" s="38" t="s">
+        <v>920</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12">
+      <c r="A35" s="37" t="s">
+        <v>922</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12">
+      <c r="A36" s="37" t="s">
+        <v>924</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12">
+      <c r="A37" s="38" t="s">
+        <v>926</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12">
+      <c r="A38" s="37" t="s">
+        <v>943</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12">
+      <c r="A39" s="37" t="s">
+        <v>931</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12">
+      <c r="A40" s="37" t="s">
+        <v>933</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12">
+      <c r="A41" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12">
+      <c r="A42" s="37" t="s">
+        <v>939</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12">
+      <c r="A43" s="37" t="s">
+        <v>941</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12">
+      <c r="A44" s="37" t="s">
+        <v>670</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12">
+      <c r="A45" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12">
+      <c r="A46" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12">
+      <c r="A47" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12">
+      <c r="A48" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="12">
+      <c r="A49" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12">
+      <c r="A50" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="12">
+      <c r="A51" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12">
+      <c r="A52" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="12">
+      <c r="A53" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="12">
+      <c r="A54" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="12">
+      <c r="A55" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="12">
+      <c r="A56" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="12">
+      <c r="A57" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="12">
+      <c r="A58" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="12">
+      <c r="A59" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="12">
+      <c r="A60" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="12">
+      <c r="A61" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="12">
+      <c r="A62" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="12">
+      <c r="A63" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A64" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A65" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="12">
+      <c r="A66" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="12">
+      <c r="A67" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="12">
+      <c r="A68" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="12">
+      <c r="A69" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="12">
+      <c r="A70" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="12">
+      <c r="A71" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="12">
+      <c r="A72" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="12">
+      <c r="A73" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="12">
+      <c r="A74" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="12">
+      <c r="A75" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="12">
+      <c r="A76" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="12">
+      <c r="A77" s="37" t="s">
+        <v>671</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="12">
+      <c r="A78" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="12">
+      <c r="A79" s="37" t="s">
+        <v>953</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="12">
+      <c r="A80" s="37" t="s">
+        <v>955</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="12">
+      <c r="A81" s="37" t="s">
+        <v>659</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="12">
+      <c r="A82" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
+      <c r="A83" s="37" t="s">
+        <v>956</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="12">
+      <c r="A84" s="37" t="s">
+        <v>957</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="12">
+      <c r="A85" s="37" t="s">
+        <v>661</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="12">
+      <c r="A86" s="37" t="s">
+        <v>663</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="18" customFormat="1">
+      <c r="A89" s="14"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+    </row>
+    <row r="90" spans="1:9" s="18" customFormat="1">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="1:9" s="18" customFormat="1">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I86" xr:uid="{80C67FFC-3769-4A04-8E85-38E44C0567C3}"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D44D25-11F0-4B75-B08C-CCE87BE573F8}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F99"/>
@@ -14254,7 +15757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175ECC7F-1CF8-41ED-848A-01EC97406150}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F88"/>
@@ -15115,7 +16618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA382A7A-E69F-46C7-947F-6AC9B39ECBF7}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I102"/>
@@ -17813,11 +19316,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59866B5-FAD1-4A47-9B25-C2EE02C22E50}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8EA75B-8F2E-47AC-AB10-21F983A88D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3D82C-BBB2-4EDD-9047-1A0D503DC132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="8" activeTab="13" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="1155">
   <si>
     <t>Ctrl</t>
   </si>
@@ -4514,20 +4514,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>上へオートフィル</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>下へオートフィル</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>インデントを上げる</t>
     <rPh sb="6" eb="7">
       <t>ア</t>
@@ -5457,6 +5443,33 @@
   </si>
   <si>
     <t>前行の単語をコピーしてインクリメント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【テーブル時】フィルタ設定表示</t>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フリガナ編集</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マクロショートカットキー無効化</t>
+    <rPh sb="12" eb="15">
+      <t>ムコウカ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -13659,9 +13672,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7025525B-1E53-4015-8D35-07D4E4476666}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -13709,13 +13723,13 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -13730,11 +13744,11 @@
         <v>154</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="20" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -13751,7 +13765,7 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="20" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -13768,7 +13782,7 @@
       <c r="B5" s="20"/>
       <c r="C5" s="15"/>
       <c r="D5" s="20" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -13783,15 +13797,15 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="20" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -13804,7 +13818,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -13836,11 +13850,11 @@
         <v>241</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="15"/>
@@ -13855,7 +13869,7 @@
         <v>238</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -13872,7 +13886,7 @@
         <v>141</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -13889,7 +13903,7 @@
         <v>224</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -13906,7 +13920,7 @@
         <v>228</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -19318,6 +19332,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59866B5-FAD1-4A47-9B25-C2EE02C22E50}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19368,13 +19383,13 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>269</v>
@@ -19403,7 +19418,7 @@
         <v>551</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>269</v>
@@ -19432,7 +19447,7 @@
         <v>555</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>269</v>
@@ -19455,13 +19470,13 @@
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>556</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>269</v>
@@ -19484,13 +19499,13 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>269</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>269</v>
@@ -19513,7 +19528,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>269</v>
@@ -19722,7 +19737,7 @@
         <v>566</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>567</v>
@@ -19751,7 +19766,7 @@
         <v>566</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>568</v>
@@ -19780,7 +19795,7 @@
         <v>566</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>569</v>
@@ -19809,7 +19824,7 @@
         <v>566</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>570</v>
@@ -19838,7 +19853,7 @@
         <v>566</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>571</v>
@@ -19867,7 +19882,7 @@
         <v>566</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>572</v>
@@ -19896,7 +19911,7 @@
         <v>566</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>573</v>
@@ -19925,7 +19940,7 @@
         <v>566</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>574</v>
@@ -19954,7 +19969,7 @@
         <v>566</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>575</v>
@@ -19983,7 +19998,7 @@
         <v>566</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>551</v>
@@ -20021,7 +20036,7 @@
         <v>581</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>582</v>
@@ -20276,7 +20291,7 @@
         <v>269</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>594</v>
@@ -20859,7 +20874,7 @@
         <v>269</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>269</v>
@@ -21056,7 +21071,7 @@
         <v>566</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>269</v>
@@ -21152,7 +21167,7 @@
         <v>269</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>269</v>
@@ -21410,7 +21425,7 @@
         <v>269</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>269</v>
@@ -21549,7 +21564,7 @@
         <v>269</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>269</v>
@@ -22711,7 +22726,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -23801,11 +23818,11 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -23849,22 +23866,22 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>219</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>673</v>
@@ -23881,13 +23898,13 @@
         <v>965</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>673</v>
@@ -23907,13 +23924,13 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>673</v>
@@ -23945,10 +23962,10 @@
         <v>846</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>673</v>
@@ -23965,13 +23982,13 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>673</v>
@@ -23997,16 +24014,16 @@
         <v>959</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>673</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>673</v>
@@ -24023,13 +24040,13 @@
         <v>227</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>673</v>
@@ -24052,16 +24069,16 @@
         <v>241</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>968</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>673</v>
@@ -24070,7 +24087,7 @@
         <v>673</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>673</v>
@@ -24087,7 +24104,7 @@
         <v>970</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>673</v>
@@ -24110,22 +24127,22 @@
         <v>141</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>673</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>1046</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>1048</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>673</v>
@@ -24139,19 +24156,19 @@
         <v>224</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>673</v>
@@ -24171,16 +24188,16 @@
         <v>229</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>673</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>673</v>
@@ -24197,19 +24214,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>673</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>673</v>
@@ -24226,25 +24243,25 @@
         <v>2</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>673</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>673</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>673</v>
@@ -24255,13 +24272,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>673</v>
@@ -24273,7 +24290,7 @@
         <v>673</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I16" s="23" t="s">
         <v>673</v>
@@ -24285,19 +24302,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>673</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>673</v>
@@ -24314,13 +24331,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>673</v>
@@ -24343,10 +24360,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>961</v>
@@ -24355,7 +24372,7 @@
         <v>673</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>673</v>
@@ -24372,19 +24389,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>673</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>988</v>
@@ -24401,10 +24418,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>962</v>
@@ -24430,10 +24447,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>975</v>
@@ -24459,10 +24476,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>977</v>
@@ -24488,13 +24505,13 @@
         <v>676</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>673</v>
@@ -24503,10 +24520,10 @@
         <v>673</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>997</v>
+        <v>1153</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>673</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>673</v>
@@ -24517,13 +24534,13 @@
         <v>677</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>673</v>
@@ -24532,10 +24549,10 @@
         <v>673</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>998</v>
+        <v>1152</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>673</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>673</v>
@@ -24546,13 +24563,13 @@
         <v>674</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>973</v>
@@ -24564,7 +24581,7 @@
         <v>986</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>673</v>
@@ -24575,13 +24592,13 @@
         <v>675</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>974</v>
@@ -24593,7 +24610,7 @@
         <v>987</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>673</v>
@@ -24604,13 +24621,13 @@
         <v>857</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>673</v>
@@ -24633,13 +24650,13 @@
         <v>858</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>673</v>
@@ -24662,19 +24679,19 @@
         <v>859</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>971</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>673</v>
@@ -24691,19 +24708,19 @@
         <v>860</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>972</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>673</v>
@@ -24720,10 +24737,10 @@
         <v>590</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>673</v>
@@ -24749,7 +24766,7 @@
         <v>592</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>874</v>
@@ -24778,7 +24795,7 @@
         <v>595</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>876</v>
@@ -24789,8 +24806,8 @@
       <c r="E34" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>673</v>
+      <c r="F34" s="49" t="s">
+        <v>1154</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>673</v>
@@ -24807,7 +24824,7 @@
         <v>599</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>673</v>
@@ -24865,10 +24882,10 @@
         <v>604</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>673</v>
@@ -24894,13 +24911,13 @@
         <v>919</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>673</v>
@@ -24912,10 +24929,10 @@
         <v>223</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12">
@@ -24923,10 +24940,10 @@
         <v>921</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>673</v>
@@ -24952,10 +24969,10 @@
         <v>923</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>963</v>
@@ -24981,10 +24998,10 @@
         <v>925</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>673</v>
@@ -25010,10 +25027,10 @@
         <v>927</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>673</v>
@@ -25039,10 +25056,10 @@
         <v>929</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>673</v>
@@ -25068,13 +25085,13 @@
         <v>931</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>673</v>
@@ -25097,19 +25114,19 @@
         <v>933</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>673</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>673</v>
@@ -25126,10 +25143,10 @@
         <v>935</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>673</v>
@@ -25155,10 +25172,10 @@
         <v>937</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>673</v>
@@ -25184,10 +25201,10 @@
         <v>939</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>673</v>
@@ -25213,10 +25230,10 @@
         <v>941</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>673</v>
@@ -25445,10 +25462,10 @@
         <v>616</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>865</v>
@@ -25474,19 +25491,19 @@
         <v>618</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>673</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>673</v>
@@ -25503,10 +25520,10 @@
         <v>619</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>867</v>
@@ -25532,13 +25549,13 @@
         <v>168</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>673</v>
@@ -25550,7 +25567,7 @@
         <v>673</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="I60" s="23" t="s">
         <v>673</v>
@@ -25561,13 +25578,13 @@
         <v>115</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>673</v>
@@ -25590,19 +25607,19 @@
         <v>49</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>673</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>673</v>
@@ -25619,13 +25636,13 @@
         <v>623</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>673</v>
@@ -25648,13 +25665,13 @@
         <v>99</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>673</v>
@@ -25666,7 +25683,7 @@
         <v>673</v>
       </c>
       <c r="H64" s="49" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I64" s="23" t="s">
         <v>673</v>
@@ -25677,25 +25694,25 @@
         <v>119</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>673</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>673</v>
       </c>
       <c r="H65" s="49" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="I65" s="23" t="s">
         <v>673</v>
@@ -25706,10 +25723,10 @@
         <v>628</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>673</v>
@@ -25718,7 +25735,7 @@
         <v>673</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>673</v>
@@ -25735,13 +25752,13 @@
         <v>629</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>673</v>
@@ -25764,13 +25781,13 @@
         <v>121</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>673</v>
@@ -25793,10 +25810,10 @@
         <v>632</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>673</v>
@@ -25822,13 +25839,13 @@
         <v>50</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>673</v>
@@ -25851,13 +25868,13 @@
         <v>124</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>673</v>
@@ -25880,13 +25897,13 @@
         <v>51</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>673</v>
@@ -25909,10 +25926,10 @@
         <v>639</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>673</v>
@@ -25938,13 +25955,13 @@
         <v>48</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E74" s="23" t="s">
         <v>673</v>
@@ -25967,13 +25984,13 @@
         <v>641</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>673</v>
@@ -25996,10 +26013,10 @@
         <v>643</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>960</v>
@@ -26025,13 +26042,13 @@
         <v>644</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>673</v>
@@ -26054,10 +26071,10 @@
         <v>645</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>874</v>
@@ -26072,7 +26089,7 @@
         <v>673</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I78" s="23" t="s">
         <v>673</v>
@@ -26083,13 +26100,13 @@
         <v>128</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>673</v>
@@ -26112,10 +26129,10 @@
         <v>648</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D80" s="20" t="s">
         <v>876</v>
@@ -26141,13 +26158,13 @@
         <v>651</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>673</v>
@@ -26170,10 +26187,10 @@
         <v>653</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D82" s="20" t="s">
         <v>877</v>
@@ -26199,13 +26216,13 @@
         <v>671</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>673</v>
@@ -30078,13 +30095,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>958</v>
@@ -30107,13 +30124,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>958</v>
@@ -30136,7 +30153,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>269</v>
@@ -30165,7 +30182,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>269</v>
@@ -30194,7 +30211,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>269</v>
@@ -30223,7 +30240,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>269</v>
@@ -30252,7 +30269,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>269</v>
@@ -30281,7 +30298,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>269</v>
@@ -30310,7 +30327,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>269</v>
@@ -30339,7 +30356,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>269</v>
@@ -31325,7 +31342,7 @@
         <v>616</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>269</v>
@@ -31354,7 +31371,7 @@
         <v>618</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>269</v>
@@ -31383,7 +31400,7 @@
         <v>619</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>269</v>
@@ -31412,7 +31429,7 @@
         <v>168</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>269</v>
@@ -31441,7 +31458,7 @@
         <v>115</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>269</v>
@@ -31470,7 +31487,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>269</v>
@@ -31499,7 +31516,7 @@
         <v>623</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>269</v>
@@ -31528,7 +31545,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>269</v>
@@ -31557,7 +31574,7 @@
         <v>119</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>269</v>
@@ -31586,7 +31603,7 @@
         <v>628</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>269</v>
@@ -31615,7 +31632,7 @@
         <v>629</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C67" s="20" t="s">
         <v>269</v>
@@ -31644,7 +31661,7 @@
         <v>121</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C68" s="20" t="s">
         <v>269</v>
@@ -31673,7 +31690,7 @@
         <v>632</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C69" s="20" t="s">
         <v>269</v>
@@ -31702,7 +31719,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C70" s="20" t="s">
         <v>269</v>
@@ -31731,7 +31748,7 @@
         <v>124</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C71" s="20" t="s">
         <v>269</v>
@@ -31760,7 +31777,7 @@
         <v>51</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C72" s="20" t="s">
         <v>269</v>
@@ -31789,7 +31806,7 @@
         <v>639</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C73" s="20" t="s">
         <v>269</v>
@@ -31818,7 +31835,7 @@
         <v>48</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C74" s="20" t="s">
         <v>269</v>
@@ -31847,7 +31864,7 @@
         <v>641</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C75" s="20" t="s">
         <v>269</v>
@@ -31876,7 +31893,7 @@
         <v>643</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C76" s="20" t="s">
         <v>269</v>
@@ -31905,7 +31922,7 @@
         <v>644</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>269</v>
@@ -31934,7 +31951,7 @@
         <v>645</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C78" s="20" t="s">
         <v>269</v>
@@ -31946,10 +31963,10 @@
         <v>958</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H78" s="20" t="s">
         <v>779</v>
@@ -31963,7 +31980,7 @@
         <v>128</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C79" s="20" t="s">
         <v>269</v>
@@ -31992,7 +32009,7 @@
         <v>648</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C80" s="20" t="s">
         <v>269</v>
@@ -32021,7 +32038,7 @@
         <v>651</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C81" s="20" t="s">
         <v>269</v>
@@ -32050,7 +32067,7 @@
         <v>653</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>269</v>
@@ -32079,7 +32096,7 @@
         <v>671</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>269</v>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3D82C-BBB2-4EDD-9047-1A0D503DC132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B987AE-8F06-48D6-BAC6-6E4066D6F1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="1163">
   <si>
     <t>Ctrl</t>
   </si>
@@ -5469,6 +5469,55 @@
     <t>マクロショートカットキー無効化</t>
     <rPh sb="12" eb="15">
       <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択しながら先頭へ移動</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択しながら末尾へ移動</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択しながら右端へ移動</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択しながら左端へ移動</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面を上に移動</t>
+  </si>
+  <si>
+    <t>画面を下に移動</t>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面を右に移動</t>
+    <rPh sb="3" eb="4">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面を左に移動</t>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -5760,7 +5809,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5908,6 +5957,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -23822,7 +23874,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -24517,13 +24569,13 @@
         <v>673</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>673</v>
+        <v>1155</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>1153</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>673</v>
+      <c r="H24" s="49" t="s">
+        <v>1159</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>673</v>
@@ -24546,13 +24598,13 @@
         <v>673</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>673</v>
+        <v>1156</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>1152</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>673</v>
+      <c r="H25" s="50" t="s">
+        <v>1160</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>673</v>
@@ -24575,13 +24627,13 @@
         <v>973</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>673</v>
+        <v>1157</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>986</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>997</v>
+        <v>1161</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>673</v>
@@ -24604,13 +24656,13 @@
         <v>974</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>673</v>
+        <v>1158</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>987</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>998</v>
+        <v>1162</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>673</v>
@@ -25154,8 +25206,8 @@
       <c r="E46" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>673</v>
+      <c r="F46" s="50" t="s">
+        <v>998</v>
       </c>
       <c r="G46" s="20" t="s">
         <v>673</v>
@@ -25183,8 +25235,8 @@
       <c r="E47" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>673</v>
+      <c r="F47" s="49" t="s">
+        <v>997</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>673</v>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -1,57 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B987AE-8F06-48D6-BAC6-6E4066D6F1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3766DA2A-3329-4325-B66D-148B434CC953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="3" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
-    <sheet name="Outlook" sheetId="9" r:id="rId2"/>
-    <sheet name="Excel" sheetId="10" r:id="rId3"/>
-    <sheet name="Excel表" sheetId="25" r:id="rId4"/>
-    <sheet name="Excel(alt)" sheetId="16" r:id="rId5"/>
-    <sheet name="Vbe" sheetId="17" r:id="rId6"/>
-    <sheet name="Visio" sheetId="14" r:id="rId7"/>
-    <sheet name="Word" sheetId="12" r:id="rId8"/>
-    <sheet name="Word表" sheetId="23" r:id="rId9"/>
-    <sheet name="Firefox" sheetId="6" r:id="rId10"/>
-    <sheet name="Thunderbird" sheetId="5" r:id="rId11"/>
-    <sheet name="iThoughts" sheetId="4" r:id="rId12"/>
-    <sheet name="Vim" sheetId="8" r:id="rId13"/>
-    <sheet name="Vim(nml)表" sheetId="27" r:id="rId14"/>
-    <sheet name="XChangeViewer" sheetId="11" r:id="rId15"/>
-    <sheet name="X-Finder" sheetId="13" r:id="rId16"/>
-    <sheet name="X-Finder表" sheetId="20" r:id="rId17"/>
-    <sheet name="秀丸表" sheetId="26" r:id="rId18"/>
+    <sheet name="WSL2" sheetId="30" r:id="rId2"/>
+    <sheet name="Outlook" sheetId="9" r:id="rId3"/>
+    <sheet name="Excel" sheetId="10" r:id="rId4"/>
+    <sheet name="Excel表" sheetId="25" r:id="rId5"/>
+    <sheet name="Excel(alt)" sheetId="16" r:id="rId6"/>
+    <sheet name="Vbe" sheetId="17" r:id="rId7"/>
+    <sheet name="Visio" sheetId="14" r:id="rId8"/>
+    <sheet name="Word" sheetId="12" r:id="rId9"/>
+    <sheet name="Word表" sheetId="23" r:id="rId10"/>
+    <sheet name="Firefox" sheetId="6" r:id="rId11"/>
+    <sheet name="Thunderbird" sheetId="5" r:id="rId12"/>
+    <sheet name="iThoughts" sheetId="4" r:id="rId13"/>
+    <sheet name="Vim" sheetId="8" r:id="rId14"/>
+    <sheet name="Vim(nml)表" sheetId="27" r:id="rId15"/>
+    <sheet name="XChangeViewer" sheetId="11" r:id="rId16"/>
+    <sheet name="X-Finder" sheetId="13" r:id="rId17"/>
+    <sheet name="X-Finder表" sheetId="20" r:id="rId18"/>
+    <sheet name="秀丸表" sheetId="26" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Excel表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Vim(nml)表'!$A$1:$I$86</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Word表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'X-Finder表'!$A$1:$I$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">秀丸表!$A$1:$I$87</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル178[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Excel(alt)'!$A$1:$B$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Excel表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">テーブル17815[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">Vim!$A$1:$E$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'Vim(nml)表'!$A$1:$I$86</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル1312[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Excel表!$A$1:$I$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Vim(nml)表'!$A$1:$I$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Word表!$A$1:$I$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'X-Finder表'!$A$1:$I$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">秀丸表!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テーブル178[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Excel(alt)'!$A$1:$B$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Excel表!$A$1:$I$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル17815[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">Vim!$A$1:$E$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'Vim(nml)表'!$A$1:$I$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル1312[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Word表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'X-Finder表'!$A$1:$I$90</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">秀丸表!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Word表!$A$1:$I$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル1716[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'X-Finder表'!$A$1:$I$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">秀丸表!$A$1:$I$87</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -146,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4492" uniqueCount="1201">
   <si>
     <t>Ctrl</t>
   </si>
@@ -5519,6 +5521,143 @@
     <rPh sb="3" eb="4">
       <t>ヒダリ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コマンド/ファイル名補完</t>
+  </si>
+  <si>
+    <t>コマンド履歴検索</t>
+  </si>
+  <si>
+    <t>文字入替(現在⇔1つ前)</t>
+  </si>
+  <si>
+    <t>文字削除(カーソル左)</t>
+  </si>
+  <si>
+    <t>文字削除(カーソル位置)</t>
+  </si>
+  <si>
+    <t>単語削除(カーソル左)</t>
+  </si>
+  <si>
+    <t>単語削除(カーソル右)</t>
+  </si>
+  <si>
+    <t>貼付け（上記Ctrl + w,Ctrl + kなどで削除した文字列をペーストできる）</t>
+  </si>
+  <si>
+    <t>ENTERと同じ</t>
+  </si>
+  <si>
+    <t>分割画面サイズ変更</t>
+  </si>
+  <si>
+    <t>全画面モード</t>
+  </si>
+  <si>
+    <t>タブ複製</t>
+  </si>
+  <si>
+    <t>タブ切替え</t>
+  </si>
+  <si>
+    <t>新規タブ作成</t>
+  </si>
+  <si>
+    <t>コマンドパレット表示</t>
+  </si>
+  <si>
+    <t>画面クリア</t>
+  </si>
+  <si>
+    <t>実行中プログラム強制終了</t>
+  </si>
+  <si>
+    <t>終了</t>
+  </si>
+  <si>
+    <t>ドロップダウンメニュー表示</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>文字削除(カーソル左側/右側全て)</t>
+    <rPh sb="12" eb="14">
+      <t>ミギガワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>u/k</t>
+  </si>
+  <si>
+    <t>m/j/o</t>
+  </si>
+  <si>
+    <t>p/n</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(1個右/左)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(単語単位右/左)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a/e</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(行頭/行末)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面分割(垂直/水平)</t>
+    <rPh sb="8" eb="10">
+      <t>スイヘイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>分割画面移動</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>方向キー</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コマンド履歴呼出し(1つ前/1つ先)</t>
+  </si>
+  <si>
+    <t>画面更新 停止/再開</t>
+    <rPh sb="8" eb="10">
+      <t>サイカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>s/q</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5967,7 +6106,258 @@
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{6574F17E-666C-4C25-887B-BEC40B73B388}"/>
   </cellStyles>
-  <dxfs count="176">
+  <dxfs count="190">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -9151,16 +9541,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="175" dataDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="189" dataDxfId="188">
   <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9169,15 +9559,32 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="82" dataDxfId="81">
+  <autoFilter ref="A1:F90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9185,16 +9592,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="40" dataDxfId="39">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9202,16 +9609,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="26" dataDxfId="25">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9219,16 +9626,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="12" dataDxfId="11">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9237,15 +9644,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2D9DF68C-926B-4ABF-87EC-2BE15B3EDBDB}" name="テーブル1716" displayName="テーブル1716" ref="A1:F93" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:F93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3E147AE7-D0C8-41DF-A4E2-0268C41F44F6}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4B9FC3C4-17EE-475E-9219-3391B5ABF30B}" name="Shift" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{46A18348-8F0B-4779-88BB-730AF7B856AC}" name="Alt" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{0F2B1969-7969-4132-96AD-0CA04323D1A0}" name="Key" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{0297C143-EEA0-428C-A549-6D4881A1076B}" name="機能" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{938135D4-7AE7-47A0-AD6A-EDEB24C14E63}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9253,16 +9677,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F105" headerRowDxfId="145" dataDxfId="144">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F105" headerRowDxfId="159" dataDxfId="158">
   <autoFilter ref="A1:F105" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9270,13 +9694,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="131" dataDxfId="130">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A1:C92" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2"/>
-    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
+    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="標準 2"/>
+    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9284,16 +9708,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="123" dataDxfId="122">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="137" dataDxfId="136">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17815[[#This Row],[機能]]),"","|"&amp;テーブル17815[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17815[[#This Row],[Shift]]&amp;"|"&amp;テーブル17815[[#This Row],[Alt]]&amp;"|"&amp;テーブル17815[[#This Row],[Key]]&amp;"|"&amp;テーブル17815[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9301,16 +9725,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="109" dataDxfId="108">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9318,16 +9742,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="95" dataDxfId="94">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9335,34 +9759,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="68" dataDxfId="67">
-  <autoFilter ref="A1:F90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
-      <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10778,6 +11185,2744 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4AB5F8-4007-484B-9529-20F8AFF30FB1}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:I104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="19.25" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A2" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A3" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>841</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>840</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A5" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A6" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A8" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A9" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A10" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A12" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A13" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12">
+      <c r="A14" s="26">
+        <v>1</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12">
+      <c r="A15" s="26">
+        <v>2</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12">
+      <c r="A16" s="26">
+        <v>3</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12">
+      <c r="A17" s="26">
+        <v>4</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12">
+      <c r="A18" s="26">
+        <v>5</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12">
+      <c r="A19" s="26">
+        <v>6</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12">
+      <c r="A20" s="26">
+        <v>7</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12">
+      <c r="A21" s="26">
+        <v>8</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12">
+      <c r="A22" s="26">
+        <v>9</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12">
+      <c r="A23" s="26">
+        <v>0</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A24" s="25" t="s">
+        <v>676</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A25" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>861</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12">
+      <c r="A26" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12">
+      <c r="A27" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12">
+      <c r="A28" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12">
+      <c r="A29" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12">
+      <c r="A30" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12">
+      <c r="A31" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12">
+      <c r="A32" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12">
+      <c r="A33" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>847</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12">
+      <c r="A34" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>842</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12">
+      <c r="A35" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12">
+      <c r="A36" s="27" t="s">
+        <v>860</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12">
+      <c r="A37" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12">
+      <c r="A38" s="27" t="s">
+        <v>919</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12">
+      <c r="A39" s="27" t="s">
+        <v>921</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12">
+      <c r="A40" s="27" t="s">
+        <v>923</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12">
+      <c r="A41" s="27" t="s">
+        <v>925</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12">
+      <c r="A42" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12">
+      <c r="A43" s="27" t="s">
+        <v>929</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12">
+      <c r="A44" s="27" t="s">
+        <v>931</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12">
+      <c r="A45" s="27" t="s">
+        <v>933</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12">
+      <c r="A46" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12">
+      <c r="A47" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12">
+      <c r="A48" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="12">
+      <c r="A49" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12">
+      <c r="A50" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>716</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="12">
+      <c r="A51" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12">
+      <c r="A52" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="12">
+      <c r="A53" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="12">
+      <c r="A54" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="12">
+      <c r="A55" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="12">
+      <c r="A56" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="12">
+      <c r="A57" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="12">
+      <c r="A58" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="12">
+      <c r="A59" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="12">
+      <c r="A60" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="12">
+      <c r="A61" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="12">
+      <c r="A62" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="12">
+      <c r="A63" s="27" t="s">
+        <v>623</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A64" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A65" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="12">
+      <c r="A66" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="12">
+      <c r="A67" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="12">
+      <c r="A68" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="12">
+      <c r="A69" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="12">
+      <c r="A70" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>834</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="12">
+      <c r="A71" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>705</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="12">
+      <c r="A72" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="12">
+      <c r="A73" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="12">
+      <c r="A74" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="12">
+      <c r="A75" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="12">
+      <c r="A76" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="12">
+      <c r="A77" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>835</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="12">
+      <c r="A78" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="12">
+      <c r="A79" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="12">
+      <c r="A80" s="27" t="s">
+        <v>648</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="12">
+      <c r="A81" s="27" t="s">
+        <v>651</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="12">
+      <c r="A82" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
+      <c r="A83" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>839</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="12">
+      <c r="A84" s="27" t="s">
+        <v>952</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I84" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="12">
+      <c r="A85" s="27" t="s">
+        <v>655</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="I85" s="33" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="12">
+      <c r="A86" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="I86" s="33" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A87" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="I87" s="33" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A88" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I88" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A89" s="27" t="s">
+        <v>956</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I89" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="12">
+      <c r="A90" s="27" t="s">
+        <v>957</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I90" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="12">
+      <c r="A91" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="I91" s="33" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="12">
+      <c r="A92" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="I92" s="34" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="2:9">
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I92" xr:uid="{279B3E32-A919-4505-A4D0-B1ADDF1DA672}"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F91"/>
@@ -11408,7 +14553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F90"/>
@@ -12182,7 +15327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F99"/>
@@ -13042,7 +16187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F78"/>
@@ -13722,7 +16867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7025525B-1E53-4015-8D35-07D4E4476666}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:I98"/>
@@ -15153,7 +18298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D44D25-11F0-4B75-B08C-CCE87BE573F8}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F99"/>
@@ -15823,7 +18968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175ECC7F-1CF8-41ED-848A-01EC97406150}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F88"/>
@@ -16684,7 +19829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA382A7A-E69F-46C7-947F-6AC9B39ECBF7}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I102"/>
@@ -19382,7 +22527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59866B5-FAD1-4A47-9B25-C2EE02C22E50}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:I99"/>
@@ -22000,6 +25145,907 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4ED046-FDE4-4600-9033-0CC56352880E}">
+  <dimension ref="A1:F93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="6.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.9" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||Tab|コマンド/ファイル名補完|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||p/n|コマンド履歴呼出し(1つ前/1つ先)|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||r|コマンド履歴検索|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||l|画面クリア|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||f|検索|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||c|実行中プログラム強制終了|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||d|終了|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||f/b|カーソル移動(1個右/左)|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1">
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|f/b|カーソル移動(単語単位右/左)|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||a/e|カーソル移動(行頭/行末)|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||t|文字入替(現在⇔1つ前)|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||h|文字削除(カーソル左)|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||d|文字削除(カーソル位置)|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||w|単語削除(カーソル左)|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1">
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|d|単語削除(カーソル右)|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||u/k|文字削除(カーソル左側/右側全て)|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||y|貼付け（上記Ctrl + w,Ctrl + kなどで削除した文字列をペーストできる）|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||m/j/o|ENTERと同じ|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|+/-|画面分割(垂直/水平)|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|方向キー|分割画面移動|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|方向キー|分割画面サイズ変更|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1">
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|Enter|全画面モード|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F11|全画面モード|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||s/q|画面更新 停止/再開|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||d|タブ複製|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Tab|タブ切替え|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||t|新規タブ作成|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||p|コマンドパレット表示|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||Space|ドロップダウンメニュー表示|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F92" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F93" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C93 C3:C30" xr:uid="{BE2589EE-4D6B-48AE-819A-D70FFC039DA2}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:B93 B3:B30" xr:uid="{8A04A832-EE65-47B4-AC71-201A3120565C}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31:A93 A3:A30" xr:uid="{CC138737-183F-4116-B58F-B8ED188B0100}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A675852B-417C-426A-9D62-7129743CB66C}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F99"/>
@@ -22773,7 +26819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B129C059-5A40-43D7-BB70-4D3EFFE609FB}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F105"/>
@@ -23865,16 +27911,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64723C9-002D-4028-8F80-F5D83244E5B3}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -26604,7 +30650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CCE274-753E-4411-9164-55FB9DF6F4C8}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:C92"/>
@@ -27505,7 +31551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFFDBF7-FA1F-4653-A24F-5632360CCE3C}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F99"/>
@@ -28272,7 +32318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F33B2-7FA2-4740-86D0-2AD97053E21B}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F80"/>
@@ -29049,7 +33095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41991D50-28F6-403B-8295-1028362E0434}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F40"/>
@@ -29744,2742 +33790,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4AB5F8-4007-484B-9529-20F8AFF30FB1}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:I104"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="22.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="19.25" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="24">
-      <c r="A1" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>673</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>547</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>549</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A2" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>807</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>818</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>722</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A3" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>841</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>853</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A4" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>844</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>729</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>829</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>728</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A5" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A6" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>723</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>784</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>803</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>819</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>816</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>816</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A8" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>856</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>739</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A9" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>814</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>720</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A10" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>744</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>730</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>758</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A11" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>796</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A12" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>818</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A13" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>853</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>718</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12">
-      <c r="A14" s="26">
-        <v>1</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12">
-      <c r="A15" s="26">
-        <v>2</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12">
-      <c r="A16" s="26">
-        <v>3</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>725</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12">
-      <c r="A17" s="26">
-        <v>4</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12">
-      <c r="A18" s="26">
-        <v>5</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>824</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>707</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="12">
-      <c r="A19" s="26">
-        <v>6</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="12">
-      <c r="A20" s="26">
-        <v>7</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="26">
-        <v>8</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>734</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>698</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12">
-      <c r="A22" s="26">
-        <v>9</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>699</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="12">
-      <c r="A23" s="26">
-        <v>0</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>827</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A24" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>686</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>691</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>809</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>862</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A25" s="25" t="s">
-        <v>677</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>710</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>685</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>800</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>861</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12">
-      <c r="A26" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>714</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>712</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>812</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>708</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12">
-      <c r="A27" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>715</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>792</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>713</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>709</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>764</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12">
-      <c r="A28" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="12">
-      <c r="A29" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="12">
-      <c r="A30" s="27" t="s">
-        <v>595</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>717</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>813</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="12">
-      <c r="A31" s="27" t="s">
-        <v>599</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="12">
-      <c r="A32" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="12">
-      <c r="A33" s="27" t="s">
-        <v>857</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>787</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>843</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>789</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>847</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>789</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="12">
-      <c r="A34" s="27" t="s">
-        <v>858</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>791</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>842</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>788</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>848</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>788</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="12">
-      <c r="A35" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="12">
-      <c r="A36" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="12">
-      <c r="A37" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>823</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>727</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="12">
-      <c r="A38" s="27" t="s">
-        <v>919</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>811</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I38" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="12">
-      <c r="A39" s="27" t="s">
-        <v>921</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I39" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="12">
-      <c r="A40" s="27" t="s">
-        <v>923</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>721</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="12">
-      <c r="A41" s="27" t="s">
-        <v>925</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I41" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="12">
-      <c r="A42" s="27" t="s">
-        <v>927</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>749</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I42" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="12">
-      <c r="A43" s="27" t="s">
-        <v>929</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>748</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="12">
-      <c r="A44" s="27" t="s">
-        <v>931</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>782</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="12">
-      <c r="A45" s="27" t="s">
-        <v>933</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I45" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="12">
-      <c r="A46" s="27" t="s">
-        <v>935</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="12">
-      <c r="A47" s="27" t="s">
-        <v>937</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="12">
-      <c r="A48" s="27" t="s">
-        <v>939</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I48" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="12">
-      <c r="A49" s="27" t="s">
-        <v>941</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>721</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="12">
-      <c r="A50" s="27" t="s">
-        <v>670</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>716</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="12">
-      <c r="A51" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="12">
-      <c r="A52" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="12">
-      <c r="A53" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="12">
-      <c r="A54" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F54" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="12">
-      <c r="A55" s="27" t="s">
-        <v>951</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I55" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="12">
-      <c r="A56" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="12">
-      <c r="A57" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>732</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>733</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="12">
-      <c r="A58" s="27" t="s">
-        <v>618</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>821</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>821</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="12">
-      <c r="A59" s="27" t="s">
-        <v>619</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="12">
-      <c r="A60" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>832</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="I60" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>852</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>736</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="12">
-      <c r="A63" s="27" t="s">
-        <v>623</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>723</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>837</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A64" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>828</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>738</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A65" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="12">
-      <c r="A66" s="27" t="s">
-        <v>628</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I66" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="12">
-      <c r="A67" s="27" t="s">
-        <v>629</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>737</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>793</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="I67" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="12">
-      <c r="A68" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>687</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>701</v>
-      </c>
-      <c r="I68" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="12">
-      <c r="A69" s="27" t="s">
-        <v>632</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>682</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>735</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>719</v>
-      </c>
-      <c r="I69" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="12">
-      <c r="A70" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>634</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>834</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>845</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>833</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="12">
-      <c r="A71" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>700</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>855</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>705</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="12">
-      <c r="A72" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>755</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="I72" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="12">
-      <c r="A73" s="27" t="s">
-        <v>639</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>826</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F73" s="20" t="s">
-        <v>702</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H73" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I73" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="12">
-      <c r="A74" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F74" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>815</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I74" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="12">
-      <c r="A75" s="27" t="s">
-        <v>641</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>853</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>726</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H75" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="I75" s="23" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="12">
-      <c r="A76" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="G76" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="H76" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="12">
-      <c r="A77" s="27" t="s">
-        <v>644</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="H77" s="20" t="s">
-        <v>835</v>
-      </c>
-      <c r="I77" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="12">
-      <c r="A78" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F78" s="20" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H78" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="I78" s="23" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="12">
-      <c r="A79" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>846</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>766</v>
-      </c>
-      <c r="G79" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H79" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="12">
-      <c r="A80" s="27" t="s">
-        <v>648</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>813</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>838</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="G80" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="H80" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I80" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="12">
-      <c r="A81" s="27" t="s">
-        <v>651</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H81" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="I81" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="12">
-      <c r="A82" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>958</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>839</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H82" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="I82" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
-      <c r="A83" s="27" t="s">
-        <v>671</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>839</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G83" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="H83" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="I83" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="12">
-      <c r="A84" s="27" t="s">
-        <v>952</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I84" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="12">
-      <c r="A85" s="27" t="s">
-        <v>655</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="G85" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="H85" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="I85" s="33" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="12">
-      <c r="A86" s="27" t="s">
-        <v>657</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="F86" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="G86" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="H86" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="I86" s="33" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A87" s="27" t="s">
-        <v>659</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="G87" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="H87" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="I87" s="33" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A88" s="27" t="s">
-        <v>954</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I88" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A89" s="27" t="s">
-        <v>956</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="H89" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I89" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="12">
-      <c r="A90" s="27" t="s">
-        <v>957</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>914</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="I90" s="33" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="12">
-      <c r="A91" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="F91" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="G91" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="H91" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="I91" s="33" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="12">
-      <c r="A92" s="28" t="s">
-        <v>663</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="F92" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="H92" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="I92" s="34" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-    </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I92" xr:uid="{279B3E32-A919-4505-A4D0-B1ADDF1DA672}"/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="1048575" man="1"/>
-  </colBreaks>
-</worksheet>
 </file>
--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3766DA2A-3329-4325-B66D-148B434CC953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA19F3-76B6-4FF6-B3AF-2BF998AE7C1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="8" activeTab="15" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
-    <sheet name="WSL2" sheetId="30" r:id="rId2"/>
+    <sheet name="Linuxシェル" sheetId="30" r:id="rId2"/>
     <sheet name="Outlook" sheetId="9" r:id="rId3"/>
     <sheet name="Excel" sheetId="10" r:id="rId4"/>
     <sheet name="Excel表" sheetId="25" r:id="rId5"/>
@@ -40,6 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Excel表!$A$1:$I$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル1716[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル17815[[#All],[Ctrl]:[機能]]</definedName>
@@ -49,7 +50,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Word表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル1716[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'X-Finder表'!$A$1:$I$90</definedName>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4492" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4499" uniqueCount="1206">
   <si>
     <t>Ctrl</t>
   </si>
@@ -5533,18 +5533,6 @@
     <t>文字入替(現在⇔1つ前)</t>
   </si>
   <si>
-    <t>文字削除(カーソル左)</t>
-  </si>
-  <si>
-    <t>文字削除(カーソル位置)</t>
-  </si>
-  <si>
-    <t>単語削除(カーソル左)</t>
-  </si>
-  <si>
-    <t>単語削除(カーソル右)</t>
-  </si>
-  <si>
     <t>貼付け（上記Ctrl + w,Ctrl + kなどで削除した文字列をペーストできる）</t>
   </si>
   <si>
@@ -5560,9 +5548,6 @@
     <t>タブ複製</t>
   </si>
   <si>
-    <t>タブ切替え</t>
-  </si>
-  <si>
     <t>新規タブ作成</t>
   </si>
   <si>
@@ -5582,9 +5567,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>h</t>
   </si>
   <si>
     <t>d</t>
@@ -5658,6 +5640,80 @@
   </si>
   <si>
     <t>s/q</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除(カーソル左/カーソル位置)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h/d</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ctrl/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/Alt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>単語削除(カーソル左/右)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/Shift</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブ切替え 順方向/逆方向</t>
+    <rPh sb="6" eb="9">
+      <t>ジュンホウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面スクロール 上/下（WSL2のみ？）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォントサイズ変更(拡大/縮小)</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュクショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面分割削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6107,257 +6163,6 @@
     <cellStyle name="標準 3" xfId="2" xr:uid="{6574F17E-666C-4C25-887B-BEC40B73B388}"/>
   </cellStyles>
   <dxfs count="190">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -9467,6 +9272,257 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -9559,15 +9615,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:F90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9576,15 +9632,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9593,15 +9649,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9610,15 +9666,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9627,15 +9683,15 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9644,15 +9700,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2D9DF68C-926B-4ABF-87EC-2BE15B3EDBDB}" name="テーブル1716" displayName="テーブル1716" ref="A1:F93" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2D9DF68C-926B-4ABF-87EC-2BE15B3EDBDB}" name="テーブル1716" displayName="テーブル1716" ref="A1:F93" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:F93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3E147AE7-D0C8-41DF-A4E2-0268C41F44F6}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4B9FC3C4-17EE-475E-9219-3391B5ABF30B}" name="Shift" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{46A18348-8F0B-4779-88BB-730AF7B856AC}" name="Alt" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{0F2B1969-7969-4132-96AD-0CA04323D1A0}" name="Key" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0297C143-EEA0-428C-A549-6D4881A1076B}" name="機能" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{938135D4-7AE7-47A0-AD6A-EDEB24C14E63}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3E147AE7-D0C8-41DF-A4E2-0268C41F44F6}" name="Ctrl" totalsRowLabel="集計" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{4B9FC3C4-17EE-475E-9219-3391B5ABF30B}" name="Shift" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="3" xr3:uid="{46A18348-8F0B-4779-88BB-730AF7B856AC}" name="Alt" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="4" xr3:uid="{0F2B1969-7969-4132-96AD-0CA04323D1A0}" name="Key" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{0297C143-EEA0-428C-A549-6D4881A1076B}" name="機能" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{938135D4-7AE7-47A0-AD6A-EDEB24C14E63}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9661,15 +9717,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="173" dataDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="159" dataDxfId="158">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="151" totalsRowDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9678,15 +9734,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F105" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F105" headerRowDxfId="145" dataDxfId="144">
   <autoFilter ref="A1:F105" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9695,12 +9751,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:C92" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="標準 2"/>
-    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="標準 2">
+    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2"/>
+    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9709,15 +9765,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="123" dataDxfId="122">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17815[[#This Row],[機能]]),"","|"&amp;テーブル17815[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17815[[#This Row],[Shift]]&amp;"|"&amp;テーブル17815[[#This Row],[Alt]]&amp;"|"&amp;テーブル17815[[#This Row],[Key]]&amp;"|"&amp;テーブル17815[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9726,15 +9782,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9743,15 +9799,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9760,15 +9816,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18303,7 +18359,9 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -25148,8 +25206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4ED046-FDE4-4600-9033-0CC56352880E}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -25219,10 +25277,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25252,7 +25310,7 @@
         <v>514</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25282,10 +25340,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25297,10 +25355,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25315,7 +25373,7 @@
         <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25330,7 +25388,7 @@
         <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25342,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25357,7 +25415,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1165</v>
@@ -25372,197 +25430,206 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1183</v>
+        <v>1196</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1166</v>
+        <v>1195</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||h|文字削除(カーソル左)|</v>
+        <v>|Ctrl|||h/d|文字削除(カーソル左/カーソル位置)|</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>1197</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1184</v>
+        <v>321</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1167</v>
+        <v>1199</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||d|文字削除(カーソル位置)|</v>
+        <v>|Ctrl/||/Alt|w|単語削除(カーソル左/右)|</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>321</v>
+      <c r="D16" s="6" t="s">
+        <v>1182</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||w|単語削除(カーソル左)|</v>
+        <v>|Ctrl|||u/k|文字削除(カーソル左側/右側全て)|</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1">
-      <c r="C17" s="1" t="s">
-        <v>2</v>
+      <c r="A17" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|d|単語削除(カーソル右)|</v>
+        <v>|Ctrl|||y|貼付け（上記Ctrl + w,Ctrl + kなどで削除した文字列をペーストできる）|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>1188</v>
+      <c r="D18" s="2" t="s">
+        <v>1183</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1187</v>
+        <v>1167</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||u/k|文字削除(カーソル左側/右側全て)|</v>
+        <v>|Ctrl|||m/j/o|ENTERと同じ|</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1185</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1170</v>
+        <v>1189</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||y|貼付け（上記Ctrl + w,Ctrl + kなどで削除した文字列をペーストできる）|</v>
+        <v>||Shift|Alt|+/-|画面分割(垂直/水平)|</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>1189</v>
+        <v>1205</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1171</v>
+        <v>1204</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||m/j/o|ENTERと同じ|</v>
+        <v>|Ctrl|Shift||w|画面分割削除|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>1191</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|+/-|画面分割(垂直/水平)|</v>
+        <v>|||Alt|方向キー|分割画面移動|</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|方向キー|分割画面移動|</v>
+        <v>||Shift|Alt|方向キー|分割画面サイズ変更|</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1197</v>
+        <v>143</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|方向キー|分割画面サイズ変更|</v>
+        <v>|||Alt|Enter|全画面モード|</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="11.25" customHeight="1">
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|Enter|全画面モード|</v>
+        <v>||||F11|全画面モード|</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>224</v>
+        <v>1194</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1173</v>
+        <v>1193</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F11|全画面モード|</v>
+        <v>|Ctrl|||s/q|画面更新 停止/再開|</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>1200</v>
+        <v>303</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||s/q|画面更新 停止/再開|</v>
+        <v>|Ctrl|Shift||↑/↓|画面スクロール 上/下（WSL2のみ？）|</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1">
@@ -25573,29 +25640,32 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||d|タブ複製|</v>
+        <v>|Ctrl|Shift||t|新規タブ作成|</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||Tab|タブ切替え|</v>
+        <v>|Ctrl|Shift||d|タブ複製|</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="11.25" customHeight="1">
@@ -25603,17 +25673,17 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1176</v>
+        <v>1201</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||t|新規タブ作成|</v>
+        <v>|Ctrl|/Shift||Tab|タブ切替え 順方向/逆方向|</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1">
@@ -25627,7 +25697,7 @@
         <v>355</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25645,7 +25715,7 @@
         <v>145</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25653,9 +25723,18 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1203</v>
+      </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|||+/-|フォントサイズ変更(拡大/縮小)|</v>
       </c>
     </row>
     <row r="33" spans="6:6" ht="11.25" customHeight="1">
@@ -26027,14 +26106,14 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C93 C3:C30" xr:uid="{BE2589EE-4D6B-48AE-819A-D70FFC039DA2}">
-      <formula1>"Alt"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A30:A93 A2:A29" xr:uid="{792C8B67-3330-4CC8-98DD-74E7AEE08EDE}">
+      <formula1>"Ctrl"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:B93 B3:B30" xr:uid="{8A04A832-EE65-47B4-AC71-201A3120565C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B30:B93 B2:B29" xr:uid="{D1875E52-AD66-4A8C-8118-874DB7C8DFC0}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31:A93 A3:A30" xr:uid="{CC138737-183F-4116-B58F-B8ED188B0100}">
-      <formula1>"Ctrl"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C30:C93 C2:C29" xr:uid="{5C2B4D1A-AC34-427B-8E69-106B70F54DC3}">
+      <formula1>"Alt"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA19F3-76B6-4FF6-B3AF-2BF998AE7C1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C721E-22CA-4DA5-A41A-409306EF0A98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="8" activeTab="15" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4499" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="1213">
   <si>
     <t>Ctrl</t>
   </si>
@@ -5716,12 +5716,48 @@
     <t>w</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Linuxシェル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Anki登録用</t>
+    <rPh sb="4" eb="7">
+      <t>トウロクヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>動作</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ソフト名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ショートカットキー</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5802,6 +5838,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -6004,7 +6047,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6156,13 +6199,22 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{6574F17E-666C-4C25-887B-BEC40B73B388}"/>
   </cellStyles>
-  <dxfs count="190">
+  <dxfs count="200">
     <dxf>
       <font>
         <b val="0"/>
@@ -7917,6 +7969,41 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -8571,6 +8658,41 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
         <scheme val="none"/>
@@ -9043,6 +9165,115 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -9597,16 +9828,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="189" dataDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="199" dataDxfId="198">
   <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="185" totalsRowDxfId="184"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="179" totalsRowDxfId="178"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="175" totalsRowDxfId="174" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="193" totalsRowDxfId="192" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9700,16 +9931,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2D9DF68C-926B-4ABF-87EC-2BE15B3EDBDB}" name="テーブル1716" displayName="テーブル1716" ref="A1:F93" headerRowDxfId="173" dataDxfId="172">
-  <autoFilter ref="A1:F93" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3E147AE7-D0C8-41DF-A4E2-0268C41F44F6}" name="Ctrl" totalsRowLabel="集計" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="2" xr3:uid="{4B9FC3C4-17EE-475E-9219-3391B5ABF30B}" name="Shift" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="3" xr3:uid="{46A18348-8F0B-4779-88BB-730AF7B856AC}" name="Alt" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{0F2B1969-7969-4132-96AD-0CA04323D1A0}" name="Key" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{0297C143-EEA0-428C-A549-6D4881A1076B}" name="機能" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{938135D4-7AE7-47A0-AD6A-EDEB24C14E63}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="161" totalsRowDxfId="160" dataCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2D9DF68C-926B-4ABF-87EC-2BE15B3EDBDB}" name="テーブル1716" displayName="テーブル1716" ref="A2:I94" headerRowDxfId="183" dataDxfId="182">
+  <autoFilter ref="A2:I94" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{3E147AE7-D0C8-41DF-A4E2-0268C41F44F6}" name="Ctrl" totalsRowLabel="集計" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="2" xr3:uid="{4B9FC3C4-17EE-475E-9219-3391B5ABF30B}" name="Shift" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="3" xr3:uid="{46A18348-8F0B-4779-88BB-730AF7B856AC}" name="Alt" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{0F2B1969-7969-4132-96AD-0CA04323D1A0}" name="Key" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="5" xr3:uid="{0297C143-EEA0-428C-A549-6D4881A1076B}" name="機能" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="7" xr3:uid="{938135D4-7AE7-47A0-AD6A-EDEB24C14E63}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1E9D4DD2-9737-4143-957E-F319F30E0B34}" name="動作" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="標準 2">
+      <calculatedColumnFormula>テーブル1716[[#This Row],[機能]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{15AC32E6-0DDA-41BB-9F12-D1D0E6E9DB8B}" name="ソフト名" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="標準 2"/>
+    <tableColumn id="6" xr3:uid="{F8D06D54-E796-4E6D-B14F-DAD3A48F2538}" name="ショートカットキー" dataDxfId="165" totalsRowDxfId="164">
+      <calculatedColumnFormula>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9717,15 +9957,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F99" headerRowDxfId="163" dataDxfId="162">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="151" totalsRowDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="149" totalsRowDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9734,16 +9974,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:F105" headerRowDxfId="145" dataDxfId="144">
-  <autoFilter ref="A1:F105" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:G105" headerRowDxfId="149" dataDxfId="148">
+  <autoFilter ref="A1:G105" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4FE1A9C3-DE35-4CAE-87CE-F88C1F9C3BF9}" name="列1" dataDxfId="135" totalsRowDxfId="134">
+      <calculatedColumnFormula>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9751,12 +9996,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="133" dataDxfId="132">
   <autoFilter ref="A1:C92" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2"/>
-    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
+    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="標準 2"/>
+    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9765,15 +10010,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="113" totalsRowDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17815[[#This Row],[機能]]),"","|"&amp;テーブル17815[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17815[[#This Row],[Shift]]&amp;"|"&amp;テーブル17815[[#This Row],[Alt]]&amp;"|"&amp;テーブル17815[[#This Row],[Key]]&amp;"|"&amp;テーブル17815[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9782,16 +10027,21 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:F80" headerRowDxfId="109" dataDxfId="108">
-  <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:G80" headerRowDxfId="111" dataDxfId="110">
+  <autoFilter ref="A1:G80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D6909347-BC13-4100-95FE-0E48520F1E01}" name="列1" dataDxfId="97" totalsRowDxfId="96">
+      <calculatedColumnFormula>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10157,7 +10407,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -18359,7 +18609,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -25204,10 +25454,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4ED046-FDE4-4600-9033-0CC56352880E}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -25216,903 +25469,2302 @@
     <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2" style="3"/>
+    <col min="7" max="7" width="56.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="11.25" customHeight="1">
+      <c r="G1" s="53" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="1.9" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="1.9" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|:---|:---|:---|:---|:---|</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1">
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>:---</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>:---＋:---＋:---＋:---</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="11.25" customHeight="1">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F4" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>||||Tab|コマンド/ファイル名補完|</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="G4" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>コマンド/ファイル名補完</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I4" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Tab</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||p/n|コマンド履歴呼出し(1つ前/1つ先)|</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="G5" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>コマンド履歴呼出し(1つ前/1つ先)</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I5" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋p/n</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F6" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||r|コマンド履歴検索|</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="G6" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>コマンド履歴検索</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I6" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋r</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||l|画面クリア|</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="G7" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>画面クリア</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I7" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋l</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F8" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||f|検索|</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="G8" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>検索</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I8" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋f</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||c|実行中プログラム強制終了|</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="G9" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>実行中プログラム強制終了</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I9" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋c</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||d|終了|</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="G10" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>終了</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I10" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋d</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||f/b|カーソル移動(1個右/左)|</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="11.25" customHeight="1">
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>カーソル移動(1個右/左)</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I11" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋f/b</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="11.25" customHeight="1">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|f/b|カーソル移動(単語単位右/左)|</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="G12" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>カーソル移動(単語単位右/左)</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I12" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Alt＋f/b</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||a/e|カーソル移動(行頭/行末)|</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="G13" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>カーソル移動(行頭/行末)</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I13" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋a/e</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F14" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||t|文字入替(現在⇔1つ前)|</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>文字入替(現在⇔1つ前)</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I14" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋t</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||h/d|文字削除(カーソル左/カーソル位置)|</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="G15" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>文字削除(カーソル左/カーソル位置)</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I15" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋h/d</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl/||/Alt|w|単語削除(カーソル左/右)|</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="G16" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>単語削除(カーソル左/右)</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I16" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl/＋/Alt＋w</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||u/k|文字削除(カーソル左側/右側全て)|</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="G17" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>文字削除(カーソル左側/右側全て)</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I17" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋u/k</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F18" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||y|貼付け（上記Ctrl + w,Ctrl + kなどで削除した文字列をペーストできる）|</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="G18" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>貼付け（上記Ctrl + w,Ctrl + kなどで削除した文字列をペーストできる）</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I18" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋y</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F19" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||m/j/o|ENTERと同じ|</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B19" s="1" t="s">
+      <c r="G19" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>ENTERと同じ</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I19" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋m/j/o</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="11.25" customHeight="1">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift|Alt|+/-|画面分割(垂直/水平)|</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="G20" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>画面分割(垂直/水平)</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I20" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Shift＋Alt＋+/-</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||w|画面分割削除|</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="C21" s="1" t="s">
+      <c r="G21" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>画面分割削除</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I21" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋w</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="11.25" customHeight="1">
+      <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="F21" s="3" t="str">
+      <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|方向キー|分割画面移動|</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B22" s="1" t="s">
+      <c r="G22" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>分割画面移動</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I22" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Alt＋方向キー</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="11.25" customHeight="1">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift|Alt|方向キー|分割画面サイズ変更|</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="11.25" customHeight="1">
-      <c r="C23" s="1" t="s">
+      <c r="G23" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>分割画面サイズ変更</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I23" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Shift＋Alt＋方向キー</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="11.25" customHeight="1">
+      <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|Enter|全画面モード|</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="11.25" customHeight="1">
-      <c r="D24" s="2" t="s">
+      <c r="G24" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>全画面モード</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I24" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Alt＋Enter</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="11.25" customHeight="1">
+      <c r="D25" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F11|全画面モード|</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A25" s="1" t="s">
+      <c r="G25" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>全画面モード</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I25" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>F11</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||s/q|画面更新 停止/再開|</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="G26" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>画面更新 停止/再開</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I26" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋s/q</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||↑/↓|画面スクロール 上/下（WSL2のみ？）|</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A27" s="1" t="s">
+      <c r="G27" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>画面スクロール 上/下（WSL2のみ？）</v>
+      </c>
+      <c r="H27" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I27" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋↑/↓</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="F27" s="3" t="str">
+      <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||t|新規タブ作成|</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A28" s="1" t="s">
+      <c r="G28" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>新規タブ作成</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I28" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋t</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="F28" s="3" t="str">
+      <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||d|タブ複製|</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="G29" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>タブ複製</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I29" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋d</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="F29" s="3" t="str">
+      <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|/Shift||Tab|タブ切替え 順方向/逆方向|</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A30" s="1" t="s">
+      <c r="G30" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>タブ切替え 順方向/逆方向</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I30" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋/Shift＋Tab</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="F30" s="3" t="str">
+      <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||p|コマンドパレット表示|</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="G31" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>コマンドパレット表示</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I31" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋p</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="F31" s="3" t="str">
+      <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||Space|ドロップダウンメニュー表示|</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="G32" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>ドロップダウンメニュー表示</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I32" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋Space</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="F32" s="3" t="str">
+      <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||+/-|フォントサイズ変更(拡大/縮小)|</v>
       </c>
-    </row>
-    <row r="33" spans="6:6" ht="11.25" customHeight="1">
-      <c r="F33" s="3" t="str">
-        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G33" s="52" t="str">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>フォントサイズ変更(拡大/縮小)</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I33" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v>Ctrl＋+/-</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="11.25" customHeight="1">
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G34" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I34" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="11.25" customHeight="1">
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G35" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I35" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="11.25" customHeight="1">
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G36" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I36" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="11.25" customHeight="1">
       <c r="F37" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G37" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I37" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="11.25" customHeight="1">
       <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G38" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I38" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" ht="11.25" customHeight="1">
       <c r="F39" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G39" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I39" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="11.25" customHeight="1">
       <c r="F40" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G40" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I40" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" ht="11.25" customHeight="1">
       <c r="F41" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G41" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I41" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="11.25" customHeight="1">
       <c r="F42" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G42" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I42" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="11.25" customHeight="1">
       <c r="F43" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G43" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I43" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="11.25" customHeight="1">
       <c r="F44" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G44" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I44" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" ht="11.25" customHeight="1">
       <c r="F45" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G45" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I45" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" ht="11.25" customHeight="1">
       <c r="F46" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G46" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I46" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" ht="11.25" customHeight="1">
       <c r="F47" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G47" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I47" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="11.25" customHeight="1">
       <c r="F48" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G48" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I48" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="6:11" ht="11.25" customHeight="1">
       <c r="F49" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G49" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I49" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="6:11" ht="11.25" customHeight="1">
       <c r="F50" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G50" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I50" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="6:11" ht="11.25" customHeight="1">
       <c r="F51" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G51" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I51" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="6:11" ht="11.25" customHeight="1">
       <c r="F52" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G52" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I52" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="6:11" ht="11.25" customHeight="1">
       <c r="F53" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G53" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I53" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="6:11" ht="11.25" customHeight="1">
       <c r="F54" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G54" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I54" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="6:11" ht="11.25" customHeight="1">
       <c r="F55" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G55" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I55" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="6:11" ht="11.25" customHeight="1">
       <c r="F56" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G56" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I56" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="6:11" ht="11.25" customHeight="1">
       <c r="F57" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G57" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I57" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="6:11" ht="11.25" customHeight="1">
       <c r="F58" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G58" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I58" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="6:11" ht="11.25" customHeight="1">
       <c r="F59" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G59" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I59" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="6:11" ht="11.25" customHeight="1">
       <c r="F60" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G60" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I60" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="6:11" ht="11.25" customHeight="1">
       <c r="F61" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G61" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I61" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="6:11" ht="11.25" customHeight="1">
       <c r="F62" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G62" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I62" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="6:11" ht="11.25" customHeight="1">
       <c r="F63" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G63" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I63" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="6:11" ht="11.25" customHeight="1">
       <c r="F64" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G64" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I64" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="6:11" ht="11.25" customHeight="1">
       <c r="F65" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G65" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I65" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="6:11" ht="11.25" customHeight="1">
       <c r="F66" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G66" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I66" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="6:11" ht="11.25" customHeight="1">
       <c r="F67" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G67" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I67" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="6:11" ht="11.25" customHeight="1">
       <c r="F68" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G68" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I68" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="6:11" ht="11.25" customHeight="1">
       <c r="F69" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G69" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I69" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="6:11" ht="11.25" customHeight="1">
       <c r="F70" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G70" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I70" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="6:11" ht="11.25" customHeight="1">
       <c r="F71" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G71" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I71" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="6:11" ht="11.25" customHeight="1">
       <c r="F72" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G72" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I72" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="6:11" ht="11.25" customHeight="1">
       <c r="F73" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G73" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I73" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="6:11" ht="11.25" customHeight="1">
       <c r="F74" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G74" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I74" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="6:11" ht="11.25" customHeight="1">
       <c r="F75" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G75" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I75" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="6:11" ht="11.25" customHeight="1">
       <c r="F76" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G76" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I76" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="6:11" ht="11.25" customHeight="1">
       <c r="F77" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G77" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I77" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="6:11" ht="11.25" customHeight="1">
       <c r="F78" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G78" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I78" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="6:11" ht="11.25" customHeight="1">
       <c r="F79" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G79" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I79" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="6:11" ht="11.25" customHeight="1">
       <c r="F80" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G80" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I80" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="6:11" ht="11.25" customHeight="1">
       <c r="F81" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G81" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I81" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="6:11" ht="11.25" customHeight="1">
       <c r="F82" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G82" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I82" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="6:11" ht="11.25" customHeight="1">
       <c r="F83" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G83" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I83" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="6:11" ht="11.25" customHeight="1">
       <c r="F84" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G84" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I84" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="6:11" ht="11.25" customHeight="1">
       <c r="F85" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G85" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I85" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="6:11" ht="11.25" customHeight="1">
       <c r="F86" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G86" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I86" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="6:11" ht="11.25" customHeight="1">
       <c r="F87" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G87" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I87" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="6:11" ht="11.25" customHeight="1">
       <c r="F88" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G88" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I88" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="6:11" ht="11.25" customHeight="1">
       <c r="F89" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G89" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I89" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="6:11" ht="11.25" customHeight="1">
       <c r="F90" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G90" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I90" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="6:11" ht="11.25" customHeight="1">
       <c r="F91" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G91" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I91" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="6:11" ht="11.25" customHeight="1">
       <c r="F92" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G92" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I92" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="6:11" ht="11.25" customHeight="1">
       <c r="F93" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
+      <c r="G93" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I93" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="6:11" ht="11.25" customHeight="1">
+      <c r="F94" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+      <c r="G94" s="52">
+        <f>テーブル1716[[#This Row],[機能]]</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I94" s="51" t="str">
+        <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A30:A93 A2:A29" xr:uid="{792C8B67-3330-4CC8-98DD-74E7AEE08EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A94" xr:uid="{792C8B67-3330-4CC8-98DD-74E7AEE08EDE}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B30:B93 B2:B29" xr:uid="{D1875E52-AD66-4A8C-8118-874DB7C8DFC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B94" xr:uid="{D1875E52-AD66-4A8C-8118-874DB7C8DFC0}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C30:C93 C2:C29" xr:uid="{5C2B4D1A-AC34-427B-8E69-106B70F54DC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C3:C94" xr:uid="{5C2B4D1A-AC34-427B-8E69-106B70F54DC3}">
       <formula1>"Alt"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26129,7 +27781,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -26901,10 +28555,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B129C059-5A40-43D7-BB70-4D3EFFE609FB}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -26913,10 +28567,11 @@
     <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2" style="3"/>
+    <col min="7" max="7" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.25" customHeight="1">
+    <row r="1" spans="1:7" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26935,8 +28590,11 @@
       <c r="F1" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="1.9" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="1.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -26956,8 +28614,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|:---|:---|:---|:---|:---|</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G2" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>:---＋:---＋:---＋:---</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="11.25" customHeight="1">
       <c r="D3" s="2" t="s">
         <v>150</v>
       </c>
@@ -26968,8 +28632,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F4|直前の操作を繰り返す|</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G3" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="11.25" customHeight="1">
       <c r="D4" s="2" t="s">
         <v>150</v>
       </c>
@@ -26980,8 +28650,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F4|【文字入力時】相対参照⇔絶対参照|</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G4" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="11.25" customHeight="1">
       <c r="D5" s="2" t="s">
         <v>159</v>
       </c>
@@ -26992,8 +28668,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F5|ダイアログボックス表示 [ジャンプ]|</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G5" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>F5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="11.25" customHeight="1">
       <c r="D6" s="2" t="s">
         <v>402</v>
       </c>
@@ -27004,8 +28686,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F6|各ペインにフォーカスを当てる|</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G6" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>F6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="11.25" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>227</v>
       </c>
@@ -27016,8 +28704,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F7|ダイアログボックス表示 [スペルチェック]|</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G7" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>F7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="11.25" customHeight="1">
       <c r="D8" s="2" t="s">
         <v>228</v>
       </c>
@@ -27028,8 +28722,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F12|名前を付けて保存|</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G8" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>F12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="11.25" customHeight="1">
       <c r="D9" s="2" t="s">
         <v>230</v>
       </c>
@@ -27040,8 +28740,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F2 ⇒ F9|数式→値 変換|</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G9" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>F2 ⇒ F9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="11.25" customHeight="1">
       <c r="D10" s="2" t="s">
         <v>154</v>
       </c>
@@ -27052,8 +28758,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F2|【数式入力時】編集モード⇔入力モード切替|</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G10" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>F2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="11.25" customHeight="1">
       <c r="D11" s="2" t="s">
         <v>391</v>
       </c>
@@ -27064,8 +28776,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||||ScrollLock+方向キー|スクロールバー移動|</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G11" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>ScrollLock+方向キー</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="11.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -27079,8 +28797,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||t|テーブル挿入|</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G12" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋t</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="11.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -27094,8 +28818,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||1|ダイアログボックス表示 [セルの書式設定]|</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G13" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="11.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -27109,8 +28839,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||6|オブジェクト 表示/非表示 切り替え|</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G14" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="11.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -27124,8 +28860,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||8|アウトライン記号 表示/非表示 切り替え|</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G15" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="11.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -27139,8 +28881,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||F3|ダイアログボックス表示 [名前の管理]|</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G16" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋F3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="11.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -27154,8 +28902,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||\||選択行内のアクティブセル値不一致セルを選択|</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G17" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋\|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="11.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -27169,8 +28923,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||Delete|【値入力時】行末までテキスト削除|</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G18" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Delete</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="11.25" customHeight="1">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
@@ -27184,8 +28944,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift||F4|次の空白へジャンプ|</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G19" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Shift＋F4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1">
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
@@ -27199,8 +28965,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift||F8|選択範囲の追加/削除|</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G20" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Shift＋F8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>392</v>
       </c>
@@ -27214,8 +28986,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift/||F9|再計算（シート/ブック 変更セルのみ）|</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G21" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Shift/＋F9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="11.25" customHeight="1">
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
@@ -27229,8 +29007,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift||F11|新規シートの挿入|</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G22" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Shift＋F11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="11.25" customHeight="1">
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
@@ -27244,8 +29028,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|F1|現在の範囲からグラフを作成|</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G23" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Alt＋F1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" customHeight="1">
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
@@ -27259,8 +29049,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|F8|ダイアログボックス表示 [マクロ]|</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G24" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Alt＋F8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" customHeight="1">
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
@@ -27274,8 +29070,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|PageUp(Down)|一画面分左に(右に)横スクロール|</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G25" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Alt＋PageUp(Down)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="11.25" customHeight="1">
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
@@ -27289,8 +29091,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|←/→|ハイパーリンクジャンプ 戻る/進む|</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G26" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Alt＋←/→</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="11.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -27307,8 +29115,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|/Shift||9|選択行を非表示/表示|</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G27" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋/Shift＋9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="11.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -27325,8 +29139,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|/Shift||0|選択列を非表示/表示|</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G28" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋/Shift＋0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="11.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -27343,8 +29163,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||5|表示形式 [%]|</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G29" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="11.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -27361,8 +29187,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||3|表示形式 [日付]|</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G30" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="11.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -27379,8 +29211,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||^|表示形式 [標準]|</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G31" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋^</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="11.25" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -27397,8 +29235,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||:|アクティブ セル領域 (アクティブ セルを含み、空白の行と列で囲まれているデータ領域) を選択|</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G32" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋:</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="11.25" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>0</v>
       </c>
@@ -27415,8 +29259,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||@|表示切替 値⇔数式|</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G33" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋@</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="11.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -27433,8 +29283,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||o|コメントが入力されている全セル選択|</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G34" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋o</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="11.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -27451,8 +29307,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||u|数式バー 展開/折りたたみ|</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G35" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋u</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="11.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -27469,8 +29331,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||p|ダイアログボックス表示 [セルの書式設定]|</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G36" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋p</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="11.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -27487,8 +29355,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||F3|選択セルから名前付き範囲を作成|</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G37" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋F3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="11.25" customHeight="1">
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
@@ -27505,8 +29379,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift|Alt|=|オートSUM機能|</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G38" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Shift＋Alt＋=</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="11.25" customHeight="1">
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
@@ -27523,8 +29403,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift|Alt|→/←|グループ化/グループ化解除|</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G39" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Shift＋Alt＋→/←</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="11.25" customHeight="1">
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
@@ -27541,8 +29427,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift|Alt|7|ブックのスタイルを設定|</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G40" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Shift＋Alt＋7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="11.25" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -27559,8 +29451,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|v|ダイアログボックス表示 [形式を選択して貼り付け]|</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G41" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Alt＋v</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="11.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -27577,8 +29475,14 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|F9|再計算（全シート全セル）|</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G42" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Alt＋F9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="11.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -27598,376 +29502,754 @@
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift|Alt|F9|再計算（参照先の数式を含め全シート全セル）|</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G43" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋Alt＋F9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="11.25" customHeight="1">
       <c r="F44" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G44" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="11.25" customHeight="1">
       <c r="F45" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G45" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="11.25" customHeight="1">
       <c r="F46" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G46" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="11.25" customHeight="1">
       <c r="F47" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G47" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="11.25" customHeight="1">
       <c r="F48" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G48" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:7" ht="11.25" customHeight="1">
       <c r="F49" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G49" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:7" ht="11.25" customHeight="1">
       <c r="F50" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G50" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:7" ht="11.25" customHeight="1">
       <c r="F51" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G51" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:7" ht="11.25" customHeight="1">
       <c r="F52" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G52" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:7" ht="11.25" customHeight="1">
       <c r="F53" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G53" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:7" ht="11.25" customHeight="1">
       <c r="F54" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G54" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:7" ht="11.25" customHeight="1">
       <c r="F55" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G55" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:7" ht="11.25" customHeight="1">
       <c r="F56" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G56" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:7" ht="11.25" customHeight="1">
       <c r="F57" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G57" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:7" ht="11.25" customHeight="1">
       <c r="F58" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G58" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:7" ht="11.25" customHeight="1">
       <c r="F59" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G59" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:7" ht="11.25" customHeight="1">
       <c r="F60" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G60" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:7" ht="11.25" customHeight="1">
       <c r="F61" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G61" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:7" ht="11.25" customHeight="1">
       <c r="F62" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G62" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:7" ht="11.25" customHeight="1">
       <c r="F63" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G63" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:7" ht="11.25" customHeight="1">
       <c r="F64" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G64" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:7" ht="11.25" customHeight="1">
       <c r="F65" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G65" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:7" ht="11.25" customHeight="1">
       <c r="F66" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G66" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:7" ht="11.25" customHeight="1">
       <c r="F67" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G67" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:7" ht="11.25" customHeight="1">
       <c r="F68" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G68" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:7" ht="11.25" customHeight="1">
       <c r="F69" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G69" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:7" ht="11.25" customHeight="1">
       <c r="F70" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G70" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:7" ht="11.25" customHeight="1">
       <c r="F71" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G71" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:7" ht="11.25" customHeight="1">
       <c r="F72" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G72" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:7" ht="11.25" customHeight="1">
       <c r="F73" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G73" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:7" ht="11.25" customHeight="1">
       <c r="F74" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G74" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:7" ht="11.25" customHeight="1">
       <c r="F75" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G75" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:7" ht="11.25" customHeight="1">
       <c r="F76" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G76" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:7" ht="11.25" customHeight="1">
       <c r="F77" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G77" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:7" ht="11.25" customHeight="1">
       <c r="F78" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G78" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:7" ht="11.25" customHeight="1">
       <c r="F79" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G79" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:7" ht="11.25" customHeight="1">
       <c r="F80" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G80" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:7" ht="11.25" customHeight="1">
       <c r="F81" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G81" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:7" ht="11.25" customHeight="1">
       <c r="F82" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G82" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:7" ht="11.25" customHeight="1">
       <c r="F83" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G83" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:7" ht="11.25" customHeight="1">
       <c r="F84" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G84" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:7" ht="11.25" customHeight="1">
       <c r="F85" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G85" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:7" ht="11.25" customHeight="1">
       <c r="F86" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G86" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:7" ht="11.25" customHeight="1">
       <c r="F87" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G87" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:7" ht="11.25" customHeight="1">
       <c r="F88" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G88" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:7" ht="11.25" customHeight="1">
       <c r="F89" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G89" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:7" ht="11.25" customHeight="1">
       <c r="F90" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G90" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:7" ht="11.25" customHeight="1">
       <c r="F91" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G91" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:7" ht="11.25" customHeight="1">
       <c r="F92" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G92" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:7" ht="11.25" customHeight="1">
       <c r="F93" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G93" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:7" ht="11.25" customHeight="1">
       <c r="F94" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G94" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:7" ht="11.25" customHeight="1">
       <c r="F95" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G95" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:7" ht="11.25" customHeight="1">
       <c r="F96" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G96" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="6:7" ht="11.25" customHeight="1">
       <c r="F97" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G97" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="6:7" ht="11.25" customHeight="1">
       <c r="F98" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G98" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="6:7" ht="11.25" customHeight="1">
       <c r="F99" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G99" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="6:7" ht="11.25" customHeight="1">
       <c r="F100" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G100" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="6:7" ht="11.25" customHeight="1">
       <c r="F101" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G101" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="6:7" ht="11.25" customHeight="1">
       <c r="F102" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G102" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="6:7" ht="11.25" customHeight="1">
       <c r="F103" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G103" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="6:7" ht="11.25" customHeight="1">
       <c r="F104" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G104" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="11.25" customHeight="1">
       <c r="F105" s="3" t="str">
         <f>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+      <c r="G105" s="51" t="str">
+        <f>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</f>
         <v/>
       </c>
     </row>
@@ -30734,7 +33016,9 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -32400,9 +34684,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F33B2-7FA2-4740-86D0-2AD97053E21B}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -32410,10 +34696,11 @@
     <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2" style="3"/>
+    <col min="7" max="7" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.25" customHeight="1">
+    <row r="1" spans="1:7" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32432,8 +34719,11 @@
       <c r="F1" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="1.9" customHeight="1">
+      <c r="G1" s="3" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="1.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -32453,8 +34743,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|:---|:---|:---|:---|:---|</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G2" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>:---＋:---＋:---＋:---</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="11.25" customHeight="1">
       <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
@@ -32465,8 +34761,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>||||Tab|図形間でフォーカスを1つ移動|</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G3" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Tab</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="11.25" customHeight="1">
       <c r="D4" s="2" t="s">
         <v>241</v>
       </c>
@@ -32477,8 +34779,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F8|[図形の整列] ダイアログ|</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G4" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>F8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="11.25" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -32492,8 +34800,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift||マウスホイール|左右スクロール|</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G5" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Shift＋マウスホイール</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="11.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -32507,8 +34821,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||1|[オブジェクト選択ツール]|</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G6" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="11.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -32522,8 +34842,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||2|[テキスト ツール]|</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G7" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="11.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -32537,8 +34863,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||3|[コネクタ]|</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G8" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="11.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -32552,8 +34884,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||6|[直線ツール]|</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G9" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="11.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -32567,8 +34905,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||7|[円弧ツール]|</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G10" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="11.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -32582,8 +34926,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||8|[四角形ツール]|</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G11" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="11.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -32597,8 +34947,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||9|[円/楕円ツール]|</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G12" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="11.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -32615,8 +34971,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||1|[接続ポイント]|</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G13" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="11.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -32633,8 +34995,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||4|[テキスト ボックス ツール]|</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G14" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="11.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -32651,8 +35019,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||w|ページサイズ ウィンドウに合わせる|</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G15" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋w</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="11.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -32669,8 +35043,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||f7|開いている図面ウィンドウを左右に並べて表示|</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G16" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋f7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="11.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -32684,8 +35064,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||h/j|オブジェクト 左右反転/上下反転|</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G17" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋h/j</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="11.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -32699,8 +35085,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||l/r|オブジェクト 回転 反時計回り/時計回り|</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G18" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋l/r</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="11.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -32717,8 +35109,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|(Shift)||g/u|オブジェクト グループ化/グループ化解除|</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G19" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋(Shift)＋g/u</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="11.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -32735,8 +35133,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||f/b|オブジェクト 最前面/最背面に移動|</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G20" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋f/b</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -32753,8 +35157,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||&gt;/&lt;|テキスト フォント 拡大/縮小|</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G21" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋&gt;/&lt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="11.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -32771,8 +35181,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||p|テキスト 書式のコピー/貼り付け|</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G22" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋p</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="11.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -32789,8 +35205,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||l/r/c/j|テキスト 横 左揃え/右揃え/中央揃え/両端揃え|</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G23" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋l/r/c/j</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -32807,8 +35229,14 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||t/m/v|テキスト 縦 上揃え/中央揃え/下揃え|</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G24" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Ctrl＋Shift＋t/m/v</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" customHeight="1">
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
@@ -32822,334 +35250,670 @@
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|f9|スナップと接着|</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G25" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v>Alt＋f9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="11.25" customHeight="1">
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G26" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="11.25" customHeight="1">
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G27" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="11.25" customHeight="1">
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G28" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="11.25" customHeight="1">
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G29" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="11.25" customHeight="1">
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G30" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="11.25" customHeight="1">
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="11.25" customHeight="1">
+      <c r="G31" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="11.25" customHeight="1">
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G32" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:7" ht="11.25" customHeight="1">
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G33" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:7" ht="11.25" customHeight="1">
       <c r="F34" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G34" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:7" ht="11.25" customHeight="1">
       <c r="F35" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G35" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:7" ht="11.25" customHeight="1">
       <c r="F36" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G36" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:7" ht="11.25" customHeight="1">
       <c r="F37" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G37" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:7" ht="11.25" customHeight="1">
       <c r="F38" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G38" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:7" ht="11.25" customHeight="1">
       <c r="F39" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G39" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:7" ht="11.25" customHeight="1">
       <c r="F40" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G40" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:7" ht="11.25" customHeight="1">
       <c r="F41" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G41" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:7" ht="11.25" customHeight="1">
       <c r="F42" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G42" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:7" ht="11.25" customHeight="1">
       <c r="F43" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G43" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:7" ht="11.25" customHeight="1">
       <c r="F44" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G44" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:7" ht="11.25" customHeight="1">
       <c r="F45" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G45" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:7" ht="11.25" customHeight="1">
       <c r="F46" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G46" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:7" ht="11.25" customHeight="1">
       <c r="F47" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G47" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:7" ht="11.25" customHeight="1">
       <c r="F48" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G48" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:7" ht="11.25" customHeight="1">
       <c r="F49" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G49" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:7" ht="11.25" customHeight="1">
       <c r="F50" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G50" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:7" ht="11.25" customHeight="1">
       <c r="F51" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G51" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:7" ht="11.25" customHeight="1">
       <c r="F52" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G52" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:7" ht="11.25" customHeight="1">
       <c r="F53" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G53" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:7" ht="11.25" customHeight="1">
       <c r="F54" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G54" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:7" ht="11.25" customHeight="1">
       <c r="F55" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G55" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:7" ht="11.25" customHeight="1">
       <c r="F56" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G56" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:7" ht="11.25" customHeight="1">
       <c r="F57" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G57" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:7" ht="11.25" customHeight="1">
       <c r="F58" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G58" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:7" ht="11.25" customHeight="1">
       <c r="F59" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G59" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:7" ht="11.25" customHeight="1">
       <c r="F60" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G60" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:7" ht="11.25" customHeight="1">
       <c r="F61" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G61" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:7" ht="11.25" customHeight="1">
       <c r="F62" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G62" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:7" ht="11.25" customHeight="1">
       <c r="F63" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G63" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:7" ht="11.25" customHeight="1">
       <c r="F64" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G64" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:7" ht="11.25" customHeight="1">
       <c r="F65" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G65" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:7" ht="11.25" customHeight="1">
       <c r="F66" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G66" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:7" ht="11.25" customHeight="1">
       <c r="F67" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G67" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:7" ht="11.25" customHeight="1">
       <c r="F68" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G68" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:7" ht="11.25" customHeight="1">
       <c r="F69" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G69" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:7" ht="11.25" customHeight="1">
       <c r="F70" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G70" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:7" ht="11.25" customHeight="1">
       <c r="F71" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G71" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:7" ht="11.25" customHeight="1">
       <c r="F72" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G72" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:7" ht="11.25" customHeight="1">
       <c r="F73" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G73" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:7" ht="11.25" customHeight="1">
       <c r="F74" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G74" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:7" ht="11.25" customHeight="1">
       <c r="F75" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G75" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:7" ht="11.25" customHeight="1">
       <c r="F76" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G76" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:7" ht="11.25" customHeight="1">
       <c r="F77" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G77" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:7" ht="11.25" customHeight="1">
       <c r="F78" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G78" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:7" ht="11.25" customHeight="1">
       <c r="F79" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="6:6" ht="11.25" customHeight="1">
+      <c r="G79" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:7" ht="11.25" customHeight="1">
       <c r="F80" s="3" t="str">
         <f>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+      <c r="G80" s="51" t="str">
+        <f>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
+IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</f>
         <v/>
       </c>
     </row>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C721E-22CA-4DA5-A41A-409306EF0A98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06C35EE-D732-433F-AFD6-9CB5D50C9B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="1" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -5539,9 +5539,6 @@
     <t>ENTERと同じ</t>
   </si>
   <si>
-    <t>分割画面サイズ変更</t>
-  </si>
-  <si>
     <t>全画面モード</t>
   </si>
   <si>
@@ -5611,17 +5608,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画面分割(垂直/水平)</t>
-    <rPh sb="8" eb="10">
-      <t>スイヘイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>分割画面移動</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>方向キー</t>
     <rPh sb="0" eb="2">
       <t>ホウコウ</t>
@@ -5706,13 +5692,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>画面分割削除</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>w</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -5750,6 +5729,34 @@
   </si>
   <si>
     <t>ショートカットキー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブ内分割削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブ内分割追加(垂直/水平)</t>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スイヘイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブ内分割移動</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タブ内分割サイズ変更</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -25460,7 +25467,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -25477,7 +25484,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
       <c r="G1" s="53" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="H1" s="53"/>
       <c r="I1" s="53"/>
@@ -25502,13 +25509,13 @@
         <v>195</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -25563,7 +25570,7 @@
         <v>コマンド/ファイル名補完</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I4" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25579,10 +25586,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25593,7 +25600,7 @@
         <v>コマンド履歴呼出し(1つ前/1つ先)</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I5" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25623,7 +25630,7 @@
         <v>コマンド履歴検索</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I6" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25642,7 +25649,7 @@
         <v>514</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25653,7 +25660,7 @@
         <v>画面クリア</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I7" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25686,7 +25693,7 @@
         <v>検索</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I8" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25702,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25716,7 +25723,7 @@
         <v>実行中プログラム強制終了</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I9" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25732,10 +25739,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25746,7 +25753,7 @@
         <v>終了</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I10" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25765,7 +25772,7 @@
         <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25776,7 +25783,7 @@
         <v>カーソル移動(1個右/左)</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I11" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25795,7 +25802,7 @@
         <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25806,7 +25813,7 @@
         <v>カーソル移動(単語単位右/左)</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I12" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25822,10 +25829,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>1187</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>1188</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25836,7 +25843,7 @@
         <v>カーソル移動(行頭/行末)</v>
       </c>
       <c r="H13" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I13" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25852,7 +25859,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1165</v>
@@ -25866,7 +25873,7 @@
         <v>文字入替(現在⇔1つ前)</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I14" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25882,10 +25889,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25896,7 +25903,7 @@
         <v>文字削除(カーソル左/カーソル位置)</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I15" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25909,16 +25916,16 @@
     </row>
     <row r="16" spans="1:11" ht="11.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>321</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25929,7 +25936,7 @@
         <v>単語削除(カーソル左/右)</v>
       </c>
       <c r="H16" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I16" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25945,10 +25952,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -25959,7 +25966,7 @@
         <v>文字削除(カーソル左側/右側全て)</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I17" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -25975,7 +25982,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1166</v>
@@ -25989,7 +25996,7 @@
         <v>貼付け（上記Ctrl + w,Ctrl + kなどで削除した文字列をペーストできる）</v>
       </c>
       <c r="H18" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I18" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26005,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1167</v>
@@ -26019,7 +26026,7 @@
         <v>ENTERと同じ</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I19" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26031,97 +26038,97 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>1201</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1189</v>
+        <v>1209</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|+/-|画面分割(垂直/水平)|</v>
+        <v>|Ctrl|Shift||w|タブ内分割削除|</v>
       </c>
       <c r="G20" s="52" t="str">
         <f>テーブル1716[[#This Row],[機能]]</f>
-        <v>画面分割(垂直/水平)</v>
+        <v>タブ内分割削除</v>
       </c>
       <c r="H20" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I20" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
-        <v>Shift＋Alt＋+/-</v>
+        <v>Ctrl＋Shift＋w</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1205</v>
+        <v>1188</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1204</v>
+        <v>1211</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||w|画面分割削除|</v>
+        <v>|||Alt|方向キー|タブ内分割移動|</v>
       </c>
       <c r="G21" s="52" t="str">
         <f>テーブル1716[[#This Row],[機能]]</f>
-        <v>画面分割削除</v>
+        <v>タブ内分割移動</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I21" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
-        <v>Ctrl＋Shift＋w</v>
+        <v>Alt＋方向キー</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="11.25" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1191</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1190</v>
+        <v>1210</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|方向キー|分割画面移動|</v>
+        <v>||Shift|Alt|+/-|タブ内分割追加(垂直/水平)|</v>
       </c>
       <c r="G22" s="52" t="str">
         <f>テーブル1716[[#This Row],[機能]]</f>
-        <v>分割画面移動</v>
+        <v>タブ内分割追加(垂直/水平)</v>
       </c>
       <c r="H22" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I22" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</f>
-        <v>Alt＋方向キー</v>
+        <v>Shift＋Alt＋+/-</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -26134,21 +26141,21 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1168</v>
+        <v>1212</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|方向キー|分割画面サイズ変更|</v>
+        <v>||Shift|Alt|方向キー|タブ内分割サイズ変更|</v>
       </c>
       <c r="G23" s="52" t="str">
         <f>テーブル1716[[#This Row],[機能]]</f>
-        <v>分割画面サイズ変更</v>
+        <v>タブ内分割サイズ変更</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I23" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26167,7 +26174,7 @@
         <v>143</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26178,7 +26185,7 @@
         <v>全画面モード</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I24" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26194,7 +26201,7 @@
         <v>224</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26205,7 +26212,7 @@
         <v>全画面モード</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I25" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26221,10 +26228,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26235,7 +26242,7 @@
         <v>画面更新 停止/再開</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I26" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26257,7 +26264,7 @@
         <v>303</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26268,7 +26275,7 @@
         <v>画面スクロール 上/下（WSL2のみ？）</v>
       </c>
       <c r="H27" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I27" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26290,7 +26297,7 @@
         <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26301,7 +26308,7 @@
         <v>新規タブ作成</v>
       </c>
       <c r="H28" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I28" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26323,7 +26330,7 @@
         <v>90</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26334,7 +26341,7 @@
         <v>タブ複製</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I29" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26350,13 +26357,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="F30" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26367,7 +26374,7 @@
         <v>タブ切替え 順方向/逆方向</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I30" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26389,7 +26396,7 @@
         <v>355</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F31" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26400,7 +26407,7 @@
         <v>コマンドパレット表示</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I31" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26422,7 +26429,7 @@
         <v>145</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26433,7 +26440,7 @@
         <v>ドロップダウンメニュー表示</v>
       </c>
       <c r="H32" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I32" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26452,7 +26459,7 @@
         <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</f>
@@ -26463,7 +26470,7 @@
         <v>フォントサイズ変更(拡大/縮小)</v>
       </c>
       <c r="H33" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I33" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26484,7 +26491,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I34" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26505,7 +26512,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I35" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26526,7 +26533,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I36" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26547,7 +26554,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I37" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26568,7 +26575,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I38" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26589,7 +26596,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I39" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26610,7 +26617,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I40" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26631,7 +26638,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I41" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26652,7 +26659,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I42" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26673,7 +26680,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I43" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26694,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I44" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26715,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I45" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26736,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I46" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26757,7 +26764,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I47" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26778,7 +26785,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I48" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26799,7 +26806,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I49" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26820,7 +26827,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I50" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26841,7 +26848,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I51" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26862,7 +26869,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I52" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26883,7 +26890,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I53" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26904,7 +26911,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I54" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26925,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I55" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26946,7 +26953,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I56" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26967,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="H57" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I57" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -26988,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I58" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27009,7 +27016,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I59" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27030,7 +27037,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I60" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27051,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I61" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27072,7 +27079,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I62" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27093,7 +27100,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I63" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27114,7 +27121,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I64" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27135,7 +27142,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I65" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27156,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I66" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27177,7 +27184,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I67" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27198,7 +27205,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I68" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27219,7 +27226,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I69" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27240,7 +27247,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I70" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27261,7 +27268,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I71" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27282,7 +27289,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I72" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27303,7 +27310,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I73" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27324,7 +27331,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I74" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27345,7 +27352,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I75" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27366,7 +27373,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I76" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27387,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I77" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27408,7 +27415,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I78" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27429,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I79" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27450,7 +27457,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I80" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27471,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I81" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27492,7 +27499,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I82" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27513,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I83" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27534,7 +27541,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I84" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27555,7 +27562,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I85" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27576,7 +27583,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I86" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27597,7 +27604,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I87" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27618,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I88" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27639,7 +27646,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I89" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27660,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I90" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27681,7 +27688,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I91" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27702,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I92" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27723,7 +27730,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I93" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27744,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="51" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="I94" s="51" t="str">
         <f>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
@@ -27758,13 +27765,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A94" xr:uid="{792C8B67-3330-4CC8-98DD-74E7AEE08EDE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A19 A20:A94" xr:uid="{792C8B67-3330-4CC8-98DD-74E7AEE08EDE}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B94" xr:uid="{D1875E52-AD66-4A8C-8118-874DB7C8DFC0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B19 B20:B94" xr:uid="{D1875E52-AD66-4A8C-8118-874DB7C8DFC0}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C3:C94" xr:uid="{5C2B4D1A-AC34-427B-8E69-106B70F54DC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C3:C19 C20:C94" xr:uid="{5C2B4D1A-AC34-427B-8E69-106B70F54DC3}">
       <formula1>"Alt"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28591,7 +28598,7 @@
         <v>195</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="1.9" customHeight="1">
@@ -34720,7 +34727,7 @@
         <v>195</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="1.9" customHeight="1">

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E99DE6E-9AA3-4749-ABF6-4F79261FCFB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D935C33D-6162-4C9E-A96E-213EFC22B5F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26700" windowHeight="16440" activeTab="2" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26460" windowHeight="16200" firstSheet="2" activeTab="6" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -15,45 +15,47 @@
     <sheet name="Excel" sheetId="10" r:id="rId4"/>
     <sheet name="Excel表" sheetId="25" r:id="rId5"/>
     <sheet name="Excel(alt)" sheetId="16" r:id="rId6"/>
-    <sheet name="Vbe" sheetId="17" r:id="rId7"/>
-    <sheet name="Visio" sheetId="14" r:id="rId8"/>
-    <sheet name="Word" sheetId="12" r:id="rId9"/>
-    <sheet name="Word表" sheetId="23" r:id="rId10"/>
-    <sheet name="Firefox" sheetId="6" r:id="rId11"/>
-    <sheet name="Thunderbird" sheetId="5" r:id="rId12"/>
-    <sheet name="iThoughts" sheetId="4" r:id="rId13"/>
-    <sheet name="Vim" sheetId="8" r:id="rId14"/>
-    <sheet name="Vim(nml)表" sheetId="27" r:id="rId15"/>
-    <sheet name="XChangeViewer" sheetId="11" r:id="rId16"/>
-    <sheet name="X-Finder" sheetId="13" r:id="rId17"/>
-    <sheet name="X-Finder表" sheetId="20" r:id="rId18"/>
-    <sheet name="秀丸表" sheetId="26" r:id="rId19"/>
+    <sheet name="AdobeReader" sheetId="32" r:id="rId7"/>
+    <sheet name="Vbe" sheetId="17" r:id="rId8"/>
+    <sheet name="Visio" sheetId="14" r:id="rId9"/>
+    <sheet name="Word" sheetId="12" r:id="rId10"/>
+    <sheet name="Word表" sheetId="23" r:id="rId11"/>
+    <sheet name="Firefox" sheetId="6" r:id="rId12"/>
+    <sheet name="Thunderbird" sheetId="5" r:id="rId13"/>
+    <sheet name="iThoughts" sheetId="4" r:id="rId14"/>
+    <sheet name="Vim" sheetId="8" r:id="rId15"/>
+    <sheet name="Vim(nml)表" sheetId="27" r:id="rId16"/>
+    <sheet name="XChangeViewer" sheetId="11" r:id="rId17"/>
+    <sheet name="X-Finder" sheetId="13" r:id="rId18"/>
+    <sheet name="X-Finder表" sheetId="20" r:id="rId19"/>
+    <sheet name="秀丸表" sheetId="26" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Excel表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Vim(nml)表'!$A$1:$I$86</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Word表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'X-Finder表'!$A$1:$I$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">秀丸表!$A$1:$I$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Vim(nml)表'!$A$1:$I$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Word表!$A$1:$I$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'X-Finder表'!$A$1:$I$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">秀丸表!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル1713[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テーブル178[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Excel(alt)'!$A$1:$B$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Excel表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">テーブル134[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル1716[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">テーブル17815[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">Vim!$A$1:$E$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'Vim(nml)表'!$A$1:$I$86</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル1312[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル17815[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">Vim!$A$1:$E$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'Vim(nml)表'!$A$1:$I$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">テーブル1312[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">Word表!$A$1:$I$92</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">'X-Finder表'!$A$1:$I$90</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">秀丸表!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">Word表!$A$1:$I$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'X-Finder表'!$A$1:$I$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">秀丸表!$A$1:$I$87</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -148,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4604" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="1264">
   <si>
     <t>Ctrl</t>
   </si>
@@ -5805,6 +5807,187 @@
   </si>
   <si>
     <t>q/u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>拡大/縮小</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>手のひらツール</t>
+  </si>
+  <si>
+    <t>選択ツール</t>
+  </si>
+  <si>
+    <t>マーキーズームツール</t>
+  </si>
+  <si>
+    <t>ズームツールの切り替え</t>
+  </si>
+  <si>
+    <t>オブジェクト選択ツール</t>
+  </si>
+  <si>
+    <t>フォーム編集の開始／終了</t>
+  </si>
+  <si>
+    <t>トリミングツール</t>
+  </si>
+  <si>
+    <t>リンクツール</t>
+  </si>
+  <si>
+    <t>テキストフィールドツール</t>
+  </si>
+  <si>
+    <t>墨消し</t>
+  </si>
+  <si>
+    <t>ノート注釈ツール</t>
+  </si>
+  <si>
+    <t>テキスト注釈ツール</t>
+  </si>
+  <si>
+    <t>スタンプツール</t>
+  </si>
+  <si>
+    <t>雲型ツール</t>
+  </si>
+  <si>
+    <t>テキストボックスツール</t>
+  </si>
+  <si>
+    <t>手のひらツール（一時的）</t>
+  </si>
+  <si>
+    <t>オブジェクト編集ツール</t>
+  </si>
+  <si>
+    <t>文書テキスト編集ツール</t>
+  </si>
+  <si>
+    <t>ハイライトツール</t>
+  </si>
+  <si>
+    <t>ハイライトツール切り替え(ハイライト→下線→取り消し線→…)</t>
+  </si>
+  <si>
+    <t>描画マークアップツール</t>
+  </si>
+  <si>
+    <t>描画マークアップツール切り替え</t>
+  </si>
+  <si>
+    <t>注釈返信</t>
+  </si>
+  <si>
+    <t>ズームインツール選択（一時的）</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一時的ズームアウト＠マーキーズームツール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文書のプロパティ表示</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>しおり展開/閉じる</t>
+    <rPh sb="3" eb="5">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パネル表示切り替え(ナビゲーションパネル)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パネル表示切り替え(タスクパネル)</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォーカス切り替え(ナビゲーションパネル)</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォーカス切り替え(文書パネル)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パネル表示切り替え(メニューバー)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全しおり展開</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンカイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6269,7 +6452,258 @@
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{6574F17E-666C-4C25-887B-BEC40B73B388}"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="214">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -9883,16 +10317,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="199" dataDxfId="198">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="213" dataDxfId="212">
   <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="193" totalsRowDxfId="192" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="207" totalsRowDxfId="206" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9901,15 +10335,32 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="96" dataDxfId="95">
+  <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:F90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9917,16 +10368,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="54" dataDxfId="53">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9934,16 +10385,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="40" dataDxfId="39">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9951,16 +10402,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="26" dataDxfId="25">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9968,16 +10419,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="12" dataDxfId="11">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9986,22 +10437,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2D9DF68C-926B-4ABF-87EC-2BE15B3EDBDB}" name="テーブル1716" displayName="テーブル1716" ref="A2:I94" headerRowDxfId="183" dataDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2D9DF68C-926B-4ABF-87EC-2BE15B3EDBDB}" name="テーブル1716" displayName="テーブル1716" ref="A2:I94" headerRowDxfId="197" dataDxfId="196">
   <autoFilter ref="A2:I94" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3E147AE7-D0C8-41DF-A4E2-0268C41F44F6}" name="Ctrl" totalsRowLabel="集計" dataDxfId="181" totalsRowDxfId="180"/>
-    <tableColumn id="2" xr3:uid="{4B9FC3C4-17EE-475E-9219-3391B5ABF30B}" name="Shift" dataDxfId="179" totalsRowDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{46A18348-8F0B-4779-88BB-730AF7B856AC}" name="Alt" dataDxfId="177" totalsRowDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{0F2B1969-7969-4132-96AD-0CA04323D1A0}" name="Key" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="5" xr3:uid="{0297C143-EEA0-428C-A549-6D4881A1076B}" name="機能" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="7" xr3:uid="{938135D4-7AE7-47A0-AD6A-EDEB24C14E63}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3E147AE7-D0C8-41DF-A4E2-0268C41F44F6}" name="Ctrl" totalsRowLabel="集計" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{4B9FC3C4-17EE-475E-9219-3391B5ABF30B}" name="Shift" dataDxfId="193" totalsRowDxfId="192"/>
+    <tableColumn id="3" xr3:uid="{46A18348-8F0B-4779-88BB-730AF7B856AC}" name="Alt" dataDxfId="191" totalsRowDxfId="190"/>
+    <tableColumn id="4" xr3:uid="{0F2B1969-7969-4132-96AD-0CA04323D1A0}" name="Key" dataDxfId="189" totalsRowDxfId="188"/>
+    <tableColumn id="5" xr3:uid="{0297C143-EEA0-428C-A549-6D4881A1076B}" name="機能" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="7" xr3:uid="{938135D4-7AE7-47A0-AD6A-EDEB24C14E63}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1E9D4DD2-9737-4143-957E-F319F30E0B34}" name="動作" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="標準 2">
+    <tableColumn id="8" xr3:uid="{1E9D4DD2-9737-4143-957E-F319F30E0B34}" name="動作" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="標準 2">
       <calculatedColumnFormula>テーブル1716[[#This Row],[機能]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{15AC32E6-0DDA-41BB-9F12-D1D0E6E9DB8B}" name="ソフト名" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="標準 2"/>
-    <tableColumn id="6" xr3:uid="{F8D06D54-E796-4E6D-B14F-DAD3A48F2538}" name="ショートカットキー" dataDxfId="165" totalsRowDxfId="164">
+    <tableColumn id="9" xr3:uid="{15AC32E6-0DDA-41BB-9F12-D1D0E6E9DB8B}" name="ソフト名" dataDxfId="181" totalsRowDxfId="180" dataCellStyle="標準 2"/>
+    <tableColumn id="6" xr3:uid="{F8D06D54-E796-4E6D-B14F-DAD3A48F2538}" name="ショートカットキー" dataDxfId="179" totalsRowDxfId="178">
       <calculatedColumnFormula>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</calculatedColumnFormula>
@@ -10012,15 +10463,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F98" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F98" headerRowDxfId="177" dataDxfId="176">
   <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10029,18 +10480,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:G105" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:G105" headerRowDxfId="163" dataDxfId="162">
   <autoFilter ref="A1:G105" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="143" totalsRowDxfId="142"/>
-    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="141" totalsRowDxfId="140"/>
-    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="153" totalsRowDxfId="152"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4FE1A9C3-DE35-4CAE-87CE-F88C1F9C3BF9}" name="列1" dataDxfId="135" totalsRowDxfId="134">
+    <tableColumn id="6" xr3:uid="{4FE1A9C3-DE35-4CAE-87CE-F88C1F9C3BF9}" name="列1" dataDxfId="149" totalsRowDxfId="148">
       <calculatedColumnFormula>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</calculatedColumnFormula>
@@ -10051,12 +10502,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="133" dataDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="A1:C92" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="標準 2"/>
-    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2">
+    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="標準 2"/>
+    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10065,15 +10516,32 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54961AA9-FFDE-4BB4-AA20-F26900B51FF1}" name="テーブル1713" displayName="テーブル1713" ref="A1:F98" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EBD26CAD-B172-41B3-A529-D3DA04293538}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2FD7451F-B63D-4E98-A795-D79A894B4E94}" name="Shift" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A3D25D4C-366B-4D7B-84D3-B001BC845B0F}" name="Alt" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{71ED80D6-715B-4D58-BD43-ABA33B7EA76E}" name="Key" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B8A9CB87-4538-4CB7-97B8-525338E383D6}" name="機能" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{06A85E02-878A-446D-B0C0-EDAC09D07E76}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17815[[#This Row],[機能]]),"","|"&amp;テーブル17815[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17815[[#This Row],[Shift]]&amp;"|"&amp;テーブル17815[[#This Row],[Alt]]&amp;"|"&amp;テーブル17815[[#This Row],[Key]]&amp;"|"&amp;テーブル17815[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10081,19 +10549,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:G80" headerRowDxfId="111" dataDxfId="110">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:G80" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:G80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D6909347-BC13-4100-95FE-0E48520F1E01}" name="列1" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="6" xr3:uid="{D6909347-BC13-4100-95FE-0E48520F1E01}" name="列1" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</calculatedColumnFormula>
@@ -10103,34 +10571,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="95" dataDxfId="94">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="109" dataDxfId="108">
   <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
-  <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
-      <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11546,6 +11997,703 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41991D50-28F6-403B-8295-1028362E0434}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.9" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F4|直前の操作の繰り返し|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||/Shift||F6|ウィンドウ切り替え 前/次|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F7|［スペルチェックと文章校正］の実行|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||:/^|文字入力 ウムラウト/曲折アクセント付き文字|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||j/l/e/r|［両端揃え/左揃え/中央揃え/右揃え］の設定|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||d/g/k|ダイアログ表示［フォント/ジャンプ/ハイパーリンクの挿入］|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||q/Space|書式の解除 段落/フォント|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Enter|［改ページ］の挿入|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||Home/End|ジャンプ to 文頭/文末|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||PgDn/Up|ジャンプ to 次/前ページ先頭|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|/Shift||F11|フィールドロック 設定/解除|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||Enter|段落内で改行|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F4|次を検索|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F5|ジャンプ to 直前の編集箇所|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||/Shift||F11|ジャンプ to 次/前フィールド|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1">
+      <c r="C18" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||/Alt|F3|定型句 挿入/登録|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1">
+      <c r="C19" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||/Alt|S → R → F|相互参照の挿入|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||Enter|［段区切り］の挿入|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||e|［変更履歴の記録］の開始|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||g|ダイアログ表示［文字数カウント］|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||l|［箇条書き］の設定|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||n|［標準］スタイルを設定|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||&lt;/&gt;|フォントサイズ 縮小/拡大|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||;/=|［上付き/下付き］の設定・解除|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||'|文字入力 アクセント付き文字/低アクセント付き文字/チルダ付き文字|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||F5|ダイアログ表示［ブックマーク］|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|/Ctrl/Ctrl|//Shift||F9|フィールド更新/フィールド挿入/フィールド変換(to直値)|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|d/t/p|フィールド入力 現在日付/現在時刻/現在ページ|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|→/←|レベル変更 下/上|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B32" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift/|/Alt|F9|フィールド表示切替＠選択範囲/全範囲|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|1/2/3|［見出し1/2/3］スタイルを設定|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|c/r/t|特殊記号の入力(著作権&amp;copy;/登録商標&amp;reg;/商品商標&amp;trade;)|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|f|脚注の挿入|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|m|新しいコメントの挿入|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|n/o/p|表示切り替え［下書き表示/アウトライン表示/印刷レイアウト表示］|</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|s|ウィンドウの分割|</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|u|罫線の削除|</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F40" s="7" t="str">
+        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="A13:A40 A3:A12" xr:uid="{3DC5BD26-73D1-4741-B208-CBBC878D6540}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B13:B40 B3:B12" xr:uid="{577A78F3-A76B-484D-976B-1A547402AB61}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C13:C40 C3:C12" xr:uid="{568F5846-DE2F-4265-BCD5-D50710BE4F7A}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4AB5F8-4007-484B-9529-20F8AFF30FB1}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I104"/>
@@ -14283,7 +15431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F91"/>
@@ -14914,7 +16062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F90"/>
@@ -15688,7 +16836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F99"/>
@@ -16548,7 +17696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F78"/>
@@ -17228,7 +18376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7025525B-1E53-4015-8D35-07D4E4476666}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:I98"/>
@@ -18659,7 +19807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D44D25-11F0-4B75-B08C-CCE87BE573F8}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F99"/>
@@ -19331,7 +20479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175ECC7F-1CF8-41ED-848A-01EC97406150}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F88"/>
@@ -20192,7 +21340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA382A7A-E69F-46C7-947F-6AC9B39ECBF7}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I102"/>
@@ -22880,2623 +24028,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I90" xr:uid="{9DD6DEC0-C364-41B4-AE33-85D9E44EDDF2}"/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="1048575" man="1"/>
-  </colBreaks>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59866B5-FAD1-4A47-9B25-C2EE02C22E50}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:I99"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="22.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="19.25" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="24">
-      <c r="A1" s="39" t="s">
-        <v>540</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>541</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A2" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A3" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A4" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A5" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A6" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A7" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A8" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A9" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A10" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A11" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A12" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A13" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12">
-      <c r="A14" s="36">
-        <v>1</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12">
-      <c r="A15" s="36">
-        <v>2</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12">
-      <c r="A16" s="36">
-        <v>3</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12">
-      <c r="A17" s="36">
-        <v>4</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12">
-      <c r="A18" s="36">
-        <v>5</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="12">
-      <c r="A19" s="36">
-        <v>6</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="12">
-      <c r="A20" s="36">
-        <v>7</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12">
-      <c r="A21" s="36">
-        <v>8</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12">
-      <c r="A22" s="36">
-        <v>9</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="12">
-      <c r="A23" s="36">
-        <v>0</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A24" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
-      <c r="A25" s="35" t="s">
-        <v>580</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12">
-      <c r="A26" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12">
-      <c r="A27" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12">
-      <c r="A28" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="12">
-      <c r="A29" s="37" t="s">
-        <v>596</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="12">
-      <c r="A30" s="37" t="s">
-        <v>669</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="12">
-      <c r="A31" s="37" t="s">
-        <v>599</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="12">
-      <c r="A32" s="37" t="s">
-        <v>600</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="12">
-      <c r="A33" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="12">
-      <c r="A34" s="38" t="s">
-        <v>917</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="12">
-      <c r="A35" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="12">
-      <c r="A36" s="37" t="s">
-        <v>921</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="12">
-      <c r="A37" s="38" t="s">
-        <v>923</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="12">
-      <c r="A38" s="37" t="s">
-        <v>940</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="12">
-      <c r="A39" s="37" t="s">
-        <v>928</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="12">
-      <c r="A40" s="37" t="s">
-        <v>930</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="12">
-      <c r="A41" s="37" t="s">
-        <v>941</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="12">
-      <c r="A42" s="37" t="s">
-        <v>936</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="12">
-      <c r="A43" s="37" t="s">
-        <v>938</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="12">
-      <c r="A44" s="37" t="s">
-        <v>667</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="12">
-      <c r="A45" s="37" t="s">
-        <v>607</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="12">
-      <c r="A46" s="37" t="s">
-        <v>609</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="12">
-      <c r="A47" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="12">
-      <c r="A48" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="12">
-      <c r="A49" s="37" t="s">
-        <v>948</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="12">
-      <c r="A50" s="37" t="s">
-        <v>612</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="12">
-      <c r="A51" s="37" t="s">
-        <v>613</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="12">
-      <c r="A52" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="12">
-      <c r="A53" s="37" t="s">
-        <v>616</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="12">
-      <c r="A54" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="12">
-      <c r="A55" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="12">
-      <c r="A56" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>619</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="12">
-      <c r="A57" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="12">
-      <c r="A58" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="12">
-      <c r="A59" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="12">
-      <c r="A60" s="37" t="s">
-        <v>625</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="37" t="s">
-        <v>626</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="12">
-      <c r="A63" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A64" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
-      <c r="A65" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="12">
-      <c r="A66" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="12">
-      <c r="A67" s="37" t="s">
-        <v>636</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="12">
-      <c r="A68" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="12">
-      <c r="A69" s="37" t="s">
-        <v>638</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="12">
-      <c r="A70" s="37" t="s">
-        <v>640</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="12">
-      <c r="A71" s="37" t="s">
-        <v>641</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="12">
-      <c r="A72" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="12">
-      <c r="A73" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="12">
-      <c r="A74" s="37" t="s">
-        <v>645</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I74" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="12">
-      <c r="A75" s="37" t="s">
-        <v>648</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I75" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="12">
-      <c r="A76" s="37" t="s">
-        <v>650</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="12">
-      <c r="A77" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="12">
-      <c r="A78" s="37" t="s">
-        <v>949</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="12">
-      <c r="A79" s="37" t="s">
-        <v>950</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I79" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="12">
-      <c r="A80" s="37" t="s">
-        <v>952</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I80" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="12">
-      <c r="A81" s="37" t="s">
-        <v>656</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I81" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="12">
-      <c r="A82" s="37" t="s">
-        <v>951</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I82" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
-      <c r="A83" s="37" t="s">
-        <v>953</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I83" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="12">
-      <c r="A84" s="37" t="s">
-        <v>954</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I84" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="12">
-      <c r="A85" s="37" t="s">
-        <v>658</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I85" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="12">
-      <c r="A86" s="37" t="s">
-        <v>660</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I86" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="12">
-      <c r="A87" s="37" t="s">
-        <v>662</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>631</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="18" customFormat="1">
-      <c r="A90" s="14"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-    </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="1:9" s="18" customFormat="1">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I87" xr:uid="{80C67FFC-3769-4A04-8E85-38E44C0567C3}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -27831,12 +26362,2629 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59866B5-FAD1-4A47-9B25-C2EE02C22E50}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:I99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="19.25" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A2" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A3" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A4" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A6" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A8" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A9" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A10" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A11" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A12" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A13" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12">
+      <c r="A14" s="36">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12">
+      <c r="A17" s="36">
+        <v>4</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12">
+      <c r="A18" s="36">
+        <v>5</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12">
+      <c r="A19" s="36">
+        <v>6</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12">
+      <c r="A20" s="36">
+        <v>7</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12">
+      <c r="A21" s="36">
+        <v>8</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12">
+      <c r="A22" s="36">
+        <v>9</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12">
+      <c r="A23" s="36">
+        <v>0</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A24" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A25" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12">
+      <c r="A26" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12">
+      <c r="A27" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12">
+      <c r="A28" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12">
+      <c r="A29" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12">
+      <c r="A30" s="37" t="s">
+        <v>669</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12">
+      <c r="A31" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12">
+      <c r="A32" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12">
+      <c r="A33" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12">
+      <c r="A34" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12">
+      <c r="A35" s="37" t="s">
+        <v>919</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12">
+      <c r="A36" s="37" t="s">
+        <v>921</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12">
+      <c r="A37" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12">
+      <c r="A38" s="37" t="s">
+        <v>940</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12">
+      <c r="A39" s="37" t="s">
+        <v>928</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12">
+      <c r="A40" s="37" t="s">
+        <v>930</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12">
+      <c r="A41" s="37" t="s">
+        <v>941</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12">
+      <c r="A42" s="37" t="s">
+        <v>936</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12">
+      <c r="A43" s="37" t="s">
+        <v>938</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12">
+      <c r="A44" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12">
+      <c r="A45" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12">
+      <c r="A46" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12">
+      <c r="A47" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12">
+      <c r="A48" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="12">
+      <c r="A49" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12">
+      <c r="A50" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="12">
+      <c r="A51" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12">
+      <c r="A52" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="12">
+      <c r="A53" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="12">
+      <c r="A54" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="12">
+      <c r="A55" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="12">
+      <c r="A56" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="12">
+      <c r="A57" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="12">
+      <c r="A58" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="12">
+      <c r="A59" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="12">
+      <c r="A60" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="12">
+      <c r="A61" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="12">
+      <c r="A62" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="12">
+      <c r="A63" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A64" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A65" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="12">
+      <c r="A66" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="12">
+      <c r="A67" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="12">
+      <c r="A68" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="12">
+      <c r="A69" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="12">
+      <c r="A70" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="12">
+      <c r="A71" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="12">
+      <c r="A72" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="12">
+      <c r="A73" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="12">
+      <c r="A74" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="12">
+      <c r="A75" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="12">
+      <c r="A76" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="12">
+      <c r="A77" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="12">
+      <c r="A78" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="12">
+      <c r="A79" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="12">
+      <c r="A80" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="12">
+      <c r="A81" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="12">
+      <c r="A82" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
+      <c r="A83" s="37" t="s">
+        <v>953</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="12">
+      <c r="A84" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="12">
+      <c r="A85" s="37" t="s">
+        <v>658</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="12">
+      <c r="A86" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="12">
+      <c r="A87" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="18" customFormat="1">
+      <c r="A90" s="14"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+    </row>
+    <row r="91" spans="1:9" s="18" customFormat="1">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:9" s="18" customFormat="1">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I87" xr:uid="{80C67FFC-3769-4A04-8E85-38E44C0567C3}"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A675852B-417C-426A-9D62-7129743CB66C}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -33988,6 +35136,898 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5244988B-12F1-4ADF-9442-50B6BDF29C2E}">
+  <dimension ref="A1:F98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="6.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.9" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||+/-|拡大/縮小|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D4" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||h|手のひらツール|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D5" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||space|手のひらツール（一時的）|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D6" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||v|選択ツール|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D7" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||u|ハイライトツール|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||u|ハイライトツール切り替え(ハイライト→下線→取り消し線→…)|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D9" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||z|マーキーズームツール|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||||一時的ズームアウト＠マーキーズームツール|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||z|ズームツールの切り替え|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||space|ズームインツール選択（一時的）|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||r|オブジェクト選択ツール|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D14" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||o|オブジェクト編集ツール|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D15" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||a|フォーム編集の開始／終了|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D16" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||c|トリミングツール|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D17" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||l|リンクツール|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D18" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||f|テキストフィールドツール|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D19" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||t|文書テキスト編集ツール|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||y|墨消し|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||s|ノート注釈ツール|</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||e|テキスト注釈ツール|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D23" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||k|スタンプツール|</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D24" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||d|描画マークアップツール|</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||d|描画マークアップツール切り替え|</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D26" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||q|雲型ツール|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D27" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||x|テキストボックスツール|</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||r|注釈返信|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||d|文書のプロパティ表示|</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D30" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||→/←|しおり展開/閉じる|</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||:|全しおり展開|</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||F4|パネル表示切り替え(タスクパネル)|</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D33" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F4|パネル表示切り替え(ナビゲーションパネル)|</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||F5|フォーカス切り替え(ナビゲーションパネル)|</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D35" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F5|フォーカス切り替え(文書パネル)|</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="11.25" customHeight="1">
+      <c r="D36" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F9|パネル表示切り替え(メニューバー)|</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F87" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F88" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F89" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F90" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F91" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F92" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F93" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F94" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F95" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F96" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F97" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F98" s="3" t="str">
+        <f>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C3:C98" xr:uid="{9D6D672C-212D-4353-8DF1-FBFE407D104D}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B98" xr:uid="{C93E9E8B-7E1E-41F0-93F1-12BF9365D851}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A98" xr:uid="{C7C976EF-45AA-45A2-83BC-4C5EBDB8EB51}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFFDBF7-FA1F-4653-A24F-5632360CCE3C}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F99"/>
@@ -34754,7 +36794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0F33B2-7FA2-4740-86D0-2AD97053E21B}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G80"/>
@@ -36009,701 +38049,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41991D50-28F6-403B-8295-1028362E0434}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="1.9" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|:---|:---|:---|:---|:---|</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1">
-      <c r="D3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F4|直前の操作の繰り返し|</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F4" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||/Shift||F6|ウィンドウ切り替え 前/次|</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="11.25" customHeight="1">
-      <c r="D5" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F7|［スペルチェックと文章校正］の実行|</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="F6" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||:/^|文字入力 ウムラウト/曲折アクセント付き文字|</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F7" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||j/l/e/r|［両端揃え/左揃え/中央揃え/右揃え］の設定|</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F8" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||d/g/k|ダイアログ表示［フォント/ジャンプ/ハイパーリンクの挿入］|</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="F9" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||q/Space|書式の解除 段落/フォント|</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||Enter|［改ページ］の挿入|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F11" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||Home/End|ジャンプ to 文頭/文末|</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F12" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||PgDn/Up|ジャンプ to 次/前ページ先頭|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F13" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|/Shift||F11|フィールドロック 設定/解除|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||Enter|段落内で改行|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F4|次を検索|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F16" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift||F5|ジャンプ to 直前の編集箇所|</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B17" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F17" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||/Shift||F11|ジャンプ to 次/前フィールド|</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="11.25" customHeight="1">
-      <c r="C18" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="F18" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||/Alt|F3|定型句 挿入/登録|</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="C19" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="F19" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||/Alt|S → R → F|相互参照の挿入|</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="F20" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||Enter|［段区切り］の挿入|</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F21" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||e|［変更履歴の記録］の開始|</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F22" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||g|ダイアログ表示［文字数カウント］|</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F23" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||l|［箇条書き］の設定|</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||n|［標準］スタイルを設定|</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="F25" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||&lt;/&gt;|フォントサイズ 縮小/拡大|</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="F26" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||;/=|［上付き/下付き］の設定・解除|</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F27" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||'|文字入力 アクセント付き文字/低アクセント付き文字/チルダ付き文字|</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F28" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||F5|ダイアログ表示［ブックマーク］|</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F29" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|/Ctrl/Ctrl|//Shift||F9|フィールド更新/フィールド挿入/フィールド変換(to直値)|</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F30" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|d/t/p|フィールド入力 現在日付/現在時刻/現在ページ|</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F31" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|→/←|レベル変更 下/上|</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="11.25" customHeight="1">
-      <c r="B32" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F32" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift/|/Alt|F9|フィールド表示切替＠選択範囲/全範囲|</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F33" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|1/2/3|［見出し1/2/3］スタイルを設定|</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F34" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|c/r/t|特殊記号の入力(著作権&amp;copy;/登録商標&amp;reg;/商品商標&amp;trade;)|</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F35" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|f|脚注の挿入|</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F36" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|m|新しいコメントの挿入|</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F37" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|n/o/p|表示切り替え［下書き表示/アウトライン表示/印刷レイアウト表示］|</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F38" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|s|ウィンドウの分割|</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="3" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|u|罫線の削除|</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="11.25" customHeight="1">
-      <c r="F40" s="7" t="str">
-        <f>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="A13:A40 A3:A12" xr:uid="{3DC5BD26-73D1-4741-B208-CBBC878D6540}">
-      <formula1>"Ctrl"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B13:B40 B3:B12" xr:uid="{577A78F3-A76B-484D-976B-1A547402AB61}">
-      <formula1>"Shift"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C13:C40 C3:C12" xr:uid="{568F5846-DE2F-4265-BCD5-D50710BE4F7A}">
-      <formula1>"Alt"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D935C33D-6162-4C9E-A96E-213EFC22B5F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4487339-D360-49FC-8E3A-5E2E0D687B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26460" windowHeight="16200" firstSheet="2" activeTab="6" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26460" windowHeight="16200" firstSheet="12" activeTab="20" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -29,9 +29,11 @@
     <sheet name="X-Finder" sheetId="13" r:id="rId18"/>
     <sheet name="X-Finder表" sheetId="20" r:id="rId19"/>
     <sheet name="秀丸表" sheetId="26" r:id="rId20"/>
+    <sheet name="Sakura表" sheetId="33" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Excel表!$A$1:$I$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Sakura表!$A$1:$I$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Vim(nml)表'!$A$1:$I$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Word表!$A$1:$I$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'X-Finder表'!$A$1:$I$90</definedName>
@@ -44,6 +46,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル1716[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">Sakura表!$A$1:$I$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル17815[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">Vim!$A$1:$E$78</definedName>
@@ -149,8 +152,33 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{35B025FB-C101-49AE-9587-C712D846D513}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>検索文字列に色を付ける＠検索ウィンドウ</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5467" uniqueCount="1265">
   <si>
     <t>Ctrl</t>
   </si>
@@ -5987,6 +6015,16 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定系★</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -6285,7 +6323,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6446,6 +6484,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6453,257 +6494,6 @@
     <cellStyle name="標準 3" xfId="2" xr:uid="{6574F17E-666C-4C25-887B-BEC40B73B388}"/>
   </cellStyles>
   <dxfs count="214">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="ＭＳ ゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8997,6 +8787,257 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="none"/>
@@ -10335,15 +10376,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10352,15 +10393,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A1:F90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10369,15 +10410,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10386,15 +10427,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10403,15 +10444,15 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10420,15 +10461,15 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10516,15 +10557,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54961AA9-FFDE-4BB4-AA20-F26900B51FF1}" name="テーブル1713" displayName="テーブル1713" ref="A1:F98" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54961AA9-FFDE-4BB4-AA20-F26900B51FF1}" name="テーブル1713" displayName="テーブル1713" ref="A1:F98" headerRowDxfId="139" dataDxfId="138">
   <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EBD26CAD-B172-41B3-A529-D3DA04293538}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{2FD7451F-B63D-4E98-A795-D79A894B4E94}" name="Shift" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A3D25D4C-366B-4D7B-84D3-B001BC845B0F}" name="Alt" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{71ED80D6-715B-4D58-BD43-ABA33B7EA76E}" name="Key" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B8A9CB87-4538-4CB7-97B8-525338E383D6}" name="機能" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{06A85E02-878A-446D-B0C0-EDAC09D07E76}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{EBD26CAD-B172-41B3-A529-D3DA04293538}" name="Ctrl" totalsRowLabel="集計" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="2" xr3:uid="{2FD7451F-B63D-4E98-A795-D79A894B4E94}" name="Shift" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{A3D25D4C-366B-4D7B-84D3-B001BC845B0F}" name="Alt" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{71ED80D6-715B-4D58-BD43-ABA33B7EA76E}" name="Key" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{B8A9CB87-4538-4CB7-97B8-525338E383D6}" name="機能" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{06A85E02-878A-446D-B0C0-EDAC09D07E76}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10533,15 +10574,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="139" dataDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17815[[#This Row],[機能]]),"","|"&amp;テーブル17815[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17815[[#This Row],[Shift]]&amp;"|"&amp;テーブル17815[[#This Row],[Alt]]&amp;"|"&amp;テーブル17815[[#This Row],[Key]]&amp;"|"&amp;テーブル17815[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10550,18 +10591,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:G80" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:G80" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="A1:G80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="101" totalsRowDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D6909347-BC13-4100-95FE-0E48520F1E01}" name="列1" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="6" xr3:uid="{D6909347-BC13-4100-95FE-0E48520F1E01}" name="列1" dataDxfId="97" totalsRowDxfId="96">
       <calculatedColumnFormula>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</calculatedColumnFormula>
@@ -10572,15 +10613,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -26371,7 +26412,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -28898,6 +28939,2622 @@
         <v>266</v>
       </c>
       <c r="H87" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="18" customFormat="1">
+      <c r="A90" s="14"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+    </row>
+    <row r="91" spans="1:9" s="18" customFormat="1">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:9" s="18" customFormat="1">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="2:9">
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I87" xr:uid="{80C67FFC-3769-4A04-8E85-38E44C0567C3}"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F94AC0-C97F-4A3C-8DCE-A414F578D2FC}">
+  <dimension ref="A1:I99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="19.25" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A2" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A3" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A4" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A6" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A8" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A9" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A10" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A11" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>663</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A12" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>664</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A13" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>562</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12">
+      <c r="A14" s="36">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12">
+      <c r="A17" s="36">
+        <v>4</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12">
+      <c r="A18" s="36">
+        <v>5</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12">
+      <c r="A19" s="36">
+        <v>6</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12">
+      <c r="A20" s="36">
+        <v>7</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12">
+      <c r="A21" s="36">
+        <v>8</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12">
+      <c r="A22" s="36">
+        <v>9</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12">
+      <c r="A23" s="36">
+        <v>0</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A24" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A25" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12">
+      <c r="A26" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>588</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12">
+      <c r="A27" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12">
+      <c r="A28" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>595</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>594</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>595</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12">
+      <c r="A29" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12">
+      <c r="A30" s="37" t="s">
+        <v>669</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12">
+      <c r="A31" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12">
+      <c r="A32" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12">
+      <c r="A33" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12">
+      <c r="A34" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12">
+      <c r="A35" s="37" t="s">
+        <v>919</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12">
+      <c r="A36" s="37" t="s">
+        <v>921</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12">
+      <c r="A37" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12">
+      <c r="A38" s="37" t="s">
+        <v>940</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>605</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="F38" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12">
+      <c r="A39" s="37" t="s">
+        <v>928</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12">
+      <c r="A40" s="37" t="s">
+        <v>930</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12">
+      <c r="A41" s="37" t="s">
+        <v>941</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>603</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>604</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12">
+      <c r="A42" s="37" t="s">
+        <v>936</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12">
+      <c r="A43" s="37" t="s">
+        <v>938</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12">
+      <c r="A44" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F44" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12">
+      <c r="A45" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12">
+      <c r="A46" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="B46" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F46" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12">
+      <c r="A47" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12">
+      <c r="A48" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="12">
+      <c r="A49" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12">
+      <c r="A50" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="12">
+      <c r="A51" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12">
+      <c r="A52" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D52" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="12">
+      <c r="A53" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>617</v>
+      </c>
+      <c r="E53" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="12">
+      <c r="A54" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D54" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="12">
+      <c r="A55" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="12">
+      <c r="A56" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>618</v>
+      </c>
+      <c r="E56" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="12">
+      <c r="A57" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>622</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="12">
+      <c r="A58" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="12">
+      <c r="A59" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="12">
+      <c r="A60" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="12">
+      <c r="A61" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D61" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F61" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H61" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="12">
+      <c r="A62" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D62" s="54" t="s">
+        <v>628</v>
+      </c>
+      <c r="E62" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F62" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G62" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="12">
+      <c r="A63" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A64" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D64" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H64" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A65" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D65" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="12">
+      <c r="A66" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="G66" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="12">
+      <c r="A67" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>637</v>
+      </c>
+      <c r="E67" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="12">
+      <c r="A68" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D68" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E68" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="12">
+      <c r="A69" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D69" s="54" t="s">
+        <v>639</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H69" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="12">
+      <c r="A70" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="12">
+      <c r="A71" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D71" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F71" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="12">
+      <c r="A72" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D72" s="54" t="s">
+        <v>643</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" s="54" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="12">
+      <c r="A73" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H73" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="12">
+      <c r="A74" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D74" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="G74" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H74" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="12">
+      <c r="A75" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>649</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G75" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H75" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="12">
+      <c r="A76" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F76" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H76" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="12">
+      <c r="A77" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G77" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H77" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="12">
+      <c r="A78" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>670</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H78" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="12">
+      <c r="A79" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F79" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G79" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="12">
+      <c r="A80" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="C80" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G80" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H80" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="12">
+      <c r="A81" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="C81" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G81" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="12">
+      <c r="A82" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>670</v>
+      </c>
+      <c r="C82" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="19" customFormat="1" ht="12">
+      <c r="A83" s="37" t="s">
+        <v>953</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>670</v>
+      </c>
+      <c r="C83" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H83" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="12">
+      <c r="A84" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>670</v>
+      </c>
+      <c r="C84" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E84" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G84" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H84" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="12">
+      <c r="A85" s="37" t="s">
+        <v>658</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="E85" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F85" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G85" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H85" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="12">
+      <c r="A86" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" s="54" t="s">
+        <v>661</v>
+      </c>
+      <c r="E86" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G86" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H86" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="12">
+      <c r="A87" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="C87" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E87" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F87" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G87" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="H87" s="54" t="s">
         <v>266</v>
       </c>
       <c r="I87" s="16" t="s">
@@ -35139,7 +37796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5244988B-12F1-4ADF-9442-50B6BDF29C2E}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4487339-D360-49FC-8E3A-5E2E0D687B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ADC96A-B020-45A8-9D82-81D744DF0A6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26460" windowHeight="16200" firstSheet="12" activeTab="20" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="14" activeTab="21" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -30,9 +30,13 @@
     <sheet name="X-Finder表" sheetId="20" r:id="rId19"/>
     <sheet name="秀丸表" sheetId="26" r:id="rId20"/>
     <sheet name="Sakura表" sheetId="33" r:id="rId21"/>
+    <sheet name="RLogin" sheetId="34" r:id="rId22"/>
+    <sheet name="Rlogin表" sheetId="36" r:id="rId23"/>
+    <sheet name="WinSCP" sheetId="35" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Excel表!$A$1:$I$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">Rlogin表!$A$1:$I$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Sakura表!$A$1:$I$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Vim(nml)表'!$A$1:$I$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Word表!$A$1:$I$92</definedName>
@@ -46,6 +50,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">テーブル1[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル1716[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="21">テーブル178101117[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">Rlogin表!$A$1:$I$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="20">Sakura表!$A$1:$I$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル17815[[#All],[Ctrl]:[機能]]</definedName>
@@ -53,6 +59,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="15">'Vim(nml)表'!$A$1:$I$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">テーブル1312[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">テーブル1345[[#All],[Ctrl]:[機能]]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="23">テーブル17810111718[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">テーブル17810[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Word表!$A$1:$I$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">テーブル1789[[#All],[Ctrl]:[機能]]</definedName>
@@ -178,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5467" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6369" uniqueCount="1323">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6026,6 +6033,372 @@
     <rPh sb="2" eb="3">
       <t>ケイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ドラッグ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>矩形選択</t>
+    <rPh sb="0" eb="2">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>貼り付け($CLIPBOARD)</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索($SEARCH_REG)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SFTPダイアログを開く($VIEW_SFTP)</t>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>↓/→</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ペインフォーカス移動(次/前)</t>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックマーク追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ツリー・パネル切替え</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックマーク・ウィンドウ開く</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ディレクトリ移動(ルート)</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ディレクトリ移動(ホーム)</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ディレクトリ移動(戻る/進む/親)</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ススム</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>←/→/↑</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>分割を閉じる($PANE_DELETE)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続開く($FILE_NEW)/閉じる($FILE_CLOSE)</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;/&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(単語) 左(\033[1;5D)/右(\033[1;5C)</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(一文字) 左(\033[D)/右(\033[C)</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>イチモジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オプション設定($OPTION_SET)</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索($SEARCH_REG)</t>
+  </si>
+  <si>
+    <t>貼り付け($CLIPBOARD)</t>
+  </si>
+  <si>
+    <t>SFTPダイアログを開く($VIEW_SFTP)</t>
+  </si>
+  <si>
+    <t>接続開く($FILE_NEW)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続閉じる($FILE_CLOSE)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>.（&gt;）</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カーソル移動(単語) 右(\033[1;5C)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(単語) 左(\033[1;5D)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(一文字) 左(\033[D)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(一文字) 右(\033[C)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オプション設定($OPTION_SET)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全状態保存($FILE_ALLSAVE)</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全状態保存($FILE_ALLSAVE)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ整理(並べて表示)($PANE_TILEHORZ)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ整理(重ねて表示)($PANE_CASCADE)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ペイン移動($PANE_ROTATION)</t>
+  </si>
+  <si>
+    <t>ペイン移動($PANE_ROTATION)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続追加(新規)＋縦($SPLIT_HEIGHTNEW)/横分割($SPLIT_WIDTHNEW)</t>
+    <rPh sb="9" eb="10">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続追加(複製)＋縦分割($SPLIT_HEIGHT)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続追加(新規)＋横分割($SPLIT_WIDTHNEW)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続追加(新規)＋縦分割($SPLIT_HEIGHTNEW)</t>
+  </si>
+  <si>
+    <t>接続追加(複製)＋横分割($SPLIT_WIDTH)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ移動(上)($PANE_UP)</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ移動(下)($PANE_DOWN)</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ移動(右)($PANE_RIGHT)</t>
+  </si>
+  <si>
+    <t>ウィンドウ移動(左)($PANE_LEFT)</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続追加(複製)＋縦($SPLIT_HEIGHT)/横分割($SPLIT_WIDTH)</t>
+    <rPh sb="9" eb="10">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続追加(複製)＋同ペイン($SPLIT_OVER)</t>
+  </si>
+  <si>
+    <t>接続追加(複製)＋同ペイン($SPLIT_OVER)</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ整理(重ねて表示($PANE_CASCADE)</t>
+    <rPh sb="5" eb="7">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ整理(並べて表示($PANE_TILEHORZ))</t>
+    <rPh sb="5" eb="7">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F11</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F12</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>n/w</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6323,7 +6696,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6487,13 +6860,510 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3" xfId="2" xr:uid="{6574F17E-666C-4C25-887B-BEC40B73B388}"/>
   </cellStyles>
-  <dxfs count="214">
+  <dxfs count="240">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="ＭＳ ゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -10358,16 +11228,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="213" dataDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="239" dataDxfId="238">
   <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="211" totalsRowDxfId="210"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="209" totalsRowDxfId="208"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="207" totalsRowDxfId="206" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="199" totalsRowDxfId="198" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="237" totalsRowDxfId="236"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Shift" dataDxfId="235" totalsRowDxfId="234"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Alt" dataDxfId="233" totalsRowDxfId="232" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Win" dataDxfId="231" totalsRowDxfId="230"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Key" dataDxfId="229" totalsRowDxfId="228"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="機能" dataDxfId="227" totalsRowDxfId="226"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="|Ctrl|Shift|Alt|Win|Key|機能|" totalsRowFunction="count" dataDxfId="225" totalsRowDxfId="224" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1345[[#This Row],[機能]]),"","|"&amp;テーブル1345[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1345[[#This Row],[Shift]]&amp;"|"&amp;テーブル1345[[#This Row],[Alt]]&amp;"|"&amp;テーブル1345[[#This Row],[Win]]&amp;"|"&amp;テーブル1345[[#This Row],[Key]]&amp;"|"&amp;テーブル1345[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10376,15 +11246,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="テーブル134" displayName="テーブル134" ref="A1:F91" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A1:F91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Shift" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Alt" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Key" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="機能" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル134[[#This Row],[機能]]),"","|"&amp;テーブル134[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル134[[#This Row],[Shift]]&amp;"|"&amp;テーブル134[[#This Row],[Alt]]&amp;"|"&amp;テーブル134[[#This Row],[Key]]&amp;"|"&amp;テーブル134[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10393,15 +11263,15 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="テーブル13" displayName="テーブル13" ref="A1:F90" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A1:F90" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Shift" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Alt" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Key" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="機能" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13[[#This Row],[機能]]),"","|"&amp;テーブル13[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13[[#This Row],[Shift]]&amp;"|"&amp;テーブル13[[#This Row],[Alt]]&amp;"|"&amp;テーブル13[[#This Row],[Key]]&amp;"|"&amp;テーブル13[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10410,15 +11280,15 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="テーブル1" displayName="テーブル1" ref="A1:F99" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Shift" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Alt" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Key" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="機能" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1[[#This Row],[機能]]),"","|"&amp;テーブル1[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1[[#This Row],[Shift]]&amp;"|"&amp;テーブル1[[#This Row],[Alt]]&amp;"|"&amp;テーブル1[[#This Row],[Key]]&amp;"|"&amp;テーブル1[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10427,15 +11297,15 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="テーブル13456" displayName="テーブル13456" ref="A1:F78" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:F78" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ctrl" totalsRowLabel="集計" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Shift" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Alt" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Key" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="機能" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル13456[[#This Row],[機能]]),"","|"&amp;テーブル13456[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル13456[[#This Row],[Shift]]&amp;"|"&amp;テーブル13456[[#This Row],[Alt]]&amp;"|"&amp;テーブル13456[[#This Row],[Key]]&amp;"|"&amp;テーブル13456[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10444,15 +11314,15 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{74162BA7-0E42-48B6-B99F-4D7F769D24F9}" name="テーブル1789" displayName="テーブル1789" ref="A1:F99" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{62FA586D-EF03-4D43-A10E-78D2AF735C71}" name="Ctrl" totalsRowLabel="集計" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{C5A7C3F6-4F42-4530-8FD3-1990CF3F9124}" name="Shift" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{A05CE0D9-140D-45A0-888F-253BF948A770}" name="Alt" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{7DA7D284-C06D-4102-9404-5695C13F122B}" name="Key" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{3D010DA0-57B1-4C00-9C5F-DCCF15D9FD17}" name="機能" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{E74BE0E9-7F88-484C-9AEE-D35FA3AED34A}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1789[[#This Row],[機能]]),"","|"&amp;テーブル1789[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1789[[#This Row],[Shift]]&amp;"|"&amp;テーブル1789[[#This Row],[Alt]]&amp;"|"&amp;テーブル1789[[#This Row],[Key]]&amp;"|"&amp;テーブル1789[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10461,15 +11331,15 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E6EF7B9C-FAC1-42B1-BC95-AF668093141D}" name="テーブル1781011" displayName="テーブル1781011" ref="A1:F88" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:F88" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{10591B97-DA49-4E0D-BF23-0888174E098F}" name="Ctrl" totalsRowLabel="集計" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{EDA168A4-45CB-47AC-9F73-DAC9B98B27C9}" name="Shift" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{3CB7FF1C-24DD-4B0B-8123-C85716EAD21F}" name="Alt" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{8AEA5FCE-4FCC-42AA-A7BC-DD61C011D20F}" name="Key" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{1A91CD22-6C43-43F8-AD49-13837BC29411}" name="機能" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{B88C40F9-0361-4D7D-B3EE-F9FB5D80EF07}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1781011[[#This Row],[機能]]),"","|"&amp;テーブル1781011[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1781011[[#This Row],[Shift]]&amp;"|"&amp;テーブル1781011[[#This Row],[Alt]]&amp;"|"&amp;テーブル1781011[[#This Row],[Key]]&amp;"|"&amp;テーブル1781011[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10477,23 +11347,57 @@
 </table>
 </file>
 
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B3B06C47-0783-4864-BFA7-B306B0811F6A}" name="テーブル178101117" displayName="テーブル178101117" ref="A1:F83" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:F83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7074AF62-75A2-46EA-8E94-9E786E84646D}" name="Ctrl" totalsRowLabel="集計" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F02671C4-0209-4380-B7DA-CF9B477E89B2}" name="Shift" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9B58AEF7-1D72-4FEE-A42F-93F443378C06}" name="Alt" dataDxfId="20" totalsRowDxfId="19" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{D6259F1A-DA1E-493E-8B9D-E5E7A7F4A237}" name="Key" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{845EF0DA-8876-435D-B447-45D9FDE96CB8}" name="機能" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{73F62DE7-8594-4C51-868E-0808EC9462FA}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3E4261FB-9C64-448C-9F25-19EE6AB0F0AD}" name="テーブル17810111718" displayName="テーブル17810111718" ref="A1:F87" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:F87" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{162A6882-854C-4B36-BAC7-6242ED6FC9CA}" name="Ctrl" totalsRowLabel="集計" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5A1827CA-FA25-42CF-8A80-A75C4BC329D4}" name="Shift" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DE18CCD6-FA82-4E00-AAC1-C76845B9238E}" name="Alt" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{0B51BB38-9C41-4F58-9BE6-6B40D4186466}" name="Key" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{25751899-D56F-4317-B3BB-BE7B6603B360}" name="機能" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{CC47A67F-93F0-47FE-ACDE-5B7D47EE09A3}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2D9DF68C-926B-4ABF-87EC-2BE15B3EDBDB}" name="テーブル1716" displayName="テーブル1716" ref="A2:I94" headerRowDxfId="197" dataDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2D9DF68C-926B-4ABF-87EC-2BE15B3EDBDB}" name="テーブル1716" displayName="テーブル1716" ref="A2:I94" headerRowDxfId="223" dataDxfId="222">
   <autoFilter ref="A2:I94" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3E147AE7-D0C8-41DF-A4E2-0268C41F44F6}" name="Ctrl" totalsRowLabel="集計" dataDxfId="195" totalsRowDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{4B9FC3C4-17EE-475E-9219-3391B5ABF30B}" name="Shift" dataDxfId="193" totalsRowDxfId="192"/>
-    <tableColumn id="3" xr3:uid="{46A18348-8F0B-4779-88BB-730AF7B856AC}" name="Alt" dataDxfId="191" totalsRowDxfId="190"/>
-    <tableColumn id="4" xr3:uid="{0F2B1969-7969-4132-96AD-0CA04323D1A0}" name="Key" dataDxfId="189" totalsRowDxfId="188"/>
-    <tableColumn id="5" xr3:uid="{0297C143-EEA0-428C-A549-6D4881A1076B}" name="機能" dataDxfId="187" totalsRowDxfId="186"/>
-    <tableColumn id="7" xr3:uid="{938135D4-7AE7-47A0-AD6A-EDEB24C14E63}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="185" totalsRowDxfId="184" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3E147AE7-D0C8-41DF-A4E2-0268C41F44F6}" name="Ctrl" totalsRowLabel="集計" dataDxfId="221" totalsRowDxfId="220"/>
+    <tableColumn id="2" xr3:uid="{4B9FC3C4-17EE-475E-9219-3391B5ABF30B}" name="Shift" dataDxfId="219" totalsRowDxfId="218"/>
+    <tableColumn id="3" xr3:uid="{46A18348-8F0B-4779-88BB-730AF7B856AC}" name="Alt" dataDxfId="217" totalsRowDxfId="216"/>
+    <tableColumn id="4" xr3:uid="{0F2B1969-7969-4132-96AD-0CA04323D1A0}" name="Key" dataDxfId="215" totalsRowDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{0297C143-EEA0-428C-A549-6D4881A1076B}" name="機能" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{938135D4-7AE7-47A0-AD6A-EDEB24C14E63}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="211" totalsRowDxfId="210" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1716[[#This Row],[機能]]),"","|"&amp;テーブル1716[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1716[[#This Row],[Shift]]&amp;"|"&amp;テーブル1716[[#This Row],[Alt]]&amp;"|"&amp;テーブル1716[[#This Row],[Key]]&amp;"|"&amp;テーブル1716[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1E9D4DD2-9737-4143-957E-F319F30E0B34}" name="動作" dataDxfId="183" totalsRowDxfId="182" dataCellStyle="標準 2">
+    <tableColumn id="8" xr3:uid="{1E9D4DD2-9737-4143-957E-F319F30E0B34}" name="動作" dataDxfId="209" totalsRowDxfId="208" dataCellStyle="標準 2">
       <calculatedColumnFormula>テーブル1716[[#This Row],[機能]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{15AC32E6-0DDA-41BB-9F12-D1D0E6E9DB8B}" name="ソフト名" dataDxfId="181" totalsRowDxfId="180" dataCellStyle="標準 2"/>
-    <tableColumn id="6" xr3:uid="{F8D06D54-E796-4E6D-B14F-DAD3A48F2538}" name="ショートカットキー" dataDxfId="179" totalsRowDxfId="178">
+    <tableColumn id="9" xr3:uid="{15AC32E6-0DDA-41BB-9F12-D1D0E6E9DB8B}" name="ソフト名" dataDxfId="207" totalsRowDxfId="206" dataCellStyle="標準 2"/>
+    <tableColumn id="6" xr3:uid="{F8D06D54-E796-4E6D-B14F-DAD3A48F2538}" name="ショートカットキー" dataDxfId="205" totalsRowDxfId="204">
       <calculatedColumnFormula>IF(テーブル1716[[#This Row],[Ctrl]]="","",テーブル1716[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Shift]]="","",テーブル1716[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル1716[[#This Row],[Alt]]="","",テーブル1716[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1716[[#This Row],[Key]]</calculatedColumnFormula>
@@ -10504,15 +11408,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F98" headerRowDxfId="177" dataDxfId="176">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B5B3D110-E258-4597-BB86-3913C990E2CB}" name="テーブル17" displayName="テーブル17" ref="A1:F98" headerRowDxfId="203" dataDxfId="202">
   <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="175" totalsRowDxfId="174"/>
-    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="165" totalsRowDxfId="164" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{A339EFE5-6258-4149-86B3-E1CEAA4BEE00}" name="Ctrl" totalsRowLabel="集計" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="2" xr3:uid="{95FE279B-8D22-4BC8-8A2E-858DDB73272E}" name="Shift" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="3" xr3:uid="{38818F14-8583-4816-90BC-42EC8E0CEF9E}" name="Alt" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="4" xr3:uid="{59B72529-4238-4F15-B172-C15FB4893E65}" name="Key" dataDxfId="195" totalsRowDxfId="194"/>
+    <tableColumn id="5" xr3:uid="{1D07021F-1DC8-467F-922D-781773F86854}" name="機能" dataDxfId="193" totalsRowDxfId="192"/>
+    <tableColumn id="7" xr3:uid="{B99A910B-404C-4E9F-ABC8-6C1CF3E22617}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="191" totalsRowDxfId="190" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17[[#This Row],[機能]]),"","|"&amp;テーブル17[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17[[#This Row],[Shift]]&amp;"|"&amp;テーブル17[[#This Row],[Alt]]&amp;"|"&amp;テーブル17[[#This Row],[Key]]&amp;"|"&amp;テーブル17[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10521,18 +11425,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:G105" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3651D7F7-A056-4B9F-A254-BC10C8DFD165}" name="テーブル178" displayName="テーブル178" ref="A1:G105" headerRowDxfId="189" dataDxfId="188">
   <autoFilter ref="A1:G105" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="161" totalsRowDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="159" totalsRowDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="157" totalsRowDxfId="156"/>
-    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="155" totalsRowDxfId="154"/>
-    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="153" totalsRowDxfId="152"/>
-    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="151" totalsRowDxfId="150" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{68752F33-5B3F-4E9C-B091-B22CC2989F38}" name="Ctrl" totalsRowLabel="集計" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{5167CBDE-CFFA-48FA-949C-7754DEBB5471}" name="Shift" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="3" xr3:uid="{A2117648-5D51-418A-8399-3A653EB882CF}" name="Alt" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="4" xr3:uid="{2372578A-8AA5-480D-AA77-FC8F0A78D0EA}" name="Key" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{3BE13509-C9C9-46C8-8667-7EAECC678335}" name="機能" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="7" xr3:uid="{AE1A202E-0809-4E6C-9470-DFFA229D9669}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="177" totalsRowDxfId="176" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル178[[#This Row],[機能]]),"","|"&amp;テーブル178[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178[[#This Row],[Shift]]&amp;"|"&amp;テーブル178[[#This Row],[Alt]]&amp;"|"&amp;テーブル178[[#This Row],[Key]]&amp;"|"&amp;テーブル178[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4FE1A9C3-DE35-4CAE-87CE-F88C1F9C3BF9}" name="列1" dataDxfId="149" totalsRowDxfId="148">
+    <tableColumn id="6" xr3:uid="{4FE1A9C3-DE35-4CAE-87CE-F88C1F9C3BF9}" name="列1" dataDxfId="175" totalsRowDxfId="174">
       <calculatedColumnFormula>IF(テーブル178[[#This Row],[Ctrl]]="","",テーブル178[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル178[[#This Row],[Shift]]="","",テーブル178[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル178[[#This Row],[Alt]]="","",テーブル178[[#This Row],[Alt]]&amp;"＋")&amp;テーブル178[[#This Row],[Key]]</calculatedColumnFormula>
@@ -10543,12 +11447,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{20717FDD-4026-4F7F-936C-BEEC867C938B}" name="テーブル17814" displayName="テーブル17814" ref="A1:C92" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:C92" xr:uid="{4CB39E0E-759A-4F48-9321-000A7B6C0DCA}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="143" totalsRowDxfId="142" dataCellStyle="標準 2"/>
-    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="141" totalsRowDxfId="140" dataCellStyle="標準 2">
+    <tableColumn id="2" xr3:uid="{3AEEA09D-295D-4DA2-B1DC-7199FAFF0781}" name="Key" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{A76CCD34-8166-44D0-8998-F212D2DFCFFB}" name="機能" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="標準 2"/>
+    <tableColumn id="7" xr3:uid="{6F6BD55F-093D-4EEF-8239-C97ACF4A285C}" name="| Key | 機能 |" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="166" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17814[[#This Row],[機能]]),"","|"&amp;テーブル17814[[#This Row],[Key]]&amp;"|"&amp;テーブル17814[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10557,15 +11461,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54961AA9-FFDE-4BB4-AA20-F26900B51FF1}" name="テーブル1713" displayName="テーブル1713" ref="A1:F98" headerRowDxfId="139" dataDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{54961AA9-FFDE-4BB4-AA20-F26900B51FF1}" name="テーブル1713" displayName="テーブル1713" ref="A1:F98" headerRowDxfId="165" dataDxfId="164">
   <autoFilter ref="A1:F98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EBD26CAD-B172-41B3-A529-D3DA04293538}" name="Ctrl" totalsRowLabel="集計" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{2FD7451F-B63D-4E98-A795-D79A894B4E94}" name="Shift" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{A3D25D4C-366B-4D7B-84D3-B001BC845B0F}" name="Alt" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{71ED80D6-715B-4D58-BD43-ABA33B7EA76E}" name="Key" dataDxfId="131" totalsRowDxfId="130"/>
-    <tableColumn id="5" xr3:uid="{B8A9CB87-4538-4CB7-97B8-525338E383D6}" name="機能" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="7" xr3:uid="{06A85E02-878A-446D-B0C0-EDAC09D07E76}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{EBD26CAD-B172-41B3-A529-D3DA04293538}" name="Ctrl" totalsRowLabel="集計" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="2" xr3:uid="{2FD7451F-B63D-4E98-A795-D79A894B4E94}" name="Shift" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="3" xr3:uid="{A3D25D4C-366B-4D7B-84D3-B001BC845B0F}" name="Alt" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{71ED80D6-715B-4D58-BD43-ABA33B7EA76E}" name="Key" dataDxfId="157" totalsRowDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{B8A9CB87-4538-4CB7-97B8-525338E383D6}" name="機能" dataDxfId="155" totalsRowDxfId="154"/>
+    <tableColumn id="7" xr3:uid="{06A85E02-878A-446D-B0C0-EDAC09D07E76}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="153" totalsRowDxfId="152" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1713[[#This Row],[機能]]),"","|"&amp;テーブル1713[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1713[[#This Row],[Shift]]&amp;"|"&amp;テーブル1713[[#This Row],[Alt]]&amp;"|"&amp;テーブル1713[[#This Row],[Key]]&amp;"|"&amp;テーブル1713[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10574,15 +11478,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CD3FDAAC-EA50-4891-82BC-D4E844A5127E}" name="テーブル17815" displayName="テーブル17815" ref="A1:F99" headerRowDxfId="151" dataDxfId="150">
   <autoFilter ref="A1:F99" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="123" totalsRowDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="115" totalsRowDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{ABB88C56-03A7-4AE9-BC2E-9C94F6123CED}" name="Ctrl" totalsRowLabel="集計" dataDxfId="149" totalsRowDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{54ED05C0-41E5-4D67-AC66-4C672B6FCEE0}" name="Shift" dataDxfId="147" totalsRowDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{460AE638-8C55-41C3-AAF9-5CA7AE00D46C}" name="Alt" dataDxfId="145" totalsRowDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{4A2D0730-8F61-4FC1-AD20-422CC8C8418A}" name="Key" dataDxfId="143" totalsRowDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{52A22859-FCDA-42B4-A9B3-A252BE1722B5}" name="機能" dataDxfId="141" totalsRowDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{FA9A7219-28FF-4D03-8D62-50F57A41243F}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17815[[#This Row],[機能]]),"","|"&amp;テーブル17815[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17815[[#This Row],[Shift]]&amp;"|"&amp;テーブル17815[[#This Row],[Alt]]&amp;"|"&amp;テーブル17815[[#This Row],[Key]]&amp;"|"&amp;テーブル17815[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10591,18 +11495,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:G80" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{64C7855A-AE6E-4D1B-95FD-A0F7F70CC417}" name="テーブル1312" displayName="テーブル1312" ref="A1:G80" headerRowDxfId="137" dataDxfId="136">
   <autoFilter ref="A1:G80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{3B675F56-1F29-4E78-BDB6-CA41FB9B1F5C}" name="Ctrl" totalsRowLabel="集計" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="2" xr3:uid="{B7008E7C-6419-42EC-940A-5B6A0748F5B1}" name="Shift" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{D10E9664-9EFA-48AC-A609-71DE9D6B26CA}" name="Alt" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{04E5B1BB-D2DF-4C83-97E5-127E5BD91A73}" name="Key" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="5" xr3:uid="{1EE32BB4-F6DB-4221-AFF6-F34183FE5769}" name="機能" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="7" xr3:uid="{3266105D-4A94-4CBB-8500-927634878533}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル1312[[#This Row],[機能]]),"","|"&amp;テーブル1312[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル1312[[#This Row],[Shift]]&amp;"|"&amp;テーブル1312[[#This Row],[Alt]]&amp;"|"&amp;テーブル1312[[#This Row],[Key]]&amp;"|"&amp;テーブル1312[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D6909347-BC13-4100-95FE-0E48520F1E01}" name="列1" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="6" xr3:uid="{D6909347-BC13-4100-95FE-0E48520F1E01}" name="列1" dataDxfId="123" totalsRowDxfId="122">
       <calculatedColumnFormula>IF(テーブル1312[[#This Row],[Ctrl]]="","",テーブル1312[[#This Row],[Ctrl]]&amp;"＋")&amp;
 IF(テーブル1312[[#This Row],[Shift]]="","",テーブル1312[[#This Row],[Shift]]&amp;"＋")&amp;
 IF(テーブル1312[[#This Row],[Alt]]="","",テーブル1312[[#This Row],[Alt]]&amp;"＋")&amp;テーブル1312[[#This Row],[Key]]</calculatedColumnFormula>
@@ -10613,15 +11517,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0BE3AAD5-252A-42BC-B735-5702B821C9F5}" name="テーブル17810" displayName="テーブル17810" ref="A1:F40" headerRowDxfId="121" dataDxfId="120">
   <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="標準 2"/>
-    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="標準 2">
+    <tableColumn id="1" xr3:uid="{AC738BBB-3009-41EE-B57C-C49F293EF770}" name="Ctrl" totalsRowLabel="集計" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{0FA728AD-25AD-41FC-AC69-C8FD9D439BB0}" name="Shift" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{A5C1728F-F016-41C4-894F-916122C25955}" name="Alt" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{7A760A73-B1FA-44DC-9BF4-F09C9E1325A2}" name="Key" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{99F9108C-C22A-4625-A879-60C0A5850F2D}" name="機能" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{0F2ABE32-0915-4657-86F2-4FEBDC3CD8A8}" name="|Ctrl|Shift|Alt|Key|機能|" totalsRowFunction="count" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="標準 2">
       <calculatedColumnFormula>IF(ISBLANK(テーブル17810[[#This Row],[機能]]),"","|"&amp;テーブル17810[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810[[#This Row],[Key]]&amp;"|"&amp;テーブル17810[[#This Row],[機能]]&amp;"|")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20525,7 +21429,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -24087,7 +24993,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -29024,11 +29930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F94AC0-C97F-4A3C-8DCE-A414F578D2FC}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -31633,6 +32539,4227 @@
     <brk id="9" max="1048575" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6009FD9C-9508-432A-9D16-8FA7741DDA77}">
+  <dimension ref="A1:F83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F1:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="6.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.9" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||ドラッグ|矩形選択|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift||ドラッグ|行選択|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A5" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F5" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||f|検索($SEARCH_REG)|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F6" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||v|貼り付け($CLIPBOARD)|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F7" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F10|SFTPダイアログを開く($VIEW_SFTP)|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F8" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|←|接続追加(複製)＋同ペイン($SPLIT_OVER)|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F9" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>||Shift|Alt|↓/→|接続追加(複製)＋縦($SPLIT_HEIGHT)/横分割($SPLIT_WIDTH)|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A10" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F10" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|↓/→|接続追加(新規)＋縦($SPLIT_HEIGHTNEW)/横分割($SPLIT_WIDTHNEW)|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A11" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F11" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|↑|ペイン移動($PANE_ROTATION)|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|/Shift||tab|ペインフォーカス移動(次/前)|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="55" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F13" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F11|ウィンドウ整理(並べて表示($PANE_TILEHORZ))|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="55" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F14" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F12|ウィンドウ整理(重ねて表示($PANE_CASCADE)|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A15" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F15" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|w|分割を閉じる($PANE_DELETE)|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F16" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|n/w|接続開く($FILE_NEW)/閉じる($FILE_CLOSE)|</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A17" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F17" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||&lt;/&gt;|カーソル移動(一文字) 左(\033[D)/右(\033[C)|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A18" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F18" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|Shift||&lt;/&gt;|カーソル移動(単語) 左(\033[1;5D)/右(\033[1;5C)|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F19" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|o|オプション設定($OPTION_SET)|</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A20" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F20" s="57" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||s|全状態保存($FILE_ALLSAVE)|</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F21" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F22" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F23" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F24" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F25" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F26" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F83" s="7" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A83" xr:uid="{116FEBE6-4FAB-42F5-BE87-0D3EF9DA0D8E}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B83" xr:uid="{AC90D523-C0BE-4B6C-8BA1-5D36EDEB16D2}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C3:C83" xr:uid="{BB0A3E2E-59EE-4DE5-A0D1-12733582344C}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC0A4BB-8195-47B9-96EC-28B9FF2054E0}">
+  <dimension ref="A1:I102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="19.25" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A2" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A3" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A4" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A6" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A8" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A9" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A10" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A11" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A12" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A13" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12">
+      <c r="A14" s="36">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12">
+      <c r="A15" s="36">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12">
+      <c r="A16" s="36">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12">
+      <c r="A17" s="36">
+        <v>4</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12">
+      <c r="A18" s="36">
+        <v>5</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12">
+      <c r="A19" s="36">
+        <v>6</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12">
+      <c r="A20" s="36">
+        <v>7</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12">
+      <c r="A21" s="36">
+        <v>8</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12">
+      <c r="A22" s="36">
+        <v>9</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12">
+      <c r="A23" s="36">
+        <v>0</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A24" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A25" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A26" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="A27" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12">
+      <c r="A28" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12">
+      <c r="A29" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12">
+      <c r="A30" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12">
+      <c r="A31" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12">
+      <c r="A32" s="37" t="s">
+        <v>669</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12">
+      <c r="A33" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12">
+      <c r="A34" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12">
+      <c r="A35" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12">
+      <c r="A36" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12">
+      <c r="A37" s="37" t="s">
+        <v>919</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12">
+      <c r="A38" s="37" t="s">
+        <v>921</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12">
+      <c r="A39" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12">
+      <c r="A40" s="37" t="s">
+        <v>940</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12">
+      <c r="A41" s="37" t="s">
+        <v>928</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12">
+      <c r="A42" s="37" t="s">
+        <v>930</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12">
+      <c r="A43" s="37" t="s">
+        <v>932</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12">
+      <c r="A44" s="37" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12">
+      <c r="A45" s="37" t="s">
+        <v>936</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12">
+      <c r="A46" s="37" t="s">
+        <v>938</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="12">
+      <c r="A47" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="12">
+      <c r="A48" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="12">
+      <c r="A49" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12">
+      <c r="A50" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="12">
+      <c r="A51" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="12">
+      <c r="A52" s="37" t="s">
+        <v>948</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="12">
+      <c r="A53" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="12">
+      <c r="A54" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="12">
+      <c r="A55" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="12">
+      <c r="A56" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="12">
+      <c r="A57" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="12">
+      <c r="A58" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="12">
+      <c r="A59" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F59" s="62" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="12">
+      <c r="A60" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="12">
+      <c r="A61" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="12">
+      <c r="A62" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="12">
+      <c r="A63" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="12">
+      <c r="A64" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="12">
+      <c r="A65" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="12">
+      <c r="A66" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A67" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E67" s="62" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="12">
+      <c r="A68" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E68" s="62" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="12">
+      <c r="A69" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="12">
+      <c r="A70" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="12">
+      <c r="A71" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="12">
+      <c r="A72" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D72" s="62" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="12">
+      <c r="A73" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="12">
+      <c r="A74" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="12">
+      <c r="A75" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E75" s="62" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F75" s="62" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="12">
+      <c r="A76" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E76" s="62" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H76" s="62" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="12">
+      <c r="A77" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H77" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="12">
+      <c r="A78" s="37" t="s">
+        <v>648</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H78" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="12">
+      <c r="A79" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="12">
+      <c r="A80" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="12">
+      <c r="A81" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="12">
+      <c r="A82" s="37" t="s">
+        <v>950</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I82" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="12">
+      <c r="A83" s="37" t="s">
+        <v>952</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="12">
+      <c r="A84" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="12">
+      <c r="A85" s="37" t="s">
+        <v>951</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="19" customFormat="1" ht="12">
+      <c r="A86" s="37" t="s">
+        <v>953</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="12">
+      <c r="A87" s="37" t="s">
+        <v>954</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="12">
+      <c r="A88" s="37" t="s">
+        <v>658</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="12">
+      <c r="A89" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="12">
+      <c r="A90" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="18" customFormat="1">
+      <c r="A93" s="14"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+    </row>
+    <row r="94" spans="1:9" s="18" customFormat="1">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+    </row>
+    <row r="95" spans="1:9" s="18" customFormat="1">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+    </row>
+    <row r="100" spans="2:9">
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="2:9">
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="2:9">
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I90" xr:uid="{80C67FFC-3769-4A04-8E85-38E44C0567C3}"/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA54F41-B092-4E7D-93AC-AB3337F259F0}">
+  <dimension ref="A1:F87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="6.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="2" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="1.9" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v>|:---|:---|:---|:---|:---|</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>869</v>
+      </c>
+      <c r="F3" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||F5|更新|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F4" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v>|||Alt|←/→/↑|ディレクトリ移動(戻る/進む/親)|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="61" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F5" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v>||||★|ディレクトリ移動(ルート)|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A6" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F6" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||h|ディレクトリ移動(ホーム)|</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A7" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F7" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||b|ブックマーク追加|</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A8" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F8" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl|||o|ブックマーク・ウィンドウ開く|</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A9" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F9" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|t|ツリー・パネル切替え|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F27" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F28" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F29" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F30" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F31" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="11.25" customHeight="1">
+      <c r="F32" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F33" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F34" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F35" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F36" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F37" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F38" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F39" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F40" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F41" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F42" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F43" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F44" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F45" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F46" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F47" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F48" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F49" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F50" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F51" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F52" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F53" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F54" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F55" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F56" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F57" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F58" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F59" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F60" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F61" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F62" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F63" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F64" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F65" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F66" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F67" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F68" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F69" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F70" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F71" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F72" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F73" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F74" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F75" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F76" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F77" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F78" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F79" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F80" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F81" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F82" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F83" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F84" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F85" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F86" s="3" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:6" ht="11.25" customHeight="1">
+      <c r="F87" s="7" t="str">
+        <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C3:C87" xr:uid="{B31DB357-1EF1-42DD-AE04-121ABEAE5001}">
+      <formula1>"Alt"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B87" xr:uid="{77AD40C2-5A4D-4414-AA44-0E43D9D6B6E9}">
+      <formula1>"Shift"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A87" xr:uid="{D5A4FBD9-D3FD-4ACE-A0DB-516E45B338B3}">
+      <formula1>"Ctrl"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ADC96A-B020-45A8-9D82-81D744DF0A6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9F91F-E54C-4B0E-A7E0-4B0001C8BA75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="14" activeTab="21" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6369" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6401" uniqueCount="1338">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6089,10 +6089,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>★</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ブックマーク追加</t>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
@@ -6399,6 +6395,106 @@
   </si>
   <si>
     <t>n/w</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フィルタ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダ作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル名コピー</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイルパスコピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Copy current remote path to the clipboard</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>隠しファイル表示/非表示切り替え</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ツリーパネル表示/非表示切り替え</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6878,13 +6974,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32547,7 +32643,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F1:F20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -32695,7 +32791,7 @@
         <v>293</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F8" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32714,7 +32810,7 @@
         <v>1270</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F9" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32733,7 +32829,7 @@
         <v>1270</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F10" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32752,7 +32848,7 @@
         <v>294</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F11" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32782,10 +32878,10 @@
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="55" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F13" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32797,10 +32893,10 @@
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F14" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32819,7 +32915,7 @@
         <v>1198</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F15" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32833,10 +32929,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F16" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32850,10 +32946,10 @@
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
       <c r="D17" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>1286</v>
+        <v>1282</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>1285</v>
       </c>
       <c r="F17" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32869,10 +32965,10 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="55" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E18" s="62" t="s">
         <v>1283</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>1284</v>
       </c>
       <c r="F18" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32886,10 +32982,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>1287</v>
+        <v>1284</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>1286</v>
       </c>
       <c r="F19" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32903,10 +32999,10 @@
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
       <c r="D20" s="55" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E20" s="62" t="s">
         <v>1300</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>1301</v>
       </c>
       <c r="F20" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33624,8 +33720,8 @@
       <c r="A11" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>1290</v>
+      <c r="B11" s="61" t="s">
+        <v>1289</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>670</v>
@@ -33653,8 +33749,8 @@
       <c r="A12" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>1302</v>
+      <c r="B12" s="61" t="s">
+        <v>1301</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>670</v>
@@ -33682,8 +33778,8 @@
       <c r="A13" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>1303</v>
+      <c r="B13" s="61" t="s">
+        <v>1302</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>670</v>
@@ -34011,7 +34107,7 @@
         <v>670</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>670</v>
@@ -34019,8 +34115,8 @@
       <c r="G24" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H24" s="62" t="s">
-        <v>1304</v>
+      <c r="H24" s="61" t="s">
+        <v>1303</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>266</v>
@@ -34040,16 +34136,16 @@
         <v>670</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G25" s="62" t="s">
-        <v>1307</v>
-      </c>
-      <c r="H25" s="62" t="s">
-        <v>1309</v>
+      <c r="G25" s="61" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>1308</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>266</v>
@@ -34069,16 +34165,16 @@
         <v>670</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G26" s="62" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H26" s="62" t="s">
-        <v>1308</v>
+      <c r="G26" s="61" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>1307</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>266</v>
@@ -34098,13 +34194,13 @@
         <v>670</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G27" s="62" t="s">
-        <v>1316</v>
+      <c r="G27" s="61" t="s">
+        <v>1315</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>670</v>
@@ -34558,14 +34654,14 @@
       <c r="C43" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D43" s="62" t="s">
-        <v>1296</v>
+      <c r="D43" s="61" t="s">
+        <v>1295</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F43" s="62" t="s">
-        <v>1295</v>
+      <c r="F43" s="61" t="s">
+        <v>1294</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>670</v>
@@ -34579,7 +34675,7 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="37" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>563</v>
@@ -34587,14 +34683,14 @@
       <c r="C44" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D44" s="62" t="s">
-        <v>1297</v>
+      <c r="D44" s="61" t="s">
+        <v>1296</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F44" s="62" t="s">
-        <v>1294</v>
+      <c r="F44" s="61" t="s">
+        <v>1293</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>670</v>
@@ -35028,8 +35124,8 @@
       <c r="E59" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F59" s="62" t="s">
-        <v>1288</v>
+      <c r="F59" s="61" t="s">
+        <v>1287</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>670</v>
@@ -35257,8 +35353,8 @@
       <c r="D67" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E67" s="62" t="s">
-        <v>1291</v>
+      <c r="E67" s="61" t="s">
+        <v>1290</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>670</v>
@@ -35286,8 +35382,8 @@
       <c r="D68" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E68" s="62" t="s">
-        <v>1298</v>
+      <c r="E68" s="61" t="s">
+        <v>1297</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>670</v>
@@ -35399,8 +35495,8 @@
       <c r="C72" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D72" s="62" t="s">
-        <v>1299</v>
+      <c r="D72" s="61" t="s">
+        <v>1298</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>670</v>
@@ -35489,11 +35585,11 @@
       <c r="D75" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E75" s="62" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F75" s="62" t="s">
-        <v>1289</v>
+      <c r="E75" s="61" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F75" s="61" t="s">
+        <v>1288</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>670</v>
@@ -35518,8 +35614,8 @@
       <c r="D76" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E76" s="62" t="s">
-        <v>1292</v>
+      <c r="E76" s="61" t="s">
+        <v>1291</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>670</v>
@@ -35527,8 +35623,8 @@
       <c r="G76" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H76" s="62" t="s">
-        <v>1281</v>
+      <c r="H76" s="61" t="s">
+        <v>1280</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>266</v>
@@ -36019,7 +36115,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -36094,10 +36190,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36105,18 +36201,20 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
-      <c r="D5" s="61" t="s">
-        <v>1273</v>
+      <c r="D5" s="63" t="s">
+        <v>1324</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F5" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||★|ディレクトリ移動(ルート)|</v>
+        <v>|Ctrl|||\|ディレクトリ移動(ルート)|</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1">
@@ -36129,7 +36227,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F6" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36146,7 +36244,7 @@
         <v>101</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F7" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36163,7 +36261,7 @@
         <v>371</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F8" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36182,7 +36280,7 @@
         <v>103</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F9" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36190,91 +36288,153 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
+      <c r="C10" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>1322</v>
+      </c>
       <c r="F10" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl||Alt|f|フィルタ|</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A11" s="58"/>
+      <c r="A11" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
+      <c r="D11" s="59" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>1326</v>
+      </c>
       <c r="F11" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|||d|フォルダ作成|</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
+      <c r="D12" s="59" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>1328</v>
+      </c>
       <c r="F12" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|Shift||e|ファイル作成|</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
+      <c r="D13" s="59" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>1330</v>
+      </c>
       <c r="F13" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|Shift||c|ファイル名コピー|</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A14" s="58"/>
+      <c r="A14" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
+      <c r="C14" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>1331</v>
+      </c>
       <c r="F14" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl||Alt|c|ファイルパスコピー|</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>1</v>
+      </c>
       <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="D15" s="59" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>1333</v>
+      </c>
       <c r="F15" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|Shift||p|Copy current remote path to the clipboard|</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A16" s="58"/>
+      <c r="A16" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+      <c r="C16" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>1335</v>
+      </c>
       <c r="F16" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl||Alt|h|隠しファイル表示/非表示切り替え|</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A17" s="58"/>
+      <c r="A17" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="C17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>1336</v>
+      </c>
       <c r="F17" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl||Alt|t|ツリーパネル表示/非表示切り替え|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1">

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9F91F-E54C-4B0E-A7E0-4B0001C8BA75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C60FE0-9F77-421E-A6F1-D7A48AF1BD3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="14" activeTab="21" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="4680" yWindow="2340" windowWidth="19845" windowHeight="11835" firstSheet="17" activeTab="22" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6401" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6411" uniqueCount="1345">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6100,10 +6100,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ブックマーク・ウィンドウ開く</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ディレクトリ移動(ルート)</t>
     <rPh sb="6" eb="8">
       <t>イドウ</t>
@@ -6410,10 +6406,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>フォルダ作成</t>
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
@@ -6421,10 +6413,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>e</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ファイル作成</t>
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
@@ -6447,19 +6435,67 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>p</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Copy current remote path to the clipboard</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>h</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>隠しファイル表示/非表示切り替え</t>
+    <t>t</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ショートカットファイル作成</t>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ソート(名前)</t>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エクスプローラで開く(ローカルパネルのみ)</t>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダパスコピー(ローカルパネル)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォルダパスコピー(リモートパネル)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブックマークウィンドウ表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>隠しファイル表示/非表示切替え</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
     </rPh>
@@ -6472,13 +6508,13 @@
     <rPh sb="12" eb="13">
       <t>キ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="13" eb="14">
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ツリーパネル表示/非表示切り替え</t>
+    <t>ツリーパネル表示/非表示切替え</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
     </rPh>
@@ -6488,13 +6524,9 @@
     <rPh sb="12" eb="13">
       <t>キ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="13" eb="14">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>t</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -32642,8 +32674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6009FD9C-9508-432A-9D16-8FA7741DDA77}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -32791,7 +32823,7 @@
         <v>293</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F8" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32810,7 +32842,7 @@
         <v>1270</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F9" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32829,7 +32861,7 @@
         <v>1270</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F10" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32848,7 +32880,7 @@
         <v>294</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F11" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32878,10 +32910,10 @@
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="55" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F13" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32893,10 +32925,10 @@
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F14" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32915,7 +32947,7 @@
         <v>1198</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F15" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32929,10 +32961,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F16" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32946,10 +32978,10 @@
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
       <c r="D17" s="55" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F17" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32965,10 +32997,10 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="55" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E18" s="62" t="s">
         <v>1282</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>1283</v>
       </c>
       <c r="F18" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32982,10 +33014,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F19" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32999,10 +33031,10 @@
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
       <c r="D20" s="55" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E20" s="62" t="s">
         <v>1299</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>1300</v>
       </c>
       <c r="F20" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33412,11 +33444,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC0A4BB-8195-47B9-96EC-28B9FF2054E0}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -33721,7 +33753,7 @@
         <v>141</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>670</v>
@@ -33750,7 +33782,7 @@
         <v>221</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>670</v>
@@ -33779,7 +33811,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>670</v>
@@ -34107,7 +34139,7 @@
         <v>670</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>670</v>
@@ -34116,7 +34148,7 @@
         <v>670</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>266</v>
@@ -34136,16 +34168,16 @@
         <v>670</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>670</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>266</v>
@@ -34165,16 +34197,16 @@
         <v>670</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>670</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>266</v>
@@ -34194,13 +34226,13 @@
         <v>670</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>670</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>670</v>
@@ -34655,13 +34687,13 @@
         <v>563</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>670</v>
@@ -34675,7 +34707,7 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="37" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>563</v>
@@ -34684,13 +34716,13 @@
         <v>563</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F44" s="61" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>670</v>
@@ -35125,7 +35157,7 @@
         <v>670</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>670</v>
@@ -35354,7 +35386,7 @@
         <v>670</v>
       </c>
       <c r="E67" s="61" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>670</v>
@@ -35383,7 +35415,7 @@
         <v>670</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>670</v>
@@ -35496,7 +35528,7 @@
         <v>563</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>670</v>
@@ -35586,10 +35618,10 @@
         <v>670</v>
       </c>
       <c r="E75" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F75" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>670</v>
@@ -35615,7 +35647,7 @@
         <v>670</v>
       </c>
       <c r="E76" s="61" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>670</v>
@@ -35624,7 +35656,7 @@
         <v>670</v>
       </c>
       <c r="H76" s="61" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>266</v>
@@ -36115,7 +36147,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
@@ -36190,10 +36222,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36207,10 +36239,10 @@
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="63" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F5" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36227,7 +36259,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F6" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36243,7 +36275,7 @@
       <c r="D7" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="63" t="s">
         <v>1273</v>
       </c>
       <c r="F7" s="60" t="str">
@@ -36260,12 +36292,12 @@
       <c r="D8" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>1275</v>
+      <c r="E8" s="63" t="s">
+        <v>1342</v>
       </c>
       <c r="F8" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||o|ブックマーク・ウィンドウ開く|</v>
+        <v>|Ctrl|||o|ブックマークウィンドウ表示|</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1">
@@ -36279,7 +36311,7 @@
       <c r="D9" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="63" t="s">
         <v>1274</v>
       </c>
       <c r="F9" s="60" t="str">
@@ -36296,10 +36328,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E10" s="59" t="s">
         <v>1322</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>1321</v>
       </c>
       <c r="F10" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36307,96 +36339,88 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A11" s="58" t="s">
-        <v>0</v>
-      </c>
+      <c r="A11" s="58"/>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>1326</v>
+        <v>1331</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>1324</v>
       </c>
       <c r="F11" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||d|フォルダ作成|</v>
+        <v>||||F7|フォルダ作成|</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A12" s="58" t="s">
-        <v>0</v>
-      </c>
+      <c r="A12" s="58"/>
       <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="59" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>1328</v>
+        <v>341</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>1325</v>
       </c>
       <c r="F12" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||e|ファイル作成|</v>
+        <v>||Shift||F4|ファイル作成|</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A13" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="58"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58" t="s">
+        <v>2</v>
+      </c>
       <c r="D13" s="59" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>1330</v>
+        <v>1333</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>1332</v>
       </c>
       <c r="F13" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||c|ファイル名コピー|</v>
+        <v>|||Alt|F6|ショートカットファイル作成|</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1">
       <c r="A14" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="58"/>
       <c r="D14" s="59" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>1331</v>
+        <v>1326</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>1327</v>
       </c>
       <c r="F14" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|c|ファイルパスコピー|</v>
+        <v>|Ctrl|Shift||c|ファイル名コピー|</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1">
       <c r="A15" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>1</v>
-      </c>
+      <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="59" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>1333</v>
+        <v>1340</v>
       </c>
       <c r="F15" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||p|Copy current remote path to the clipboard|</v>
+        <v>|Ctrl|||[|フォルダパスコピー(ローカルパネル)|</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1">
@@ -36404,18 +36428,16 @@
         <v>0</v>
       </c>
       <c r="B16" s="58"/>
-      <c r="C16" s="58" t="s">
-        <v>2</v>
-      </c>
+      <c r="C16" s="58"/>
       <c r="D16" s="59" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="F16" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|h|隠しファイル表示/非表示切り替え|</v>
+        <v>|Ctrl|||]|フォルダパスコピー(リモートパネル)|</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1">
@@ -36427,58 +36449,88 @@
         <v>2</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>1336</v>
+        <v>1326</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>1328</v>
       </c>
       <c r="F17" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|t|ツリーパネル表示/非表示切り替え|</v>
+        <v>|Ctrl||Alt|c|ファイルパスコピー|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A18" s="58"/>
+      <c r="A18" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="C18" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>1343</v>
+      </c>
       <c r="F18" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl||Alt|h|隠しファイル表示/非表示切替え|</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="58"/>
+      <c r="A19" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
+      <c r="C19" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>1344</v>
+      </c>
       <c r="F19" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl||Alt|t|ツリーパネル表示/非表示切替え|</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A20" s="58"/>
+      <c r="A20" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
+      <c r="D20" s="59" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>1335</v>
+      </c>
       <c r="F20" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|||F3|ソート(名前)|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A21" s="58"/>
+      <c r="A21" s="58" t="s">
+        <v>0</v>
+      </c>
       <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="C21" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>1339</v>
+      </c>
       <c r="F21" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl||Alt|e|エクスプローラで開く(ローカルパネルのみ)|</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1">

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C60FE0-9F77-421E-A6F1-D7A48AF1BD3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C777DEE-1A7F-4513-928C-8E3711B5E750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2340" windowWidth="19845" windowHeight="11835" firstSheet="17" activeTab="22" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="17" activeTab="22" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6411" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6425" uniqueCount="1361">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6060,20 +6060,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>検索($SEARCH_REG)</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SFTPダイアログを開く($VIEW_SFTP)</t>
-    <rPh sb="10" eb="11">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>↓/→</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6138,63 +6124,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>接続開く($FILE_NEW)/閉じる($FILE_CLOSE)</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;/&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>カーソル移動(単語) 左(\033[1;5D)/右(\033[1;5C)</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>o</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>カーソル移動(一文字) 左(\033[D)/右(\033[C)</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>イチモジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>オプション設定($OPTION_SET)</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -6217,14 +6147,6 @@
   <si>
     <t>.（&gt;）</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>カーソル移動(単語) 右(\033[1;5C)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>カーソル移動(単語) 左(\033[1;5D)</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>カーソル移動(一文字) 左(\033[D)</t>
@@ -6250,10 +6172,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>全状態保存($FILE_ALLSAVE)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ウィンドウ整理(並べて表示)($PANE_TILEHORZ)</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6263,23 +6181,6 @@
   </si>
   <si>
     <t>ペイン移動($PANE_ROTATION)</t>
-  </si>
-  <si>
-    <t>ペイン移動($PANE_ROTATION)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>接続追加(新規)＋縦($SPLIT_HEIGHTNEW)/横分割($SPLIT_WIDTHNEW)</t>
-    <rPh sb="9" eb="10">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ブンカツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>接続追加(複製)＋縦分割($SPLIT_HEIGHT)</t>
@@ -6330,56 +6231,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>接続追加(複製)＋縦($SPLIT_HEIGHT)/横分割($SPLIT_WIDTH)</t>
-    <rPh sb="9" eb="10">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ブンカツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>接続追加(複製)＋同ペイン($SPLIT_OVER)</t>
-  </si>
-  <si>
-    <t>接続追加(複製)＋同ペイン($SPLIT_OVER)</t>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ウィンドウ整理(重ねて表示($PANE_CASCADE)</t>
-    <rPh sb="5" eb="7">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ウィンドウ整理(並べて表示($PANE_TILEHORZ))</t>
-    <rPh sb="5" eb="7">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>F11</t>
@@ -6526,6 +6378,294 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(単語) 左(\033b)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(単語) 右(\033f)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(行頭)(\001)</t>
+    <rPh sb="7" eb="9">
+      <t>ギョウトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(行末)(\005)</t>
+    <rPh sb="7" eb="9">
+      <t>ギョウマツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 カーソル右</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 カーソル左</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 カーソル右(\004)</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 単語右(\033d)</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 単語左(\027)</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動 行頭(\001)/行末(\005)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>,/.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h/d</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 カーソル左/右</t>
+    <rPh sb="9" eb="10">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 単語左(\027)/単語右(\033d)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 カーソル右(\004)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(単語) 左(\033b)/右(\033f)</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 行末まで</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウマツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文字削除 行頭まで</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(一文字) 左(\033\[D)/右(\033\[C)</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>イチモジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オプション設定($OPTION\_SET)</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全状態保存($FILE\_ALLSAVE)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検索($SEARCH\_REG)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SFTPダイアログを開く($VIEW\_SFTP)</t>
+    <rPh sb="10" eb="11">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続追加(複製)＋同ペイン($SPLIT\_OVER)</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続追加(複製)＋縦($SPLIT\_HEIGHT)/横分割($SPLIT\_WIDTH)</t>
+    <rPh sb="9" eb="10">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>接続追加(新規)＋縦($SPLIT\_HEIGHTNEW)/横分割($SPLIT\_WIDTHNEW)</t>
+    <rPh sb="9" eb="10">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ペイン移動($PANE\_ROTATION)</t>
+  </si>
+  <si>
+    <t>ウィンドウ整理(並べて表示($PANE\_TILEHORZ))</t>
+    <rPh sb="5" eb="7">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ウィンドウ整理(重ねて表示($PANE\_CASCADE)</t>
+    <rPh sb="5" eb="7">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>分割を閉じる($PANE\_DELETE)</t>
+  </si>
+  <si>
+    <t>接続開く($FILE\_NEW)/閉じる($FILE\_CLOSE)</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -32674,9 +32814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6009FD9C-9508-432A-9D16-8FA7741DDA77}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -32770,11 +32908,11 @@
         <v>75</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>1268</v>
+        <v>1351</v>
       </c>
       <c r="F5" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||f|検索($SEARCH_REG)|</v>
+        <v>|Ctrl|Shift||f|検索($SEARCH\_REG)|</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1">
@@ -32801,14 +32939,14 @@
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
       <c r="D7" s="55" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>1269</v>
+        <v>1352</v>
       </c>
       <c r="F7" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F10|SFTPダイアログを開く($VIEW_SFTP)|</v>
+        <v>||||F10|SFTPダイアログを開く($VIEW\_SFTP)|</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1">
@@ -32823,11 +32961,11 @@
         <v>293</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>1315</v>
+        <v>1353</v>
       </c>
       <c r="F8" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|←|接続追加(複製)＋同ペイン($SPLIT_OVER)|</v>
+        <v>||Shift|Alt|←|接続追加(複製)＋同ペイン($SPLIT\_OVER)|</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1">
@@ -32839,14 +32977,14 @@
         <v>2</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1313</v>
+        <v>1354</v>
       </c>
       <c r="F9" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|↓/→|接続追加(複製)＋縦($SPLIT_HEIGHT)/横分割($SPLIT_WIDTH)|</v>
+        <v>||Shift|Alt|↓/→|接続追加(複製)＋縦($SPLIT\_HEIGHT)/横分割($SPLIT\_WIDTH)|</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1">
@@ -32858,14 +32996,14 @@
         <v>2</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>1304</v>
+        <v>1355</v>
       </c>
       <c r="F10" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|↓/→|接続追加(新規)＋縦($SPLIT_HEIGHTNEW)/横分割($SPLIT_WIDTHNEW)|</v>
+        <v>|Ctrl||Alt|↓/→|接続追加(新規)＋縦($SPLIT\_HEIGHTNEW)/横分割($SPLIT\_WIDTHNEW)|</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1">
@@ -32880,11 +33018,11 @@
         <v>294</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>1303</v>
+        <v>1356</v>
       </c>
       <c r="F11" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|↑|ペイン移動($PANE_ROTATION)|</v>
+        <v>|Ctrl||Alt|↑|ペイン移動($PANE\_ROTATION)|</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1">
@@ -32898,7 +33036,7 @@
         <v>1210</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32910,14 +33048,14 @@
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="55" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>1317</v>
+        <v>1357</v>
       </c>
       <c r="F13" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F11|ウィンドウ整理(並べて表示($PANE_TILEHORZ))|</v>
+        <v>||||F11|ウィンドウ整理(並べて表示($PANE\_TILEHORZ))|</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1">
@@ -32925,14 +33063,14 @@
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>1316</v>
+        <v>1358</v>
       </c>
       <c r="F14" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F12|ウィンドウ整理(重ねて表示($PANE_CASCADE)|</v>
+        <v>||||F12|ウィンドウ整理(重ねて表示($PANE\_CASCADE)|</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1">
@@ -32947,11 +33085,11 @@
         <v>1198</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>1279</v>
+        <v>1359</v>
       </c>
       <c r="F15" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|w|分割を閉じる($PANE_DELETE)|</v>
+        <v>|Ctrl||Alt|w|分割を閉じる($PANE\_DELETE)|</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1">
@@ -32961,14 +33099,14 @@
         <v>2</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>1280</v>
+        <v>1360</v>
       </c>
       <c r="F16" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|n/w|接続開く($FILE_NEW)/閉じる($FILE_CLOSE)|</v>
+        <v>|||Alt|n/w|接続開く($FILE\_NEW)/閉じる($FILE\_CLOSE)|</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1">
@@ -32978,14 +33116,14 @@
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
       <c r="D17" s="55" t="s">
-        <v>1281</v>
+        <v>1339</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>1284</v>
+        <v>1348</v>
       </c>
       <c r="F17" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||&lt;/&gt;|カーソル移動(一文字) 左(\033[D)/右(\033[C)|</v>
+        <v>|Ctrl|||,/.|カーソル移動(一文字) 左(\033\[D)/右(\033\[C)|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1">
@@ -32997,72 +33135,118 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="55" t="s">
-        <v>1281</v>
+        <v>1339</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>1282</v>
+        <v>1345</v>
       </c>
       <c r="F18" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||&lt;/&gt;|カーソル移動(単語) 左(\033[1;5D)/右(\033[1;5C)|</v>
+        <v>|Ctrl|Shift||,/.|カーソル移動(単語) 左(\033b)/右(\033f)|</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="56" t="s">
+        <v>0</v>
+      </c>
       <c r="B19" s="56"/>
       <c r="C19" s="56" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>1285</v>
+        <v>1339</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>1338</v>
       </c>
       <c r="F19" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|o|オプション設定($OPTION_SET)|</v>
+        <v>|Ctrl||Alt|,/.|カーソル移動 行頭(\001)/行末(\005)|</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A20" s="56" t="s">
-        <v>0</v>
-      </c>
+      <c r="A20" s="56"/>
       <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="C20" s="56" t="s">
+        <v>2</v>
+      </c>
       <c r="D20" s="55" t="s">
-        <v>1298</v>
+        <v>1278</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>1299</v>
+        <v>1349</v>
       </c>
       <c r="F20" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||s|全状態保存($FILE_ALLSAVE)|</v>
+        <v>|||Alt|o|オプション設定($OPTION\_SET)|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="F21" s="3" t="str">
+      <c r="A21" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="55" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F21" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|||s|全状態保存($FILE\_ALLSAVE)|</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1341</v>
+      </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|||h/d|文字削除 カーソル左/右|</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1">
-      <c r="F23" s="3" t="str">
+      <c r="A23" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="55" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F23" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|||l|文字削除 カーソル右(\004)|</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="11.25" customHeight="1">
-      <c r="F24" s="3" t="str">
+      <c r="A24" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="55" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F24" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|Shift||h/d|文字削除 単語左(\027)/単語右(\033d)|</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1">
@@ -33422,13 +33606,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A3:A83" xr:uid="{116FEBE6-4FAB-42F5-BE87-0D3EF9DA0D8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A25:A83 A3:A24" xr:uid="{116FEBE6-4FAB-42F5-BE87-0D3EF9DA0D8E}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B3:B83" xr:uid="{AC90D523-C0BE-4B6C-8BA1-5D36EDEB16D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B25:B83 B3:B24" xr:uid="{AC90D523-C0BE-4B6C-8BA1-5D36EDEB16D2}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C3:C83" xr:uid="{BB0A3E2E-59EE-4DE5-A0D1-12733582344C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C25:C83 C3:C24" xr:uid="{BB0A3E2E-59EE-4DE5-A0D1-12733582344C}">
       <formula1>"Alt"</formula1>
     </dataValidation>
   </dataValidations>
@@ -33445,10 +33629,10 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -33753,7 +33937,7 @@
         <v>141</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>670</v>
@@ -33782,7 +33966,7 @@
         <v>221</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>670</v>
@@ -33811,7 +33995,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>670</v>
@@ -34139,7 +34323,7 @@
         <v>670</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>670</v>
@@ -34148,7 +34332,7 @@
         <v>670</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>266</v>
@@ -34168,16 +34352,16 @@
         <v>670</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>670</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>266</v>
@@ -34197,16 +34381,16 @@
         <v>670</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>670</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>266</v>
@@ -34226,13 +34410,13 @@
         <v>670</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>670</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>670</v>
@@ -34687,19 +34871,19 @@
         <v>563</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>1293</v>
+        <v>1329</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>670</v>
+      <c r="H43" s="61" t="s">
+        <v>1331</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>266</v>
@@ -34707,7 +34891,7 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="37" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>563</v>
@@ -34716,19 +34900,19 @@
         <v>563</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F44" s="61" t="s">
-        <v>1292</v>
+        <v>1330</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>670</v>
+      <c r="H44" s="61" t="s">
+        <v>1332</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>266</v>
@@ -35093,7 +35277,7 @@
         <v>563</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>670</v>
+        <v>1333</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>670</v>
@@ -35157,7 +35341,7 @@
         <v>670</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>670</v>
@@ -35209,13 +35393,13 @@
         <v>563</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>670</v>
+        <v>1334</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F61" s="20" t="s">
-        <v>670</v>
+      <c r="F61" s="61" t="s">
+        <v>1337</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>670</v>
@@ -35302,7 +35486,7 @@
         <v>670</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>670</v>
+        <v>1346</v>
       </c>
       <c r="G64" s="20" t="s">
         <v>670</v>
@@ -35324,14 +35508,14 @@
       <c r="C65" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>670</v>
+      <c r="D65" s="61" t="s">
+        <v>1335</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F65" s="20" t="s">
-        <v>670</v>
+      <c r="F65" s="61" t="s">
+        <v>1336</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>670</v>
@@ -35386,7 +35570,7 @@
         <v>670</v>
       </c>
       <c r="E67" s="61" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>670</v>
@@ -35415,7 +35599,7 @@
         <v>670</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>670</v>
@@ -35528,7 +35712,7 @@
         <v>563</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>670</v>
@@ -35592,7 +35776,7 @@
         <v>670</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>670</v>
+        <v>1347</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>670</v>
@@ -35618,10 +35802,10 @@
         <v>670</v>
       </c>
       <c r="E75" s="61" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="F75" s="61" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>670</v>
@@ -35647,7 +35831,7 @@
         <v>670</v>
       </c>
       <c r="E76" s="61" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>670</v>
@@ -35656,7 +35840,7 @@
         <v>670</v>
       </c>
       <c r="H76" s="61" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>266</v>
@@ -36222,10 +36406,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36239,10 +36423,10 @@
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="63" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F5" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36259,7 +36443,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F6" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36276,7 +36460,7 @@
         <v>101</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F7" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36293,7 +36477,7 @@
         <v>371</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="F8" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36312,7 +36496,7 @@
         <v>103</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F9" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36328,10 +36512,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
       <c r="F10" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36343,10 +36527,10 @@
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="F11" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36363,7 +36547,7 @@
         <v>341</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
       <c r="F12" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36377,10 +36561,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="F13" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36396,10 +36580,10 @@
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="59" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="F14" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36413,10 +36597,10 @@
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="59" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
       <c r="F15" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36430,10 +36614,10 @@
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
       <c r="D16" s="59" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="F16" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36449,10 +36633,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="F17" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36468,10 +36652,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
       <c r="F18" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36487,10 +36671,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="F19" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36504,10 +36688,10 @@
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="59" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
       <c r="F20" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36523,10 +36707,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="F21" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C777DEE-1A7F-4513-928C-8E3711B5E750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00D48B-93D3-4920-8438-54CFA603A460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="17" activeTab="22" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="17" activeTab="20" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6425" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6429" uniqueCount="1383">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6026,16 +6026,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>設定系★</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ドラッグ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6666,6 +6656,118 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タグジャンプ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アウトライン解析(トグル)</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ファイルツリー</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>★アウトライン解析の枠に移動</t>
+    <rPh sb="7" eb="9">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★TAB→空白</t>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★空白→TAB</t>
+    <rPh sb="1" eb="3">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メニュー1</t>
+  </si>
+  <si>
+    <t>メニュー2</t>
+  </si>
+  <si>
+    <t>メニュー3</t>
+  </si>
+  <si>
+    <t>メニュー4</t>
+  </si>
+  <si>
+    <t>メニュー5</t>
+  </si>
+  <si>
+    <t>メニュー6</t>
+  </si>
+  <si>
+    <t>メニュー7</t>
+  </si>
+  <si>
+    <t>メニュー8</t>
+  </si>
+  <si>
+    <t>メニュー9</t>
+  </si>
+  <si>
+    <t>メニュー10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前/次のブックマークへ</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>単語右/左</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>★折畳み機能</t>
+    <rPh sb="1" eb="3">
+      <t>オリタタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆インデント</t>
+  </si>
+  <si>
+    <t>カーソルより前を削除</t>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -27580,13 +27682,13 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59866B5-FAD1-4A47-9B25-C2EE02C22E50}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -27596,7 +27698,7 @@
     <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:10" ht="24">
       <c r="A1" s="39" t="s">
         <v>540</v>
       </c>
@@ -27625,7 +27727,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="2" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A2" s="35" t="s">
         <v>215</v>
       </c>
@@ -27653,8 +27755,11 @@
       <c r="I2" s="16" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="J2" s="18" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A3" s="35" t="s">
         <v>154</v>
       </c>
@@ -27683,7 +27788,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="4" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A4" s="35" t="s">
         <v>156</v>
       </c>
@@ -27712,7 +27817,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="5" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A5" s="35" t="s">
         <v>150</v>
       </c>
@@ -27741,7 +27846,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="6" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A6" s="35" t="s">
         <v>159</v>
       </c>
@@ -27770,7 +27875,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="7" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -27799,7 +27904,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="8" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A8" s="35" t="s">
         <v>224</v>
       </c>
@@ -27828,7 +27933,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="9" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A9" s="35" t="s">
         <v>238</v>
       </c>
@@ -27857,7 +27962,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="10" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A10" s="35" t="s">
         <v>235</v>
       </c>
@@ -27886,7 +27991,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="11" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A11" s="35" t="s">
         <v>141</v>
       </c>
@@ -27915,7 +28020,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="12" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A12" s="35" t="s">
         <v>221</v>
       </c>
@@ -27944,7 +28049,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="13" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A13" s="35" t="s">
         <v>225</v>
       </c>
@@ -27973,7 +28078,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12">
+    <row r="14" spans="1:10" ht="12">
       <c r="A14" s="36">
         <v>1</v>
       </c>
@@ -28002,7 +28107,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12">
+    <row r="15" spans="1:10" ht="12">
       <c r="A15" s="36">
         <v>2</v>
       </c>
@@ -28031,7 +28136,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12">
+    <row r="16" spans="1:10" ht="12">
       <c r="A16" s="36">
         <v>3</v>
       </c>
@@ -30196,13 +30301,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F94AC0-C97F-4A3C-8DCE-A414F578D2FC}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -30212,7 +30317,7 @@
     <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:10" ht="24">
       <c r="A1" s="39" t="s">
         <v>540</v>
       </c>
@@ -30241,355 +30346,364 @@
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="2" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A2" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2" s="54" t="s">
+      <c r="B2" s="20" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="G2" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="J2" s="18" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A3" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H3" s="54" t="s">
+      <c r="D3" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="J3" s="18" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A4" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H4" s="54" t="s">
+      <c r="D4" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" ht="12">
+      <c r="J4" s="18" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A5" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="54" t="s">
+      <c r="B5" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="6" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A6" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" s="54" t="s">
+      <c r="B6" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="7" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>554</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="54" t="s">
+      <c r="B7" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="8" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A8" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>555</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="54" t="s">
+      <c r="C8" s="20" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="9" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A9" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="54" t="s">
+      <c r="C9" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="F9" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="54" t="s">
+      <c r="F9" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="10" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A10" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>670</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="54" t="s">
+      <c r="B10" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="11" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A11" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>663</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="54" t="s">
+      <c r="B11" s="20" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="12" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A12" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>560</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>664</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="54" t="s">
+      <c r="B12" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="17" customFormat="1" ht="12">
+    <row r="13" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A13" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>561</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="54" t="s">
+      <c r="B13" s="20" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="E13" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="54" t="s">
+      <c r="E13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12">
+    <row r="14" spans="1:10" ht="12">
       <c r="A14" s="36">
         <v>1</v>
       </c>
@@ -30599,26 +30713,26 @@
       <c r="C14" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D14" s="54" t="s">
-        <v>1264</v>
+      <c r="D14" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H14" s="54" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12">
+    <row r="15" spans="1:10" ht="12">
       <c r="A15" s="36">
         <v>2</v>
       </c>
@@ -30628,26 +30742,26 @@
       <c r="C15" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D15" s="54" t="s">
-        <v>1264</v>
+      <c r="D15" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="54" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12">
+    <row r="16" spans="1:10" ht="12">
       <c r="A16" s="36">
         <v>3</v>
       </c>
@@ -30657,19 +30771,19 @@
       <c r="C16" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D16" s="54" t="s">
-        <v>1264</v>
+      <c r="D16" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="54" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I16" s="16" t="s">
@@ -30686,19 +30800,19 @@
       <c r="C17" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D17" s="54" t="s">
-        <v>1264</v>
+      <c r="D17" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="54" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -30715,19 +30829,19 @@
       <c r="C18" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D18" s="54" t="s">
-        <v>1264</v>
+      <c r="D18" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="54" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I18" s="16" t="s">
@@ -30744,19 +30858,19 @@
       <c r="C19" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D19" s="54" t="s">
-        <v>1264</v>
+      <c r="D19" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="54" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I19" s="16" t="s">
@@ -30777,15 +30891,15 @@
         <v>670</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="54" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I20" s="16" t="s">
@@ -30806,15 +30920,15 @@
         <v>670</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H21" s="54" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I21" s="16" t="s">
@@ -30835,15 +30949,15 @@
         <v>670</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="54" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I22" s="16" t="s">
@@ -30864,15 +30978,15 @@
         <v>670</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="54" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I23" s="16" t="s">
@@ -30886,23 +31000,23 @@
       <c r="B24" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="E24" s="54" t="s">
-        <v>577</v>
+      <c r="E24" s="20" t="s">
+        <v>1377</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="G24" s="54" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>579</v>
+      <c r="G24" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>266</v>
@@ -30915,22 +31029,22 @@
       <c r="B25" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>581</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="F25" s="54" t="s">
+      <c r="D25" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="H25" s="54" t="s">
+      <c r="H25" s="20" t="s">
         <v>586</v>
       </c>
       <c r="I25" s="16" t="s">
@@ -30944,8 +31058,8 @@
       <c r="B26" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="C26" s="54" t="s">
-        <v>266</v>
+      <c r="C26" s="20" t="s">
+        <v>1381</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>588</v>
@@ -30970,25 +31084,25 @@
       <c r="A27" s="37" t="s">
         <v>589</v>
       </c>
-      <c r="B27" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>590</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="54" t="s">
+      <c r="B27" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I27" s="16" t="s">
@@ -31002,22 +31116,22 @@
       <c r="B28" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="E28" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F28" s="54" t="s">
+      <c r="E28" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="G28" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H28" s="54" t="s">
+      <c r="G28" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I28" s="16" t="s">
@@ -31031,22 +31145,22 @@
       <c r="B29" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="C29" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>598</v>
-      </c>
-      <c r="H29" s="54" t="s">
+      <c r="C29" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H29" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I29" s="16" t="s">
@@ -31057,25 +31171,25 @@
       <c r="A30" s="37" t="s">
         <v>669</v>
       </c>
-      <c r="B30" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H30" s="54" t="s">
+      <c r="B30" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I30" s="16" t="s">
@@ -32426,7 +32540,7 @@
       <c r="C77" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="D77" s="54" t="s">
+      <c r="D77" s="20" t="s">
         <v>1101</v>
       </c>
       <c r="E77" s="54" t="s">
@@ -32871,10 +32985,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1265</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1266</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32886,7 +33000,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1067</v>
@@ -32908,7 +33022,7 @@
         <v>75</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F5" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32927,7 +33041,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F6" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32939,10 +33053,10 @@
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
       <c r="D7" s="55" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F7" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32961,7 +33075,7 @@
         <v>293</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F8" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32977,10 +33091,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F9" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -32996,10 +33110,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F10" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33018,7 +33132,7 @@
         <v>294</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F11" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33036,7 +33150,7 @@
         <v>1210</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33048,10 +33162,10 @@
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
       <c r="D13" s="55" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F13" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33063,10 +33177,10 @@
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="D14" s="55" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F14" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33085,7 +33199,7 @@
         <v>1198</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F15" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33099,10 +33213,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F16" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33116,10 +33230,10 @@
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
       <c r="D17" s="55" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F17" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33135,10 +33249,10 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="55" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F18" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33154,10 +33268,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F19" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33171,10 +33285,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F20" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33188,10 +33302,10 @@
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
       <c r="D21" s="55" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F21" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33203,10 +33317,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>1341</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33220,10 +33334,10 @@
       <c r="B23" s="56"/>
       <c r="C23" s="56"/>
       <c r="D23" s="55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E23" s="55" t="s">
         <v>1343</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>1344</v>
       </c>
       <c r="F23" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33239,10 +33353,10 @@
       </c>
       <c r="C24" s="56"/>
       <c r="D24" s="55" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F24" s="57" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -33628,11 +33742,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC0A4BB-8195-47B9-96EC-28B9FF2054E0}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -33937,7 +34051,7 @@
         <v>141</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>670</v>
@@ -33966,7 +34080,7 @@
         <v>221</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>670</v>
@@ -33995,7 +34109,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>670</v>
@@ -34323,7 +34437,7 @@
         <v>670</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>670</v>
@@ -34332,7 +34446,7 @@
         <v>670</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>266</v>
@@ -34352,16 +34466,16 @@
         <v>670</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>670</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>266</v>
@@ -34381,16 +34495,16 @@
         <v>670</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>670</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>266</v>
@@ -34410,13 +34524,13 @@
         <v>670</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G27" s="61" t="s">
         <v>1300</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>1301</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>670</v>
@@ -34871,19 +34985,19 @@
         <v>563</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>670</v>
       </c>
       <c r="H43" s="61" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>266</v>
@@ -34891,7 +35005,7 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="37" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>563</v>
@@ -34900,19 +35014,19 @@
         <v>563</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F44" s="61" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>670</v>
       </c>
       <c r="H44" s="61" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>266</v>
@@ -35277,7 +35391,7 @@
         <v>563</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>670</v>
@@ -35341,7 +35455,7 @@
         <v>670</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G59" s="20" t="s">
         <v>670</v>
@@ -35393,13 +35507,13 @@
         <v>563</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F61" s="61" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>670</v>
@@ -35486,7 +35600,7 @@
         <v>670</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G64" s="20" t="s">
         <v>670</v>
@@ -35509,13 +35623,13 @@
         <v>563</v>
       </c>
       <c r="D65" s="61" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="F65" s="61" t="s">
         <v>1335</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>1336</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>670</v>
@@ -35570,7 +35684,7 @@
         <v>670</v>
       </c>
       <c r="E67" s="61" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>670</v>
@@ -35599,7 +35713,7 @@
         <v>670</v>
       </c>
       <c r="E68" s="61" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>670</v>
@@ -35712,7 +35826,7 @@
         <v>563</v>
       </c>
       <c r="D72" s="61" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>670</v>
@@ -35776,7 +35890,7 @@
         <v>670</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>670</v>
@@ -35802,10 +35916,10 @@
         <v>670</v>
       </c>
       <c r="E75" s="61" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F75" s="61" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>670</v>
@@ -35831,7 +35945,7 @@
         <v>670</v>
       </c>
       <c r="E76" s="61" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>670</v>
@@ -35840,7 +35954,7 @@
         <v>670</v>
       </c>
       <c r="H76" s="61" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>266</v>
@@ -36406,10 +36520,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36423,10 +36537,10 @@
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="63" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F5" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36443,7 +36557,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F6" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36460,7 +36574,7 @@
         <v>101</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F7" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36477,7 +36591,7 @@
         <v>371</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F8" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36496,7 +36610,7 @@
         <v>103</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F9" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36512,10 +36626,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F10" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36527,10 +36641,10 @@
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F11" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36547,7 +36661,7 @@
         <v>341</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F12" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36561,10 +36675,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F13" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36580,10 +36694,10 @@
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="59" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E14" s="63" t="s">
         <v>1310</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>1311</v>
       </c>
       <c r="F14" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36597,10 +36711,10 @@
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="59" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F15" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36614,10 +36728,10 @@
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
       <c r="D16" s="59" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F16" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36633,10 +36747,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F17" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36652,10 +36766,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F18" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36671,10 +36785,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F19" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36688,10 +36802,10 @@
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="59" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E20" s="59" t="s">
         <v>1318</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>1319</v>
       </c>
       <c r="F20" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -36707,10 +36821,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="59" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E21" s="59" t="s">
         <v>1322</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>1323</v>
       </c>
       <c r="F21" s="60" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00D48B-93D3-4920-8438-54CFA603A460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F030A-BAF6-43CF-9F0C-9F4690644BD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="17" activeTab="20" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Excel表!$A$1:$I$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">Rlogin表!$A$1:$I$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Sakura表!$A$1:$I$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Sakura表!$A$1:$I$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Vim(nml)表'!$A$1:$I$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Word表!$A$1:$I$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'X-Finder表'!$A$1:$I$90</definedName>
@@ -52,7 +52,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">テーブル17[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="21">テーブル178101117[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="22">Rlogin表!$A$1:$I$90</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">Sakura表!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">Sakura表!$A$1:$I$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">テーブル13[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">テーブル17815[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">Vim!$A$1:$E$78</definedName>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6429" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6419" uniqueCount="1398">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6769,6 +6769,138 @@
     <rPh sb="6" eb="7">
       <t>マエ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択移動(行頭/行末)</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギョウマツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>矩形選択移動(行頭/行末)</t>
+    <rPh sb="0" eb="2">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギョウトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウマツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル移動(ファイル先頭/末尾)</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マツビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>矩形選択移動(ファイル先頭/末尾)</t>
+    <rPh sb="11" eb="13">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マツビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択移動(ファイル先頭/末尾)</t>
+    <rPh sb="9" eb="11">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マツビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動(半ページ)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>矩形選択移動(ページ)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択移動(ページ)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動(ページ)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>移動(行頭/行末)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>矩形選択移動(半ページ)</t>
+    <rPh sb="7" eb="8">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択移動(半ページ)</t>
+    <rPh sb="5" eb="6">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル内容比較</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイルプロパティ</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -30301,13 +30433,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F94AC0-C97F-4A3C-8DCE-A414F578D2FC}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -31154,9 +31286,7 @@
       <c r="E29" s="20" t="s">
         <v>1377</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>266</v>
-      </c>
+      <c r="F29" s="20"/>
       <c r="G29" s="20" t="s">
         <v>1377</v>
       </c>
@@ -31201,25 +31331,25 @@
         <v>599</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D31" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>266</v>
+        <v>1392</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>1386</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>266</v>
@@ -31230,25 +31360,25 @@
         <v>600</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D32" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="54" t="s">
-        <v>266</v>
+        <v>1391</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>1393</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>266</v>
@@ -31261,22 +31391,22 @@
       <c r="B33" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="C33" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="54" t="s">
+      <c r="C33" s="20" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I33" s="16" t="s">
@@ -32820,45 +32950,27 @@
         <v>266</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="12">
-      <c r="A87" s="37" t="s">
-        <v>662</v>
-      </c>
-      <c r="B87" s="54" t="s">
-        <v>631</v>
-      </c>
-      <c r="C87" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E87" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F87" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G87" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H87" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>266</v>
-      </c>
+    <row r="89" spans="1:9" s="18" customFormat="1">
+      <c r="A89" s="14"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" s="18" customFormat="1">
       <c r="A90" s="14"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
     </row>
     <row r="91" spans="1:9" s="18" customFormat="1">
       <c r="A91" s="14"/>
@@ -32871,16 +32983,15 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
+    <row r="96" spans="1:9">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
     </row>
     <row r="97" spans="2:9">
       <c r="B97" s="18"/>
@@ -32902,18 +33013,8 @@
       <c r="H98" s="18"/>
       <c r="I98" s="18"/>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I87" xr:uid="{80C67FFC-3769-4A04-8E85-38E44C0567C3}"/>
+  <autoFilter ref="A1:I86" xr:uid="{80C67FFC-3769-4A04-8E85-38E44C0567C3}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44F030A-BAF6-43CF-9F0C-9F4690644BD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAFAE38-7045-4373-91DA-193FEDF2C5C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="17" activeTab="20" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6419" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6419" uniqueCount="1409">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6901,6 +6901,104 @@
   </si>
   <si>
     <t>ファイルプロパティ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル名コピー</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイルパスコピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイルパス＆カーソル位置コピー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択範囲コピー</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択範囲内行番号コピー</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ギョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力補完</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>元に戻す</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日付挿入</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>時刻挿入</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>各種モード取り消し</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -30436,10 +30534,10 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -31423,19 +31521,19 @@
       <c r="C34" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D34" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F34" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G34" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H34" s="54" t="s">
+      <c r="D34" s="20" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I34" s="16" t="s">
@@ -31452,19 +31550,19 @@
       <c r="C35" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D35" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="54" t="s">
+      <c r="D35" s="20" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I35" s="16" t="s">
@@ -31481,19 +31579,19 @@
       <c r="C36" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D36" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F36" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H36" s="54" t="s">
+      <c r="D36" s="20" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I36" s="16" t="s">
@@ -31510,19 +31608,19 @@
       <c r="C37" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D37" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H37" s="54" t="s">
+      <c r="D37" s="20" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I37" s="16" t="s">
@@ -31539,19 +31637,19 @@
       <c r="C38" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="E38" s="54" t="s">
-        <v>606</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H38" s="54" t="s">
+      <c r="E38" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I38" s="16" t="s">
@@ -31568,19 +31666,19 @@
       <c r="C39" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D39" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H39" s="54" t="s">
+      <c r="D39" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I39" s="16" t="s">
@@ -31597,19 +31695,19 @@
       <c r="C40" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D40" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H40" s="54" t="s">
+      <c r="D40" s="20" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I40" s="16" t="s">
@@ -31626,19 +31724,19 @@
       <c r="C41" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D41" s="54" t="s">
-        <v>603</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>604</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H41" s="54" t="s">
+      <c r="D41" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H41" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I41" s="16" t="s">
@@ -31655,19 +31753,19 @@
       <c r="C42" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D42" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G42" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" s="54" t="s">
+      <c r="D42" s="20" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I42" s="16" t="s">
@@ -31684,19 +31782,19 @@
       <c r="C43" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D43" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H43" s="54" t="s">
+      <c r="D43" s="20" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>1405</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I43" s="16" t="s">
@@ -31707,25 +31805,25 @@
       <c r="A44" s="37" t="s">
         <v>667</v>
       </c>
-      <c r="B44" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F44" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G44" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="54" t="s">
+      <c r="B44" s="20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I44" s="16" t="s">

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAFAE38-7045-4373-91DA-193FEDF2C5C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE8887-3CE4-45D5-A727-8C5C59405019}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="17" activeTab="20" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -30537,7 +30537,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE8887-3CE4-45D5-A727-8C5C59405019}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FC1326-E4D2-49D3-B2DF-665C888F9166}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="17" activeTab="20" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="-32295" yWindow="-28395" windowWidth="32295" windowHeight="44865" firstSheet="17" activeTab="19" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -29,12 +29,16 @@
     <sheet name="X-Finder" sheetId="13" r:id="rId18"/>
     <sheet name="X-Finder表" sheetId="20" r:id="rId19"/>
     <sheet name="秀丸表" sheetId="26" r:id="rId20"/>
-    <sheet name="Sakura表" sheetId="33" r:id="rId21"/>
+    <sheet name="Sakura表" sheetId="37" r:id="rId21"/>
     <sheet name="RLogin" sheetId="34" r:id="rId22"/>
     <sheet name="Rlogin表" sheetId="36" r:id="rId23"/>
     <sheet name="WinSCP" sheetId="35" r:id="rId24"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId25"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="_1固定支出_グラフ_月">OFFSET([1]固定支出!$A$7,1,0,COUNTA([1]固定支出!$A$7:$A$88)-1,1)</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Excel表!$A$1:$I$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">Rlogin表!$A$1:$I$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Sakura表!$A$1:$I$86</definedName>
@@ -66,6 +70,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="17">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'X-Finder表'!$A$1:$I$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">秀丸表!$A$1:$I$87</definedName>
+    <definedName name="最終更新_日付">VLOOKUP("最終更新 日付",範囲_SHT現状_費目名to金額列,COLUMNS(範囲_SHT現状_費目名to金額列),FALSE)</definedName>
+    <definedName name="次月_月">!$V$10</definedName>
+    <definedName name="次月_年">!$V$9</definedName>
+    <definedName name="前月_月">!$V$6</definedName>
+    <definedName name="前月_年">!$V$5</definedName>
+    <definedName name="当月_月">!$V$8</definedName>
+    <definedName name="当月_現在日">IF((最終更新_日付&gt;当月_末日),当月_末日,IF((最終更新_日付&gt;当月_初日),最終更新_日付,当月_初日))</definedName>
+    <definedName name="当月_初日">!$V$3</definedName>
+    <definedName name="当月_年">!$V$7</definedName>
+    <definedName name="当月_末日">!$V$4</definedName>
+    <definedName name="当月シート名">RIGHT(CELL("filename",INDIRECT("A1")),LEN(CELL("filename",INDIRECT("A1")))-FIND("]",CELL("filename",INDIRECT("A1"))))</definedName>
+    <definedName name="範囲_SHT現状_金額列">INDIRECT("'現状'!C"&amp;MATCH("*金額列*",INDIRECT("現状!$1:$1"),0)&amp;":C"&amp;MATCH("*金額列*",INDIRECT("現状!$1:$1"),0),FALSE)</definedName>
+    <definedName name="範囲_SHT現状_費目名to金額列">INDIRECT("'現状'!C"&amp;COLUMN(範囲_SHT現状_費目名列)&amp;":C"&amp;COLUMN(範囲_SHT現状_金額列),FALSE)</definedName>
+    <definedName name="範囲_SHT現状_費目名列">INDIRECT("'現状'!C"&amp;MATCH("*費目名列*",INDIRECT("現状!$1:$1"),0)&amp;":C"&amp;MATCH("*費目名列*",INDIRECT("現状!$1:$1"),0),FALSE)</definedName>
+    <definedName name="本日">!$V$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -165,7 +184,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{35B025FB-C101-49AE-9587-C712D846D513}">
+    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{321D7632-BECA-4D4A-8AEA-A0DEEC997CF8}">
       <text>
         <r>
           <rPr>
@@ -176,7 +195,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>検索文字列に色を付ける＠検索ウィンドウ</t>
+          <t>4連続クリック</t>
         </r>
       </text>
     </comment>
@@ -185,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6419" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6465" uniqueCount="1483">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6660,22 +6679,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>タグジャンプ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アウトライン解析(トグル)</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ファイルツリー</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>★アウトライン解析の枠に移動</t>
     <rPh sb="7" eb="9">
       <t>カイセキ</t>
@@ -6730,28 +6733,6 @@
     <t>メニュー9</t>
   </si>
   <si>
-    <t>メニュー10</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>前/次のブックマークへ</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>単語右/左</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>★折畳み機能</t>
     <rPh sb="1" eb="3">
       <t>オリタタ</t>
@@ -6762,243 +6743,415 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>逆インデント</t>
-  </si>
-  <si>
-    <t>カーソルより前を削除</t>
+    <t>ブラウズ</t>
+  </si>
+  <si>
+    <t>単語切り取り</t>
+  </si>
+  <si>
+    <t>キーマクロの読み込み</t>
+  </si>
+  <si>
+    <t>キーマクロの保存</t>
+  </si>
+  <si>
+    <t>キー割り当て一覧をコピー</t>
+  </si>
+  <si>
+    <t>現在位置の単語選択</t>
+  </si>
+  <si>
+    <t>右クリックメニュー</t>
+  </si>
+  <si>
+    <t>オートスクロール</t>
+  </si>
+  <si>
+    <t>1行選択</t>
+  </si>
+  <si>
+    <t>ホイール左</t>
+  </si>
+  <si>
+    <t>ホイール右</t>
+  </si>
+  <si>
+    <t>タグジャンプ</t>
+  </si>
+  <si>
+    <t>タグジャンプバック</t>
+  </si>
+  <si>
+    <t>上下に分割／分割解除</t>
+  </si>
+  <si>
+    <t>左右に分割／分割解除</t>
+  </si>
+  <si>
+    <t>ファイルツリー</t>
+  </si>
+  <si>
+    <t>アウトライン解析(トグル)...</t>
+  </si>
+  <si>
+    <t>TABインデント</t>
+  </si>
+  <si>
+    <t>各種モードの取り消し</t>
+  </si>
+  <si>
+    <t>カーソル前を削除</t>
+  </si>
+  <si>
+    <t>挿入／上書きモード切り替え</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>SPACEインデント</t>
+  </si>
+  <si>
+    <t>前を検索</t>
+  </si>
+  <si>
+    <t>逆TABインデント</t>
+  </si>
+  <si>
+    <t>行削除(折り返し単位)</t>
+  </si>
+  <si>
+    <t>逆SPACEインデント</t>
+  </si>
+  <si>
+    <t>フォントサイズ拡大</t>
+  </si>
+  <si>
+    <t>フォントサイズ縮小</t>
+  </si>
+  <si>
+    <t>ファイル内容比較...</t>
+  </si>
+  <si>
+    <t>行頭まで削除(改行単位)</t>
+  </si>
+  <si>
+    <t>行末まで削除(改行単位)</t>
+  </si>
+  <si>
+    <t>入力補完</t>
+  </si>
+  <si>
+    <t>行切り取り(折り返し単位)</t>
+  </si>
+  <si>
+    <t>Grep...</t>
+  </si>
+  <si>
+    <t>行の二重化(折り返し単位)</t>
+  </si>
+  <si>
+    <t>指定行へジャンプ...</t>
+  </si>
+  <si>
+    <t>行末まで切り取り(改行単位)</t>
+  </si>
+  <si>
+    <t>行頭まで切り取り(改行単位)</t>
+  </si>
+  <si>
+    <t>このファイル名をコピー</t>
+  </si>
+  <si>
+    <t>このファイルのパス名とカーソル位置をコピー</t>
+  </si>
+  <si>
+    <t>このファイルのパス名をコピー</t>
+  </si>
+  <si>
+    <t>選択範囲内全行コピー</t>
+  </si>
+  <si>
+    <t>対括弧の検索</t>
+  </si>
+  <si>
+    <t>選択範囲内全行行番号付きコピー</t>
+  </si>
+  <si>
+    <t>タグファイルの作成...</t>
+  </si>
+  <si>
+    <t>同名のC/C++ヘッダ(ソース)を開く</t>
+  </si>
+  <si>
+    <t>単語削除</t>
+  </si>
+  <si>
+    <t>キーマクロの記録開始／終了</t>
+  </si>
+  <si>
+    <t>印刷プレビュー</t>
+  </si>
+  <si>
+    <t>名前を付けて保存...</t>
+  </si>
+  <si>
+    <t>キーマクロの実行</t>
+  </si>
+  <si>
+    <t>ファイルのプロパティ</t>
+  </si>
+  <si>
+    <t>メニュー10</t>
+  </si>
+  <si>
+    <t>選択行の昇順ソート</t>
+  </si>
+  <si>
+    <t>選択行の降順ソート</t>
+  </si>
+  <si>
+    <t>左(先頭)の空白を削除</t>
+  </si>
+  <si>
+    <t>連続した重複行の削除(uniq)</t>
+  </si>
+  <si>
+    <t>移動履歴: 次へ</t>
+  </si>
+  <si>
+    <t>移動履歴: 前へ</t>
+  </si>
+  <si>
+    <t>右(末尾)の空白を削除</t>
+  </si>
+  <si>
+    <t>日付挿入</t>
+  </si>
+  <si>
+    <t>時刻挿入</t>
+  </si>
+  <si>
+    <t>重ねて表示</t>
+  </si>
+  <si>
+    <t>上下に並べて表示</t>
+  </si>
+  <si>
+    <t>小文字</t>
+  </si>
+  <si>
+    <t>印刷ページ設定...</t>
+  </si>
+  <si>
+    <t>指定桁で折り返す</t>
+  </si>
+  <si>
+    <t>左右に並べて表示</t>
+  </si>
+  <si>
+    <t>折り返し桁数</t>
+  </si>
+  <si>
+    <t>右端で折り返す</t>
+  </si>
+  <si>
+    <t>折り返さない</t>
+  </si>
+  <si>
+    <t>空白→TAB</t>
+  </si>
+  <si>
+    <t>大文字</t>
+  </si>
+  <si>
+    <t>Shift+Ctrl+Alt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリキー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホイール左</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホイール右</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中クリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Shift+Ctrl</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>右クリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル上/下移動</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(選択)カーソル上/下移動</t>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>１ページアップ/ダウン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(矩形選択)カーソル上/下移動</t>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>前/次のブックマークへ</t>
+    <rPh sb="2" eb="3">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(矩形選択)カーソル上/下移動(２行ごと)</t>
+    <rPh sb="12" eb="13">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>縦方向に最大化/すべて最小化</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カーソル右/左移動</t>
     <rPh sb="6" eb="7">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>選択移動(行頭/行末)</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(選択)カーソル右/左移動</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>単語の右端/左端に移動</t>
+    <rPh sb="6" eb="7">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(矩形選択)カーソル右/左移動</t>
+    <rPh sb="12" eb="13">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(選択)単語の右端/左端に移動</t>
+    <rPh sb="10" eb="11">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>行末/行頭に移動(折り返し単位)</t>
+    <rPh sb="3" eb="5">
       <t>ギョウトウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TAB/逆TABインデント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>横方向に最大化/-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Home/End</t>
+  </si>
+  <si>
+    <t>行頭/行末に移動(折り返し単位)</t>
+    <rPh sb="3" eb="5">
+      <t>ギョウマツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(選択)行頭/行末に移動(折り返し単位)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイルの先頭/最後に移動</t>
     <rPh sb="8" eb="10">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(矩形選択)行頭/行末に移動(折り返し単位)</t>
+    <rPh sb="9" eb="11">
       <t>ギョウマツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>矩形選択移動(行頭/行末)</t>
-    <rPh sb="0" eb="2">
-      <t>クケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ギョウトウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ギョウマツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>カーソル移動(ファイル先頭/末尾)</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セントウ</t>
-    </rPh>
+    <t>(選択)ファイルの先頭/最後に移動</t>
+    <rPh sb="12" eb="14">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(矩形選択)ファイルの先頭/最後に移動</t>
     <rPh sb="14" eb="16">
-      <t>マツビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>矩形選択移動(ファイル先頭/末尾)</t>
-    <rPh sb="11" eb="13">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マツビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>選択移動(ファイル先頭/末尾)</t>
-    <rPh sb="9" eb="11">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>マツビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>移動(半ページ)</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>矩形選択移動(ページ)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>選択移動(ページ)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>移動(ページ)</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>移動(行頭/行末)</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>矩形選択移動(半ページ)</t>
-    <rPh sb="7" eb="8">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>選択移動(半ページ)</t>
-    <rPh sb="5" eb="6">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ファイル内容比較</t>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ファイルプロパティ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ファイル名コピー</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ファイルパスコピー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ファイルパス＆カーソル位置コピー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>選択範囲コピー</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>選択範囲内行番号コピー</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ギョウバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力補完</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>元に戻す</t>
-    <rPh sb="0" eb="1">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日付挿入</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>時刻挿入</t>
-    <rPh sb="0" eb="2">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>各種モード取り消し</t>
-    <rPh sb="0" eb="2">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケ</t>
-    </rPh>
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PgUp/PgDn</t>
+  </si>
+  <si>
+    <t>(選択)１ページアップ/ダウン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半ページアップ/ダウン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(矩形選択)１ページアップ/ダウン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(選択)半ページアップ/ダウン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(矩形選択)半ページアップ/ダウン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左クアドラプルクリック</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7296,7 +7449,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7486,6 +7639,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11827,6 +11983,445 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="BasicInfo"/>
+      <sheetName val="10"/>
+      <sheetName val="11"/>
+      <sheetName val="12"/>
+      <sheetName val="収支予想"/>
+      <sheetName val="貯金残高推移"/>
+      <sheetName val="固定支出"/>
+      <sheetName val="ボーナス使い道_201412"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet5"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="7">
+          <cell r="A7">
+            <v>40634</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>40664</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>40695</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>40725</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>40756</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>40787</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>40817</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>40848</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>40878</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>40909</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>40940</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>40969</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>41000</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>41030</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>41061</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>41091</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>41122</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>41153</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>41183</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>41214</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>41244</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>41275</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>41306</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>41334</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>41365</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>41395</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>41426</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>41456</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>41487</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>41518</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>41548</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>41579</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>41609</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>41640</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>41671</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>41699</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>41730</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>41760</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>41791</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>41821</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>41852</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>41883</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>41913</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>41944</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>41974</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>42005</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>42036</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>42064</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>42095</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>42125</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>42156</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>42186</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>42217</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>42248</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>42278</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>42309</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>42339</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>42370</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>42401</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>42430</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>42461</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>42491</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>42522</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>42552</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>42583</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>42614</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>42644</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>42675</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>42705</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>42736</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>42767</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>42795</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>42826</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>42856</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>42887</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>42917</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>42948</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>42979</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>43009</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>43040</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>43070</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="239" dataDxfId="238">
   <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
@@ -22892,7 +23487,9 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -27914,11 +28511,11 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -27986,7 +28583,7 @@
         <v>266</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" ht="12">
@@ -30530,14 +31127,15 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F94AC0-C97F-4A3C-8DCE-A414F578D2FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F79ECD4-AC2C-4540-BA67-8715369ABF5F}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D58" sqref="D58"/>
+      <selection pane="topRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -30564,7 +31162,7 @@
         <v>543</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>544</v>
+        <v>1452</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>545</v>
@@ -30573,7 +31171,7 @@
         <v>546</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>547</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" ht="12">
@@ -30581,19 +31179,19 @@
         <v>215</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1360</v>
+        <v>1384</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>548</v>
+        <v>266</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>549</v>
+        <v>1418</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>266</v>
@@ -30605,7 +31203,7 @@
         <v>266</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" ht="12">
@@ -30613,13 +31211,13 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>550</v>
+        <v>1385</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>548</v>
+        <v>266</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>266</v>
@@ -30637,7 +31235,7 @@
         <v>266</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" ht="12">
@@ -30645,13 +31243,13 @@
         <v>156</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>551</v>
+        <v>240</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>552</v>
+        <v>1396</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>266</v>
@@ -30669,7 +31267,7 @@
         <v>266</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="17" customFormat="1" ht="12">
@@ -30677,13 +31275,13 @@
         <v>150</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>548</v>
+        <v>266</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>266</v>
@@ -30706,13 +31304,13 @@
         <v>159</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>266</v>
@@ -30727,7 +31325,7 @@
         <v>266</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>266</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="17" customFormat="1" ht="12">
@@ -30735,7 +31333,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>266</v>
@@ -30747,7 +31345,7 @@
         <v>266</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1361</v>
+        <v>266</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>266</v>
@@ -30764,10 +31362,10 @@
         <v>224</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>556</v>
+        <v>1386</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1361</v>
+        <v>266</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>266</v>
@@ -30793,7 +31391,7 @@
         <v>238</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>558</v>
+        <v>1387</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>266</v>
@@ -30802,7 +31400,7 @@
         <v>266</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>557</v>
+        <v>1424</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>266</v>
@@ -30822,7 +31420,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>266</v>
@@ -30851,13 +31449,13 @@
         <v>141</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1363</v>
+        <v>1388</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>266</v>
@@ -30880,13 +31478,13 @@
         <v>221</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>548</v>
+        <v>266</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>266</v>
@@ -30909,7 +31507,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1362</v>
+        <v>1389</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>266</v>
@@ -30944,10 +31542,10 @@
         <v>563</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>266</v>
@@ -30973,10 +31571,10 @@
         <v>563</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>266</v>
@@ -31002,10 +31600,10 @@
         <v>563</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>266</v>
@@ -31031,10 +31629,10 @@
         <v>563</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>266</v>
@@ -31060,10 +31658,10 @@
         <v>563</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>266</v>
@@ -31089,10 +31687,10 @@
         <v>563</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>266</v>
@@ -31118,10 +31716,10 @@
         <v>563</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>266</v>
@@ -31147,10 +31745,10 @@
         <v>563</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>266</v>
@@ -31176,10 +31774,10 @@
         <v>563</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>266</v>
@@ -31205,10 +31803,10 @@
         <v>563</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1376</v>
+        <v>1426</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>266</v>
@@ -31228,28 +31826,28 @@
         <v>573</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>574</v>
+        <v>1454</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>576</v>
+        <v>1455</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>575</v>
+        <v>1456</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1377</v>
+        <v>266</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>578</v>
+        <v>1457</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>1378</v>
+        <v>1458</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>548</v>
+        <v>1459</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>266</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
@@ -31257,28 +31855,28 @@
         <v>580</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>574</v>
+        <v>1461</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>582</v>
+        <v>1462</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1379</v>
+        <v>1463</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1377</v>
+        <v>1464</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>584</v>
+        <v>1465</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>585</v>
+        <v>1466</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>586</v>
+        <v>1467</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>266</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12">
@@ -31286,10 +31884,10 @@
         <v>587</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>563</v>
+        <v>1390</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>1381</v>
+        <v>1397</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>588</v>
@@ -31315,13 +31913,13 @@
         <v>589</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>266</v>
+        <v>1393</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>1377</v>
+        <v>266</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1377</v>
+        <v>266</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>266</v>
@@ -31344,19 +31942,19 @@
         <v>592</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>593</v>
+        <v>1394</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>595</v>
+        <v>1398</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>594</v>
+        <v>1404</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>595</v>
+        <v>1398</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>266</v>
@@ -31373,20 +31971,22 @@
         <v>596</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>593</v>
+        <v>1392</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1382</v>
+        <v>1403</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F29" s="20"/>
+        <v>266</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>266</v>
+      </c>
       <c r="G29" s="20" t="s">
-        <v>1377</v>
+        <v>266</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>266</v>
@@ -31426,28 +32026,28 @@
     </row>
     <row r="31" spans="1:9" ht="12">
       <c r="A31" s="37" t="s">
-        <v>599</v>
+        <v>1469</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1392</v>
+        <v>1470</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>1383</v>
+        <v>1471</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1385</v>
+        <v>1472</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>1384</v>
+        <v>1473</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1387</v>
+        <v>1474</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>1386</v>
+        <v>1475</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>266</v>
@@ -31455,28 +32055,28 @@
     </row>
     <row r="32" spans="1:9" ht="12">
       <c r="A32" s="37" t="s">
-        <v>600</v>
+        <v>1476</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1391</v>
+        <v>1456</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1390</v>
+        <v>1477</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>1388</v>
+        <v>1478</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>1389</v>
+        <v>1479</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>1394</v>
+        <v>1480</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>1393</v>
+        <v>1481</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>266</v>
@@ -31490,16 +32090,16 @@
         <v>602</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>1395</v>
+        <v>266</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>1402</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1397</v>
+        <v>1425</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>1396</v>
+        <v>266</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>266</v>
@@ -31522,13 +32122,13 @@
         <v>563</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G34" s="20" t="s">
         <v>266</v>
@@ -31551,13 +32151,13 @@
         <v>563</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>1400</v>
+        <v>1413</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G35" s="20" t="s">
         <v>266</v>
@@ -31580,13 +32180,13 @@
         <v>563</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>1399</v>
+        <v>1414</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>266</v>
@@ -31609,13 +32209,13 @@
         <v>563</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>1401</v>
+        <v>1415</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>266</v>
@@ -31638,13 +32238,13 @@
         <v>563</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>605</v>
+        <v>1416</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>266</v>
@@ -31670,10 +32270,10 @@
         <v>266</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>1406</v>
+        <v>1434</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G39" s="20" t="s">
         <v>266</v>
@@ -31696,13 +32296,13 @@
         <v>563</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1402</v>
+        <v>1417</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>1407</v>
+        <v>1435</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G40" s="20" t="s">
         <v>266</v>
@@ -31725,13 +32325,13 @@
         <v>563</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>548</v>
+        <v>266</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>266</v>
@@ -31754,13 +32354,13 @@
         <v>563</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>266</v>
@@ -31783,13 +32383,13 @@
         <v>563</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1404</v>
+        <v>780</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>1405</v>
+        <v>266</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>266</v>
@@ -31806,7 +32406,7 @@
         <v>667</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>1408</v>
+        <v>1391</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>266</v>
@@ -31837,22 +32437,22 @@
       <c r="B45" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="C45" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F45" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H45" s="54" t="s">
+      <c r="C45" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I45" s="16" t="s">
@@ -31863,25 +32463,25 @@
       <c r="A46" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="B46" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E46" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F46" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G46" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H46" s="54" t="s">
+      <c r="B46" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I46" s="16" t="s">
@@ -31892,25 +32492,25 @@
       <c r="A47" s="37" t="s">
         <v>610</v>
       </c>
-      <c r="B47" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C47" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E47" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F47" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G47" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H47" s="54" t="s">
+      <c r="B47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I47" s="16" t="s">
@@ -31921,25 +32521,25 @@
       <c r="A48" s="37" t="s">
         <v>611</v>
       </c>
-      <c r="B48" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C48" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D48" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E48" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F48" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G48" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H48" s="54" t="s">
+      <c r="B48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H48" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I48" s="16" t="s">
@@ -31950,25 +32550,25 @@
       <c r="A49" s="37" t="s">
         <v>948</v>
       </c>
-      <c r="B49" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C49" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E49" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F49" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G49" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H49" s="54" t="s">
+      <c r="B49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I49" s="16" t="s">
@@ -31979,25 +32579,25 @@
       <c r="A50" s="37" t="s">
         <v>612</v>
       </c>
-      <c r="B50" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C50" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G50" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H50" s="54" t="s">
+      <c r="B50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H50" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I50" s="16" t="s">
@@ -32014,19 +32614,19 @@
       <c r="C51" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D51" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H51" s="54" t="s">
+      <c r="D51" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I51" s="16" t="s">
@@ -32043,19 +32643,19 @@
       <c r="C52" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D52" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E52" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F52" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G52" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H52" s="54" t="s">
+      <c r="D52" s="20" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I52" s="16" t="s">
@@ -32072,19 +32672,19 @@
       <c r="C53" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="E53" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F53" s="54" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G53" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H53" s="54" t="s">
+      <c r="E53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H53" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I53" s="16" t="s">
@@ -32101,19 +32701,19 @@
       <c r="C54" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D54" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E54" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F54" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H54" s="54" t="s">
+      <c r="D54" s="20" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I54" s="16" t="s">
@@ -32130,20 +32730,20 @@
       <c r="C55" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D55" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F55" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G55" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>266</v>
+      <c r="D55" s="20" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>1436</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>266</v>
@@ -32159,19 +32759,19 @@
       <c r="C56" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="E56" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F56" s="54" t="s">
-        <v>619</v>
-      </c>
-      <c r="G56" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H56" s="54" t="s">
+      <c r="E56" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H56" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I56" s="16" t="s">
@@ -32188,19 +32788,19 @@
       <c r="C57" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D57" s="54" t="s">
-        <v>621</v>
-      </c>
-      <c r="E57" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F57" s="54" t="s">
-        <v>622</v>
-      </c>
-      <c r="G57" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H57" s="54" t="s">
+      <c r="D57" s="20" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H57" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I57" s="16" t="s">
@@ -32217,20 +32817,20 @@
       <c r="C58" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="E58" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F58" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G58" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H58" s="54" t="s">
-        <v>266</v>
+      <c r="E58" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>1437</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>266</v>
@@ -32246,19 +32846,19 @@
       <c r="C59" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D59" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="E59" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G59" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H59" s="54" t="s">
+      <c r="D59" s="20" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I59" s="16" t="s">
@@ -32275,19 +32875,19 @@
       <c r="C60" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D60" s="54" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E60" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F60" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G60" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H60" s="54" t="s">
+      <c r="D60" s="20" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H60" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I60" s="16" t="s">
@@ -32304,19 +32904,19 @@
       <c r="C61" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D61" s="54" t="s">
-        <v>627</v>
-      </c>
-      <c r="E61" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F61" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G61" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H61" s="54" t="s">
+      <c r="D61" s="20" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H61" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I61" s="16" t="s">
@@ -32333,23 +32933,23 @@
       <c r="C62" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D62" s="54" t="s">
-        <v>628</v>
-      </c>
-      <c r="E62" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F62" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G62" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H62" s="54" t="s">
-        <v>266</v>
+      <c r="D62" s="20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>1438</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>266</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12">
@@ -32362,19 +32962,19 @@
       <c r="C63" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D63" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G63" s="54" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H63" s="54" t="s">
+      <c r="D63" s="20" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H63" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I63" s="16" t="s">
@@ -32391,19 +32991,19 @@
       <c r="C64" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="E64" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F64" s="54" t="s">
-        <v>632</v>
-      </c>
-      <c r="G64" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H64" s="54" t="s">
+      <c r="E64" s="20" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H64" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I64" s="16" t="s">
@@ -32420,19 +33020,19 @@
       <c r="C65" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="E65" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F65" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G65" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H65" s="54" t="s">
+      <c r="E65" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H65" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I65" s="16" t="s">
@@ -32449,20 +33049,20 @@
       <c r="C66" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" s="20" t="s">
         <v>634</v>
       </c>
-      <c r="E66" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F66" s="54" t="s">
-        <v>635</v>
-      </c>
-      <c r="G66" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H66" s="54" t="s">
-        <v>266</v>
+      <c r="E66" s="20" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>1439</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>266</v>
@@ -32478,19 +33078,19 @@
       <c r="C67" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D67" s="54" t="s">
-        <v>637</v>
-      </c>
-      <c r="E67" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F67" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G67" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H67" s="54" t="s">
+      <c r="D67" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I67" s="16" t="s">
@@ -32508,18 +33108,18 @@
         <v>563</v>
       </c>
       <c r="D68" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E68" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F68" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G68" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H68" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H68" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I68" s="16" t="s">
@@ -32536,20 +33136,20 @@
       <c r="C69" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="E69" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F69" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G69" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H69" s="54" t="s">
-        <v>266</v>
+      <c r="E69" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>1440</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>266</v>
@@ -32565,20 +33165,20 @@
       <c r="C70" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D70" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E70" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F70" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G70" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H70" s="54" t="s">
-        <v>266</v>
+      <c r="D70" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>1441</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>266</v>
@@ -32594,20 +33194,20 @@
       <c r="C71" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D71" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E71" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F71" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G71" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H71" s="54" t="s">
-        <v>266</v>
+      <c r="D71" s="20" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>1442</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>266</v>
@@ -32623,19 +33223,19 @@
       <c r="C72" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D72" s="54" t="s">
+      <c r="D72" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="E72" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F72" s="54" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G72" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H72" s="54" t="s">
+      <c r="E72" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H72" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I72" s="16" t="s">
@@ -32652,20 +33252,20 @@
       <c r="C73" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D73" s="54" t="s">
-        <v>644</v>
-      </c>
-      <c r="E73" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F73" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G73" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H73" s="54" t="s">
-        <v>266</v>
+      <c r="D73" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>1443</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>266</v>
@@ -32681,20 +33281,20 @@
       <c r="C74" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D74" s="54" t="s">
-        <v>646</v>
-      </c>
-      <c r="E74" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F74" s="54" t="s">
-        <v>647</v>
-      </c>
-      <c r="G74" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H74" s="54" t="s">
-        <v>266</v>
+      <c r="D74" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>1444</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>266</v>
@@ -32710,19 +33310,19 @@
       <c r="C75" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D75" s="54" t="s">
-        <v>649</v>
-      </c>
-      <c r="E75" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F75" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G75" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H75" s="54" t="s">
+      <c r="D75" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H75" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I75" s="16" t="s">
@@ -32739,19 +33339,19 @@
       <c r="C76" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D76" s="54" t="s">
-        <v>651</v>
-      </c>
-      <c r="E76" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F76" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G76" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H76" s="54" t="s">
+      <c r="D76" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H76" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I76" s="16" t="s">
@@ -32762,25 +33362,25 @@
       <c r="A77" s="37" t="s">
         <v>668</v>
       </c>
-      <c r="B77" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>266</v>
+      <c r="B77" s="20" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>1399</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E77" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F77" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G77" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H77" s="54" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H77" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I77" s="16" t="s">
@@ -32791,25 +33391,25 @@
       <c r="A78" s="37" t="s">
         <v>949</v>
       </c>
-      <c r="B78" s="54" t="s">
-        <v>670</v>
-      </c>
-      <c r="C78" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D78" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E78" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F78" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G78" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H78" s="54" t="s">
+      <c r="B78" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H78" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I78" s="16" t="s">
@@ -32820,83 +33420,83 @@
       <c r="A79" s="37" t="s">
         <v>950</v>
       </c>
-      <c r="B79" s="54" t="s">
-        <v>653</v>
-      </c>
-      <c r="C79" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F79" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G79" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H79" s="54" t="s">
-        <v>266</v>
+      <c r="B79" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>1378</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>266</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12">
       <c r="A80" s="37" t="s">
         <v>952</v>
       </c>
-      <c r="B80" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="C80" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D80" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E80" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F80" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G80" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H80" s="54" t="s">
-        <v>266</v>
+      <c r="B80" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>1381</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>266</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="12">
       <c r="A81" s="37" t="s">
-        <v>656</v>
-      </c>
-      <c r="B81" s="54" t="s">
-        <v>657</v>
-      </c>
-      <c r="C81" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D81" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E81" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F81" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G81" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H81" s="54" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I81" s="16" t="s">
@@ -32907,25 +33507,25 @@
       <c r="A82" s="37" t="s">
         <v>951</v>
       </c>
-      <c r="B82" s="54" t="s">
-        <v>670</v>
-      </c>
-      <c r="C82" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D82" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E82" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F82" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G82" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H82" s="54" t="s">
+      <c r="B82" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>266</v>
       </c>
       <c r="I82" s="16" t="s">
@@ -32936,25 +33536,25 @@
       <c r="A83" s="37" t="s">
         <v>953</v>
       </c>
-      <c r="B83" s="54" t="s">
-        <v>670</v>
-      </c>
-      <c r="C83" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D83" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E83" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F83" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G83" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H83" s="54" t="s">
+      <c r="B83" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H83" s="15" t="s">
         <v>266</v>
       </c>
       <c r="I83" s="16" t="s">
@@ -32965,25 +33565,25 @@
       <c r="A84" s="37" t="s">
         <v>954</v>
       </c>
-      <c r="B84" s="54" t="s">
-        <v>670</v>
-      </c>
-      <c r="C84" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D84" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E84" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F84" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G84" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H84" s="54" t="s">
+      <c r="B84" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H84" s="20" t="s">
         <v>266</v>
       </c>
       <c r="I84" s="16" t="s">
@@ -32994,92 +33594,204 @@
       <c r="A85" s="37" t="s">
         <v>658</v>
       </c>
-      <c r="B85" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C85" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D85" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="E85" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F85" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G85" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H85" s="54" t="s">
-        <v>266</v>
+      <c r="B85" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>658</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>266</v>
+        <v>658</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
       <c r="A86" s="37" t="s">
         <v>660</v>
       </c>
-      <c r="B86" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C86" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="D86" s="54" t="s">
-        <v>661</v>
-      </c>
-      <c r="E86" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F86" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="G86" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="H86" s="54" t="s">
-        <v>266</v>
+      <c r="B86" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>660</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="18" customFormat="1">
-      <c r="A89" s="14"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-    </row>
-    <row r="90" spans="1:9" s="18" customFormat="1">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-    </row>
-    <row r="91" spans="1:9" s="18" customFormat="1">
-      <c r="A91" s="14"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="12">
+      <c r="A87" s="37" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="12">
+      <c r="A88" s="37" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="12">
+      <c r="A89" s="37" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="12">
+      <c r="A90" s="37" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="H90" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="12">
+      <c r="A91" s="37" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H91" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="B96" s="18"/>
@@ -33127,7 +33839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6009FD9C-9508-432A-9D16-8FA7741DDA77}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FC1326-E4D2-49D3-B2DF-665C888F9166}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5847E28D-2F6A-46F9-A110-8E28FA3A05D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32295" yWindow="-28395" windowWidth="32295" windowHeight="44865" firstSheet="17" activeTab="19" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="17" activeTab="20" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -7449,7 +7449,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7610,9 +7610,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -7640,7 +7637,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -28511,11 +28508,11 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -31130,12 +31127,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F79ECD4-AC2C-4540-BA67-8715369ABF5F}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D58" sqref="D58"/>
       <selection pane="topRight" activeCell="D58" sqref="D58"/>
       <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -31324,7 +31321,7 @@
       <c r="H6" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="63" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -31846,7 +31843,7 @@
       <c r="H24" s="20" t="s">
         <v>1459</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="63" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -31875,7 +31872,7 @@
       <c r="H25" s="20" t="s">
         <v>1467</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="63" t="s">
         <v>1468</v>
       </c>
     </row>
@@ -32092,7 +32089,7 @@
       <c r="C33" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="60" t="s">
         <v>1402</v>
       </c>
       <c r="E33" s="20" t="s">
@@ -32948,7 +32945,7 @@
       <c r="H62" s="20" t="s">
         <v>1438</v>
       </c>
-      <c r="I62" s="16" t="s">
+      <c r="I62" s="63" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -33107,7 +33104,7 @@
       <c r="C68" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D68" s="54" t="s">
+      <c r="D68" s="60" t="s">
         <v>623</v>
       </c>
       <c r="E68" s="20" t="s">
@@ -33924,130 +33921,130 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>1350</v>
       </c>
-      <c r="F5" s="57" t="str">
+      <c r="F5" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||f|検索($SEARCH\_REG)|</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>1266</v>
       </c>
-      <c r="F6" s="57" t="str">
+      <c r="F6" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||v|貼り付け($CLIPBOARD)|</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="55" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="54" t="s">
         <v>1269</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>1351</v>
       </c>
-      <c r="F7" s="57" t="str">
+      <c r="F7" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F10|SFTPダイアログを開く($VIEW\_SFTP)|</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="54" t="s">
         <v>1352</v>
       </c>
-      <c r="F8" s="57" t="str">
+      <c r="F8" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift|Alt|←|接続追加(複製)＋同ペイン($SPLIT\_OVER)|</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>1267</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>1353</v>
       </c>
-      <c r="F9" s="57" t="str">
+      <c r="F9" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift|Alt|↓/→|接続追加(複製)＋縦($SPLIT\_HEIGHT)/横分割($SPLIT\_WIDTH)|</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>1267</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="54" t="s">
         <v>1354</v>
       </c>
-      <c r="F10" s="57" t="str">
+      <c r="F10" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|↓/→|接続追加(新規)＋縦($SPLIT\_HEIGHTNEW)/横分割($SPLIT\_WIDTHNEW)|</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>1355</v>
       </c>
-      <c r="F11" s="57" t="str">
+      <c r="F11" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|↑|ペイン移動($PANE\_ROTATION)|</v>
       </c>
@@ -34071,156 +34068,156 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="55" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="54" t="s">
         <v>1301</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="54" t="s">
         <v>1356</v>
       </c>
-      <c r="F13" s="57" t="str">
+      <c r="F13" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F11|ウィンドウ整理(並べて表示($PANE\_TILEHORZ))|</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="55" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="54" t="s">
         <v>1302</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>1357</v>
       </c>
-      <c r="F14" s="57" t="str">
+      <c r="F14" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F12|ウィンドウ整理(重ねて表示($PANE\_CASCADE)|</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>1198</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>1358</v>
       </c>
-      <c r="F15" s="57" t="str">
+      <c r="F15" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|w|分割を閉じる($PANE\_DELETE)|</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>1303</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>1359</v>
       </c>
-      <c r="F16" s="57" t="str">
+      <c r="F16" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|n/w|接続開く($FILE\_NEW)/閉じる($FILE\_CLOSE)|</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="55" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="54" t="s">
         <v>1338</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="61" t="s">
         <v>1347</v>
       </c>
-      <c r="F17" s="57" t="str">
+      <c r="F17" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||,/.|カーソル移動(一文字) 左(\033\[D)/右(\033\[C)|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="55" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="54" t="s">
         <v>1338</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="61" t="s">
         <v>1344</v>
       </c>
-      <c r="F18" s="57" t="str">
+      <c r="F18" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||,/.|カーソル移動(単語) 左(\033b)/右(\033f)|</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>1338</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="54" t="s">
         <v>1337</v>
       </c>
-      <c r="F19" s="57" t="str">
+      <c r="F19" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|,/.|カーソル移動 行頭(\001)/行末(\005)|</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>1277</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="61" t="s">
         <v>1348</v>
       </c>
-      <c r="F20" s="57" t="str">
+      <c r="F20" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|o|オプション設定($OPTION\_SET)|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="55" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="54" t="s">
         <v>1288</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="61" t="s">
         <v>1349</v>
       </c>
-      <c r="F21" s="57" t="str">
+      <c r="F21" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||s|全状態保存($FILE\_ALLSAVE)|</v>
       </c>
@@ -34241,37 +34238,37 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="55" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="54" t="s">
         <v>1342</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="54" t="s">
         <v>1343</v>
       </c>
-      <c r="F23" s="57" t="str">
+      <c r="F23" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||l|文字削除 カーソル右(\004)|</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="55" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="54" t="s">
         <v>1339</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="54" t="s">
         <v>1341</v>
       </c>
-      <c r="F24" s="57" t="str">
+      <c r="F24" s="56" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||h/d|文字削除 単語左(\027)/単語右(\033d)|</v>
       </c>
@@ -34963,7 +34960,7 @@
       <c r="A11" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>1280</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -34992,7 +34989,7 @@
       <c r="A12" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="60" t="s">
         <v>1289</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -35021,7 +35018,7 @@
       <c r="A13" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="60" t="s">
         <v>1290</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -35358,7 +35355,7 @@
       <c r="G24" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="60" t="s">
         <v>1291</v>
       </c>
       <c r="I24" s="16" t="s">
@@ -35384,10 +35381,10 @@
       <c r="F25" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="60" t="s">
         <v>1292</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="60" t="s">
         <v>1294</v>
       </c>
       <c r="I25" s="16" t="s">
@@ -35413,10 +35410,10 @@
       <c r="F26" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G26" s="61" t="s">
+      <c r="G26" s="60" t="s">
         <v>1295</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="H26" s="60" t="s">
         <v>1293</v>
       </c>
       <c r="I26" s="16" t="s">
@@ -35442,7 +35439,7 @@
       <c r="F27" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="60" t="s">
         <v>1300</v>
       </c>
       <c r="H27" s="20" t="s">
@@ -35897,19 +35894,19 @@
       <c r="C43" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D43" s="61" t="s">
+      <c r="D43" s="60" t="s">
         <v>1284</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="60" t="s">
         <v>1328</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="60" t="s">
         <v>1330</v>
       </c>
       <c r="I43" s="16" t="s">
@@ -35926,19 +35923,19 @@
       <c r="C44" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="60" t="s">
         <v>1285</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F44" s="61" t="s">
+      <c r="F44" s="60" t="s">
         <v>1329</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H44" s="61" t="s">
+      <c r="H44" s="60" t="s">
         <v>1331</v>
       </c>
       <c r="I44" s="16" t="s">
@@ -36367,7 +36364,7 @@
       <c r="E59" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F59" s="61" t="s">
+      <c r="F59" s="60" t="s">
         <v>1278</v>
       </c>
       <c r="G59" s="20" t="s">
@@ -36425,7 +36422,7 @@
       <c r="E61" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="F61" s="60" t="s">
         <v>1336</v>
       </c>
       <c r="G61" s="20" t="s">
@@ -36535,13 +36532,13 @@
       <c r="C65" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="60" t="s">
         <v>1334</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F65" s="61" t="s">
+      <c r="F65" s="60" t="s">
         <v>1335</v>
       </c>
       <c r="G65" s="20" t="s">
@@ -36596,7 +36593,7 @@
       <c r="D67" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="60" t="s">
         <v>1281</v>
       </c>
       <c r="F67" s="20" t="s">
@@ -36625,7 +36622,7 @@
       <c r="D68" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E68" s="61" t="s">
+      <c r="E68" s="60" t="s">
         <v>1286</v>
       </c>
       <c r="F68" s="20" t="s">
@@ -36738,7 +36735,7 @@
       <c r="C72" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D72" s="61" t="s">
+      <c r="D72" s="60" t="s">
         <v>1287</v>
       </c>
       <c r="E72" s="20" t="s">
@@ -36828,10 +36825,10 @@
       <c r="D75" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E75" s="61" t="s">
+      <c r="E75" s="60" t="s">
         <v>1279</v>
       </c>
-      <c r="F75" s="61" t="s">
+      <c r="F75" s="60" t="s">
         <v>1279</v>
       </c>
       <c r="G75" s="20" t="s">
@@ -36857,7 +36854,7 @@
       <c r="D76" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="60" t="s">
         <v>1282</v>
       </c>
       <c r="F76" s="20" t="s">
@@ -36866,7 +36863,7 @@
       <c r="G76" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H76" s="61" t="s">
+      <c r="H76" s="60" t="s">
         <v>1276</v>
       </c>
       <c r="I76" s="16" t="s">
@@ -37412,389 +37409,389 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58" t="s">
         <v>1257</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>869</v>
       </c>
-      <c r="F3" s="60" t="str">
+      <c r="F3" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F5|更新|</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>1275</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>1274</v>
       </c>
-      <c r="F4" s="60" t="str">
+      <c r="F4" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|←/→/↑|ディレクトリ移動(戻る/進む/親)|</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="63" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="62" t="s">
         <v>1306</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>1272</v>
       </c>
-      <c r="F5" s="60" t="str">
+      <c r="F5" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||\|ディレクトリ移動(ルート)|</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>1273</v>
       </c>
-      <c r="F6" s="60" t="str">
+      <c r="F6" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||h|ディレクトリ移動(ホーム)|</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>1270</v>
       </c>
-      <c r="F7" s="60" t="str">
+      <c r="F7" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||b|ブックマーク追加|</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="62" t="s">
         <v>1325</v>
       </c>
-      <c r="F8" s="60" t="str">
+      <c r="F8" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||o|ブックマークウィンドウ表示|</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="62" t="s">
         <v>1271</v>
       </c>
-      <c r="F9" s="60" t="str">
+      <c r="F9" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|t|ツリー・パネル切替え|</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="58" t="s">
         <v>1305</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="62" t="s">
         <v>1304</v>
       </c>
-      <c r="F10" s="60" t="str">
+      <c r="F10" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|f|フィルタ|</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58" t="s">
         <v>1314</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="62" t="s">
         <v>1307</v>
       </c>
-      <c r="F11" s="60" t="str">
+      <c r="F11" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F7|フォルダ作成|</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>1308</v>
       </c>
-      <c r="F12" s="60" t="str">
+      <c r="F12" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift||F4|ファイル作成|</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="58" t="s">
         <v>1316</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="62" t="s">
         <v>1315</v>
       </c>
-      <c r="F13" s="60" t="str">
+      <c r="F13" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|||Alt|F6|ショートカットファイル作成|</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="58" t="s">
         <v>1309</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="62" t="s">
         <v>1310</v>
       </c>
-      <c r="F14" s="60" t="str">
+      <c r="F14" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||c|ファイル名コピー|</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58" t="s">
         <v>1319</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="58" t="s">
         <v>1323</v>
       </c>
-      <c r="F15" s="60" t="str">
+      <c r="F15" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||[|フォルダパスコピー(ローカルパネル)|</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58" t="s">
         <v>1320</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>1324</v>
       </c>
-      <c r="F16" s="60" t="str">
+      <c r="F16" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||]|フォルダパスコピー(リモートパネル)|</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="58" t="s">
         <v>1309</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="62" t="s">
         <v>1311</v>
       </c>
-      <c r="F17" s="60" t="str">
+      <c r="F17" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|c|ファイルパスコピー|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58" t="s">
+      <c r="B18" s="57"/>
+      <c r="C18" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="58" t="s">
         <v>1312</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="62" t="s">
         <v>1326</v>
       </c>
-      <c r="F18" s="60" t="str">
+      <c r="F18" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|h|隠しファイル表示/非表示切替え|</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>1313</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="62" t="s">
         <v>1327</v>
       </c>
-      <c r="F19" s="60" t="str">
+      <c r="F19" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|t|ツリーパネル表示/非表示切替え|</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58" t="s">
         <v>1317</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>1318</v>
       </c>
-      <c r="F20" s="60" t="str">
+      <c r="F20" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||F3|ソート(名前)|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>1321</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="58" t="s">
         <v>1322</v>
       </c>
-      <c r="F21" s="60" t="str">
+      <c r="F21" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|e|エクスプローラで開く(ローカルパネルのみ)|</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60" t="str">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60" t="str">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60" t="str">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60" t="str">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60" t="str">
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5847E28D-2F6A-46F9-A110-8E28FA3A05D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F22DF-BC5B-40DC-94F5-16FC466BC960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="17" activeTab="20" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="16" activeTab="19" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6465" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6464" uniqueCount="1478">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6733,16 +6733,6 @@
     <t>メニュー9</t>
   </si>
   <si>
-    <t>★折畳み機能</t>
-    <rPh sb="1" eb="3">
-      <t>オリタタ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ブラウズ</t>
   </si>
   <si>
@@ -6959,16 +6949,6 @@
     <t>折り返さない</t>
   </si>
   <si>
-    <t>空白→TAB</t>
-  </si>
-  <si>
-    <t>大文字</t>
-  </si>
-  <si>
-    <t>Shift+Ctrl+Alt</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>アプリキー</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -6983,10 +6963,6 @@
   <si>
     <t>中クリック</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Shift+Ctrl</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>右クリック</t>
@@ -7029,10 +7005,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>縦方向に最大化/すべて最小化</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>カーソル右/左移動</t>
     <rPh sb="6" eb="7">
       <t>ヒダリ</t>
@@ -7082,10 +7054,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>横方向に最大化/-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Home/End</t>
   </si>
   <si>
@@ -7152,6 +7120,17 @@
   </si>
   <si>
     <t>左クアドラプルクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Grepして置換...</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>閉じる</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7449,7 +7428,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7636,9 +7615,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -23485,7 +23461,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -28508,11 +28484,11 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -31127,12 +31103,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F79ECD4-AC2C-4540-BA67-8715369ABF5F}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D58" sqref="D58"/>
       <selection pane="topRight" activeCell="D58" sqref="D58"/>
       <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -31159,7 +31135,7 @@
         <v>543</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>1452</v>
+        <v>544</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>545</v>
@@ -31168,7 +31144,7 @@
         <v>546</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>1447</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" ht="12">
@@ -31176,7 +31152,7 @@
         <v>215</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>266</v>
@@ -31188,7 +31164,7 @@
         <v>266</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>266</v>
@@ -31208,7 +31184,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>266</v>
@@ -31243,7 +31219,7 @@
         <v>240</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>266</v>
@@ -31263,9 +31239,7 @@
       <c r="I4" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>1372</v>
-      </c>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A5" s="35" t="s">
@@ -31321,8 +31295,8 @@
       <c r="H6" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="I6" s="63" t="s">
-        <v>1445</v>
+      <c r="I6" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="17" customFormat="1" ht="12">
@@ -31359,7 +31333,7 @@
         <v>224</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>266</v>
@@ -31388,7 +31362,7 @@
         <v>238</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>266</v>
@@ -31397,7 +31371,7 @@
         <v>266</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>266</v>
@@ -31446,7 +31420,7 @@
         <v>141</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>266</v>
@@ -31504,7 +31478,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>266</v>
@@ -31803,7 +31777,7 @@
         <v>266</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>266</v>
@@ -31823,28 +31797,28 @@
         <v>573</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>1454</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>1457</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>1458</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>1459</v>
-      </c>
-      <c r="I24" s="63" t="s">
-        <v>1460</v>
+      <c r="I24" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="17" customFormat="1" ht="12">
@@ -31852,28 +31826,28 @@
         <v>580</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H25" s="20" t="s">
         <v>1461</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>1468</v>
+      <c r="I25" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12">
@@ -31881,10 +31855,10 @@
         <v>587</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>588</v>
@@ -31910,7 +31884,7 @@
         <v>589</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>266</v>
@@ -31939,19 +31913,19 @@
         <v>592</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>266</v>
@@ -31968,13 +31942,13 @@
         <v>596</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>266</v>
@@ -32023,28 +31997,28 @@
     </row>
     <row r="31" spans="1:9" ht="12">
       <c r="A31" s="37" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>266</v>
@@ -32052,28 +32026,28 @@
     </row>
     <row r="32" spans="1:9" ht="12">
       <c r="A32" s="37" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>266</v>
@@ -32089,11 +32063,11 @@
       <c r="C33" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="D33" s="60" t="s">
-        <v>1402</v>
+      <c r="D33" s="20" t="s">
+        <v>1401</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>266</v>
@@ -32119,7 +32093,7 @@
         <v>563</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>266</v>
@@ -32148,7 +32122,7 @@
         <v>563</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>266</v>
@@ -32177,7 +32151,7 @@
         <v>563</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>266</v>
@@ -32206,7 +32180,7 @@
         <v>563</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>266</v>
@@ -32235,7 +32209,7 @@
         <v>563</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>266</v>
@@ -32267,7 +32241,7 @@
         <v>266</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>266</v>
@@ -32293,10 +32267,10 @@
         <v>563</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>266</v>
@@ -32351,7 +32325,7 @@
         <v>563</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>266</v>
@@ -32403,7 +32377,7 @@
         <v>667</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>266</v>
@@ -32615,7 +32589,7 @@
         <v>729</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>266</v>
@@ -32641,7 +32615,7 @@
         <v>563</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>266</v>
@@ -32676,7 +32650,7 @@
         <v>266</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>266</v>
@@ -32699,13 +32673,13 @@
         <v>563</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>266</v>
@@ -32728,7 +32702,7 @@
         <v>563</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>266</v>
@@ -32740,7 +32714,7 @@
         <v>266</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>266</v>
@@ -32786,13 +32760,13 @@
         <v>563</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>266</v>
+        <v>1476</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>266</v>
@@ -32821,13 +32795,13 @@
         <v>266</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>1419</v>
+        <v>266</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>266</v>
@@ -32844,7 +32818,7 @@
         <v>563</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>266</v>
@@ -32873,7 +32847,7 @@
         <v>563</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>266</v>
@@ -32902,13 +32876,13 @@
         <v>563</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>266</v>
@@ -32931,10 +32905,10 @@
         <v>563</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>266</v>
@@ -32943,10 +32917,10 @@
         <v>266</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>1438</v>
-      </c>
-      <c r="I62" s="63" t="s">
-        <v>1446</v>
+        <v>1437</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="12">
@@ -32960,13 +32934,13 @@
         <v>563</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>266</v>
@@ -32992,7 +32966,7 @@
         <v>631</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F64" s="20" t="s">
         <v>266</v>
@@ -33050,16 +33024,16 @@
         <v>634</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>266</v>
@@ -33076,7 +33050,7 @@
         <v>563</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>266</v>
@@ -33104,11 +33078,11 @@
       <c r="C68" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D68" s="60" t="s">
-        <v>623</v>
+      <c r="D68" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>266</v>
@@ -33140,13 +33114,13 @@
         <v>266</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>266</v>
@@ -33175,7 +33149,7 @@
         <v>266</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>266</v>
@@ -33192,19 +33166,19 @@
         <v>563</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>266</v>
@@ -33250,7 +33224,7 @@
         <v>563</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>1378</v>
+        <v>1477</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>266</v>
@@ -33262,7 +33236,7 @@
         <v>266</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>266</v>
@@ -33291,7 +33265,7 @@
         <v>266</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>266</v>
@@ -33360,13 +33334,13 @@
         <v>668</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>266</v>
@@ -33418,28 +33392,28 @@
         <v>950</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>1378</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="12">
@@ -33447,48 +33421,48 @@
         <v>952</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>1381</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="12">
       <c r="A81" s="37" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G81" s="20" t="s">
         <v>266</v>
@@ -33598,7 +33572,7 @@
         <v>658</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>658</v>
@@ -33613,7 +33587,7 @@
         <v>658</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>658</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="12">
@@ -33627,7 +33601,7 @@
         <v>660</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>660</v>
@@ -33642,99 +33616,99 @@
         <v>660</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>660</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="12">
       <c r="A87" s="37" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>1382</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="12">
       <c r="A88" s="37" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>1383</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="12">
       <c r="A89" s="37" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>1379</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="12">
       <c r="A90" s="37" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>729</v>
@@ -33758,15 +33732,15 @@
         <v>729</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>729</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="12">
       <c r="A91" s="37" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>266</v>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F22DF-BC5B-40DC-94F5-16FC466BC960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8AE072-F181-4D4C-A7E0-55252BBDAE78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="16" activeTab="19" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
@@ -34,11 +34,7 @@
     <sheet name="Rlogin表" sheetId="36" r:id="rId23"/>
     <sheet name="WinSCP" sheetId="35" r:id="rId24"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId25"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_1固定支出_グラフ_月">OFFSET([1]固定支出!$A$7,1,0,COUNTA([1]固定支出!$A$7:$A$88)-1,1)</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Excel表!$A$1:$I$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">Rlogin表!$A$1:$I$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Sakura表!$A$1:$I$86</definedName>
@@ -70,21 +66,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="17">テーブル1781011[[#All],[Ctrl]:[機能]]</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'X-Finder表'!$A$1:$I$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">秀丸表!$A$1:$I$87</definedName>
-    <definedName name="最終更新_日付">VLOOKUP("最終更新 日付",範囲_SHT現状_費目名to金額列,COLUMNS(範囲_SHT現状_費目名to金額列),FALSE)</definedName>
-    <definedName name="次月_月">!$V$10</definedName>
-    <definedName name="次月_年">!$V$9</definedName>
-    <definedName name="前月_月">!$V$6</definedName>
-    <definedName name="前月_年">!$V$5</definedName>
-    <definedName name="当月_月">!$V$8</definedName>
-    <definedName name="当月_現在日">IF((最終更新_日付&gt;当月_末日),当月_末日,IF((最終更新_日付&gt;当月_初日),最終更新_日付,当月_初日))</definedName>
-    <definedName name="当月_初日">!$V$3</definedName>
-    <definedName name="当月_年">!$V$7</definedName>
-    <definedName name="当月_末日">!$V$4</definedName>
-    <definedName name="当月シート名">RIGHT(CELL("filename",INDIRECT("A1")),LEN(CELL("filename",INDIRECT("A1")))-FIND("]",CELL("filename",INDIRECT("A1"))))</definedName>
-    <definedName name="範囲_SHT現状_金額列">INDIRECT("'現状'!C"&amp;MATCH("*金額列*",INDIRECT("現状!$1:$1"),0)&amp;":C"&amp;MATCH("*金額列*",INDIRECT("現状!$1:$1"),0),FALSE)</definedName>
-    <definedName name="範囲_SHT現状_費目名to金額列">INDIRECT("'現状'!C"&amp;COLUMN(範囲_SHT現状_費目名列)&amp;":C"&amp;COLUMN(範囲_SHT現状_金額列),FALSE)</definedName>
-    <definedName name="範囲_SHT現状_費目名列">INDIRECT("'現状'!C"&amp;MATCH("*費目名列*",INDIRECT("現状!$1:$1"),0)&amp;":C"&amp;MATCH("*費目名列*",INDIRECT("現状!$1:$1"),0),FALSE)</definedName>
-    <definedName name="本日">!$V$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -11956,445 +11937,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BasicInfo"/>
-      <sheetName val="10"/>
-      <sheetName val="11"/>
-      <sheetName val="12"/>
-      <sheetName val="収支予想"/>
-      <sheetName val="貯金残高推移"/>
-      <sheetName val="固定支出"/>
-      <sheetName val="ボーナス使い道_201412"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="7">
-          <cell r="A7">
-            <v>40634</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>40664</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>40695</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>40725</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>40756</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>40787</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>40817</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>40848</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>40878</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>40909</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>40940</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>40969</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>41000</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>41030</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>41061</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>41091</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>41122</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>41153</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>41183</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>41214</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>41244</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>41275</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>41306</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>41334</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>41365</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>41395</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>41426</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>41456</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>41487</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>41518</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>41548</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>41579</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>41609</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>41640</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>41671</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41699</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>41730</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>41760</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>41791</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>41821</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>41852</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>41883</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>41913</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>41944</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>41974</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>42005</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>42036</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>42064</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>42095</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>42125</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>42156</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>42186</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>42217</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>42248</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>42278</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>42309</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>42339</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>42370</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>42401</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>42430</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>42461</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>42491</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>42522</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>42552</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>42583</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>42614</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>42644</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>42675</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>42705</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>42736</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>42767</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>42795</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>42826</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>42856</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>42887</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>42917</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>42948</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>42979</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>43009</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>43040</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>43070</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1345" displayName="テーブル1345" ref="A1:G85" headerRowDxfId="239" dataDxfId="238">
   <autoFilter ref="A1:G85" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
@@ -28488,7 +28030,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8AE072-F181-4D4C-A7E0-55252BBDAE78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78176FB1-44A0-4224-ABA4-3C06D2A73F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="16" activeTab="19" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" firstSheet="16" activeTab="22" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows10" sheetId="7" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6464" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6464" uniqueCount="1480">
   <si>
     <t>Ctrl</t>
   </si>
@@ -7111,6 +7111,26 @@
     <t>閉じる</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>横分割</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>縦分割</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブンカツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -7409,7 +7429,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7596,6 +7616,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -28026,11 +28055,11 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -34168,11 +34197,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC0A4BB-8195-47B9-96EC-28B9FF2054E0}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -35880,7 +35909,7 @@
       <c r="E59" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="64" t="s">
         <v>1278</v>
       </c>
       <c r="G59" s="20" t="s">
@@ -35944,8 +35973,8 @@
       <c r="G61" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H61" s="20" t="s">
-        <v>670</v>
+      <c r="H61" s="63" t="s">
+        <v>1478</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>266</v>
@@ -36138,7 +36167,7 @@
       <c r="D68" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E68" s="60" t="s">
+      <c r="E68" s="65" t="s">
         <v>1286</v>
       </c>
       <c r="F68" s="20" t="s">
@@ -36147,8 +36176,8 @@
       <c r="G68" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H68" s="20" t="s">
-        <v>670</v>
+      <c r="H68" s="64" t="s">
+        <v>1286</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>266</v>
@@ -36344,14 +36373,14 @@
       <c r="E75" s="60" t="s">
         <v>1279</v>
       </c>
-      <c r="F75" s="60" t="s">
+      <c r="F75" s="64" t="s">
         <v>1279</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H75" s="20" t="s">
-        <v>670</v>
+      <c r="H75" s="63" t="s">
+        <v>1479</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>266</v>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA3F6A-57BA-4ECA-B2A8-C3ED72E50F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074B9E07-1F67-4581-B79C-E4D2BBC9995C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32295" yWindow="-28395" windowWidth="32295" windowHeight="44865" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="40" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7326" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7331" uniqueCount="1611">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6149,17 +6149,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>全状態保存($FILE_ALLSAVE)</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ウィンドウ整理(並べて表示)($PANE_TILEHORZ)</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -6526,10 +6515,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>全状態保存($FILE\_ALLSAVE)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>検索($SEARCH\_REG)</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -7080,26 +7065,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>横分割</t>
-    <rPh sb="0" eb="1">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ブンカツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>縦分割</t>
-    <rPh sb="0" eb="1">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ブンカツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ウィンドウ切り替え(上)($PANE_UP)</t>
     <rPh sb="5" eb="6">
       <t>キ</t>
@@ -7163,25 +7128,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>★接続追加＋分割をVとSに割り当てる？</t>
-    <rPh sb="1" eb="3">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ブンカツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>JavaScript のコンソールを表示</t>
   </si>
   <si>
@@ -7592,6 +7538,37 @@
   </si>
   <si>
     <t>ドキュメントのプロパティ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全状態保存($FILE\_ALLSAVE)</t>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>縦分割($PANE_HSPLIT)</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>横分割($PANE_WSPLIT)</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>縦分割($PANE_HSPLIT)/横分割($PANE_WSPLIT)</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -7908,7 +7885,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8092,15 +8069,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
@@ -12575,8 +12543,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B3B06C47-0783-4864-BFA7-B306B0811F6A}" name="テーブル178101117" displayName="テーブル178101117" ref="A1:F83" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:F83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B3B06C47-0783-4864-BFA7-B306B0811F6A}" name="テーブル178101117" displayName="テーブル178101117" ref="A1:F82" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:F82" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7074AF62-75A2-46EA-8E94-9E786E84646D}" name="Ctrl" totalsRowLabel="集計" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" xr3:uid="{F02671C4-0209-4380-B7DA-CF9B477E89B2}" name="Shift" dataDxfId="21"/>
@@ -13090,797 +13058,797 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="70" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>1607</v>
+      <c r="A1" s="67" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="67" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B2" s="68" t="str">
+      <c r="A2" s="64" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B2" s="65" t="str">
         <f>$A2</f>
         <v>Windows10</v>
       </c>
-      <c r="C2" s="69" t="str">
+      <c r="C2" s="66" t="str">
         <f t="shared" ref="C2:C17" si="0">HYPERLINK("#'"&amp;$B2&amp;"'!A1",$B2)</f>
         <v>Windows10</v>
       </c>
-      <c r="D2" s="67"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="67" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B3" s="68" t="str">
+      <c r="A3" s="64" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B3" s="65" t="str">
         <f t="shared" ref="B3:B21" si="1">$A3</f>
         <v>Linuxシェル</v>
       </c>
-      <c r="C3" s="69" t="str">
+      <c r="C3" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Linuxシェル</v>
       </c>
-      <c r="D3" s="67"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="67" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B4" s="68" t="str">
+      <c r="A4" s="64" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B4" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Outlook</v>
       </c>
-      <c r="C4" s="69" t="str">
+      <c r="C4" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Outlook</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="67" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B5" s="68" t="str">
+      <c r="A5" s="64" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B5" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Excel</v>
       </c>
-      <c r="C5" s="69" t="str">
+      <c r="C5" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Excel</v>
       </c>
-      <c r="D5" s="69" t="str">
+      <c r="D5" s="66" t="str">
         <f t="shared" ref="D5:D20" si="2">HYPERLINK("#'"&amp;$B5&amp;"表'!A1",$B5&amp;"表")</f>
         <v>Excel表</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="67" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B6" s="68" t="str">
+      <c r="A6" s="64" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B6" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Excel(alt)</v>
       </c>
-      <c r="C6" s="69" t="str">
+      <c r="C6" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Excel(alt)</v>
       </c>
-      <c r="D6" s="67"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="67" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B7" s="68" t="str">
+      <c r="A7" s="64" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B7" s="65" t="str">
         <f t="shared" si="1"/>
         <v>AdobeReader</v>
       </c>
-      <c r="C7" s="69" t="str">
+      <c r="C7" s="66" t="str">
         <f t="shared" si="0"/>
         <v>AdobeReader</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="67" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B8" s="68" t="str">
+      <c r="A8" s="64" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B8" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Vbe</v>
       </c>
-      <c r="C8" s="69" t="str">
+      <c r="C8" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Vbe</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="67" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B9" s="68" t="str">
+      <c r="A9" s="64" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B9" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Visio</v>
       </c>
-      <c r="C9" s="69" t="str">
+      <c r="C9" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Visio</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="64"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="67" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B10" s="68" t="str">
+      <c r="A10" s="64" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B10" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Word</v>
       </c>
-      <c r="C10" s="69" t="str">
+      <c r="C10" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Word</v>
       </c>
-      <c r="D10" s="69" t="str">
+      <c r="D10" s="66" t="str">
         <f t="shared" si="2"/>
         <v>Word表</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="67" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B11" s="68" t="str">
+      <c r="A11" s="64" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B11" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Firefox</v>
       </c>
-      <c r="C11" s="69" t="str">
+      <c r="C11" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Firefox</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="67" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B12" s="68" t="str">
+      <c r="A12" s="64" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B12" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Thunderbird</v>
       </c>
-      <c r="C12" s="69" t="str">
+      <c r="C12" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Thunderbird</v>
       </c>
-      <c r="D12" s="67"/>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="67" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B13" s="68" t="str">
+      <c r="A13" s="64" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B13" s="65" t="str">
         <f t="shared" si="1"/>
         <v>iThoughts</v>
       </c>
-      <c r="C13" s="69" t="str">
+      <c r="C13" s="66" t="str">
         <f t="shared" si="0"/>
         <v>iThoughts</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="67" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B14" s="68" t="str">
+      <c r="A14" s="64" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B14" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Vim</v>
       </c>
-      <c r="C14" s="69" t="str">
+      <c r="C14" s="66" t="str">
         <f t="shared" si="0"/>
         <v>Vim</v>
       </c>
-      <c r="D14" s="69" t="str">
+      <c r="D14" s="66" t="str">
         <f t="shared" si="2"/>
         <v>Vim表</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="67" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C15" s="69" t="str">
+      <c r="A15" s="64" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C15" s="66" t="str">
         <f t="shared" si="0"/>
         <v>XChangeViewer</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="64"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="67" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="69" t="str">
+      <c r="A16" s="64" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="66" t="str">
         <f t="shared" si="2"/>
         <v>XChangeEditer表</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="67" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B17" s="68" t="str">
+      <c r="A17" s="64" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B17" s="65" t="str">
         <f t="shared" si="1"/>
         <v>X-Finder</v>
       </c>
-      <c r="C17" s="69" t="str">
+      <c r="C17" s="66" t="str">
         <f t="shared" si="0"/>
         <v>X-Finder</v>
       </c>
-      <c r="D17" s="69" t="str">
+      <c r="D17" s="66" t="str">
         <f t="shared" si="2"/>
         <v>X-Finder表</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="67" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B18" s="68" t="str">
+      <c r="A18" s="64" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B18" s="65" t="str">
         <f t="shared" si="1"/>
         <v>秀丸</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="69" t="str">
+      <c r="C18" s="64"/>
+      <c r="D18" s="66" t="str">
         <f t="shared" si="2"/>
         <v>秀丸表</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="67" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B19" s="68" t="str">
+      <c r="A19" s="64" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B19" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Sakura</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="69" t="str">
+      <c r="C19" s="64"/>
+      <c r="D19" s="66" t="str">
         <f t="shared" si="2"/>
         <v>Sakura表</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="67" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B20" s="68" t="str">
+      <c r="A20" s="64" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B20" s="65" t="str">
         <f t="shared" si="1"/>
         <v>RLogin</v>
       </c>
-      <c r="C20" s="69" t="str">
+      <c r="C20" s="66" t="str">
         <f>HYPERLINK("#'"&amp;$B20&amp;"'!A1",$B20)</f>
         <v>RLogin</v>
       </c>
-      <c r="D20" s="69" t="str">
+      <c r="D20" s="66" t="str">
         <f t="shared" si="2"/>
         <v>RLogin表</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="67" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B21" s="68" t="str">
+      <c r="A21" s="64" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B21" s="65" t="str">
         <f t="shared" si="1"/>
         <v>WinSCP</v>
       </c>
-      <c r="C21" s="69" t="str">
+      <c r="C21" s="66" t="str">
         <f>HYPERLINK("#'"&amp;$B21&amp;"'!A1",$B21)</f>
         <v>WinSCP</v>
       </c>
-      <c r="D21" s="67"/>
+      <c r="D21" s="64"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="67"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="67"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="67"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="67"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="67"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="67"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="67"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="67"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="67"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="67"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="67"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="67"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="67"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="67"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="67"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="67"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="67"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="67"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="67"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="67"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="67"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="67"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="67"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="67"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="67"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="67"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="67"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="67"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="67"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="67"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="67"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="67"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="67"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="67"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="67"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="67"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="67"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="67"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="67"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="67"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="67"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="67"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="67"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="67"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="67"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="67"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
+      <c r="A84" s="64"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="67"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="67"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="67"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="67"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="67"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="67"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="67"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="67"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="67"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="67"/>
-      <c r="B92" s="68"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="67"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="67"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="67"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="67"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="67"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="67"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="67"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="67"/>
-      <c r="D97" s="67"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="67"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="67"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="67"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="67"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
+      <c r="A100" s="64"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D100" xr:uid="{1A0B511A-E3B9-4868-B024-D2682D88D1E3}"/>
@@ -23313,7 +23281,7 @@
         <v>215</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>266</v>
@@ -23342,7 +23310,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>266</v>
@@ -23406,7 +23374,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>266</v>
@@ -23464,13 +23432,13 @@
         <v>266</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>266</v>
@@ -23487,7 +23455,7 @@
         <v>224</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>266</v>
@@ -23496,7 +23464,7 @@
         <v>266</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>266</v>
@@ -23516,13 +23484,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>266</v>
@@ -23545,7 +23513,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>266</v>
@@ -23603,7 +23571,7 @@
         <v>221</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>266</v>
@@ -23664,16 +23632,16 @@
         <v>266</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>266</v>
@@ -23693,10 +23661,10 @@
         <v>266</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>1220</v>
@@ -23722,13 +23690,13 @@
         <v>266</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>266</v>
@@ -23751,13 +23719,13 @@
         <v>266</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>266</v>
@@ -23786,7 +23754,7 @@
         <v>266</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>266</v>
@@ -23815,10 +23783,10 @@
         <v>266</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>266</v>
@@ -23835,7 +23803,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>266</v>
@@ -23844,7 +23812,7 @@
         <v>266</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>266</v>
@@ -23870,13 +23838,13 @@
         <v>266</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>266</v>
@@ -23902,7 +23870,7 @@
         <v>266</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>266</v>
@@ -23931,7 +23899,7 @@
         <v>266</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>266</v>
@@ -23960,7 +23928,7 @@
         <v>266</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>266</v>
@@ -23989,7 +23957,7 @@
         <v>266</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>266</v>
@@ -24015,10 +23983,10 @@
         <v>266</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>266</v>
@@ -24044,10 +24012,10 @@
         <v>266</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>266</v>
@@ -24073,13 +24041,13 @@
         <v>266</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>266</v>
@@ -24093,19 +24061,19 @@
     </row>
     <row r="29" spans="1:9" ht="12">
       <c r="A29" s="37" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>266</v>
@@ -24114,7 +24082,7 @@
         <v>266</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>266</v>
@@ -24122,13 +24090,13 @@
     </row>
     <row r="30" spans="1:9" ht="12">
       <c r="A30" s="37" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>266</v>
@@ -24212,7 +24180,7 @@
         <v>854</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>266</v>
@@ -24241,7 +24209,7 @@
         <v>855</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>266</v>
@@ -24328,7 +24296,7 @@
         <v>601</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>266</v>
@@ -24337,10 +24305,10 @@
         <v>477</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>266</v>
@@ -24363,7 +24331,7 @@
         <v>266</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>266</v>
@@ -24383,7 +24351,7 @@
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="37" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>266</v>
@@ -24392,7 +24360,7 @@
         <v>266</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>266</v>
@@ -24441,7 +24409,7 @@
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="38" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>266</v>
@@ -24450,7 +24418,7 @@
         <v>266</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>266</v>
@@ -24470,7 +24438,7 @@
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="37" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>266</v>
@@ -24499,7 +24467,7 @@
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="37" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>266</v>
@@ -24537,7 +24505,7 @@
         <v>266</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>266</v>
@@ -24566,13 +24534,13 @@
         <v>266</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>266</v>
@@ -24885,13 +24853,13 @@
         <v>266</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>266</v>
@@ -24914,13 +24882,13 @@
         <v>266</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>266</v>
@@ -24943,13 +24911,13 @@
         <v>266</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>266</v>
@@ -24972,7 +24940,7 @@
         <v>266</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>266</v>
@@ -25001,13 +24969,13 @@
         <v>266</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>266</v>
@@ -25030,7 +24998,7 @@
         <v>266</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>266</v>
@@ -25042,7 +25010,7 @@
         <v>266</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>266</v>
@@ -25059,13 +25027,13 @@
         <v>266</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>266</v>
@@ -25094,13 +25062,13 @@
         <v>266</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>266</v>
@@ -25117,7 +25085,7 @@
         <v>266</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>266</v>
@@ -25129,7 +25097,7 @@
         <v>266</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>266</v>
@@ -25146,7 +25114,7 @@
         <v>266</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>266</v>
@@ -25175,7 +25143,7 @@
         <v>266</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>266</v>
@@ -25204,7 +25172,7 @@
         <v>266</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>266</v>
@@ -25233,13 +25201,13 @@
         <v>266</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="G68" s="20" t="s">
         <v>266</v>
@@ -25268,7 +25236,7 @@
         <v>266</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>266</v>
@@ -25291,7 +25259,7 @@
         <v>266</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>266</v>
@@ -25320,7 +25288,7 @@
         <v>266</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>266</v>
@@ -25349,7 +25317,7 @@
         <v>266</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>266</v>
@@ -25378,13 +25346,13 @@
         <v>266</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>266</v>
@@ -25407,19 +25375,19 @@
         <v>266</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>266</v>
@@ -25436,7 +25404,7 @@
         <v>266</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>266</v>
@@ -25494,7 +25462,7 @@
         <v>266</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>266</v>
@@ -25523,13 +25491,13 @@
         <v>266</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>266</v>
@@ -25552,7 +25520,7 @@
         <v>266</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>266</v>
@@ -25581,7 +25549,7 @@
         <v>266</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>266</v>
@@ -25610,7 +25578,7 @@
         <v>266</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>266</v>
@@ -25633,7 +25601,7 @@
         <v>668</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>266</v>
@@ -25920,22 +25888,22 @@
     </row>
     <row r="92" spans="1:9" ht="12">
       <c r="A92" s="37" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="G92" s="20" t="s">
         <v>266</v>
@@ -25949,22 +25917,22 @@
     </row>
     <row r="93" spans="1:9" ht="12">
       <c r="A93" s="37" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="C93" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="G93" s="20" t="s">
         <v>266</v>
@@ -25978,10 +25946,10 @@
     </row>
     <row r="94" spans="1:9" ht="12">
       <c r="A94" s="37" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>266</v>
@@ -30773,7 +30741,7 @@
         <v>266</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" ht="12">
@@ -33369,7 +33337,7 @@
         <v>215</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>266</v>
@@ -33381,7 +33349,7 @@
         <v>266</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>266</v>
@@ -33393,7 +33361,7 @@
         <v>266</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" ht="12">
@@ -33401,7 +33369,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>266</v>
@@ -33425,7 +33393,7 @@
         <v>266</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" ht="12">
@@ -33436,7 +33404,7 @@
         <v>240</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>266</v>
@@ -33550,7 +33518,7 @@
         <v>224</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>266</v>
@@ -33579,7 +33547,7 @@
         <v>238</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>266</v>
@@ -33588,7 +33556,7 @@
         <v>266</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>266</v>
@@ -33637,7 +33605,7 @@
         <v>141</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>266</v>
@@ -33695,7 +33663,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>266</v>
@@ -33733,7 +33701,7 @@
         <v>266</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>266</v>
@@ -33762,7 +33730,7 @@
         <v>266</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>266</v>
@@ -33791,7 +33759,7 @@
         <v>266</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>266</v>
@@ -33820,7 +33788,7 @@
         <v>266</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>266</v>
@@ -33849,7 +33817,7 @@
         <v>266</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>266</v>
@@ -33878,7 +33846,7 @@
         <v>266</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>266</v>
@@ -33907,7 +33875,7 @@
         <v>266</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>266</v>
@@ -33936,7 +33904,7 @@
         <v>266</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>266</v>
@@ -33965,7 +33933,7 @@
         <v>266</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>266</v>
@@ -33994,7 +33962,7 @@
         <v>266</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>266</v>
@@ -34014,25 +33982,25 @@
         <v>573</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>1444</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="G24" s="20" t="s">
         <v>1445</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="H24" s="20" t="s">
         <v>1446</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>1447</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>1448</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>1449</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>266</v>
@@ -34043,25 +34011,25 @@
         <v>580</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>1450</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="F25" s="20" t="s">
         <v>1451</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="G25" s="20" t="s">
         <v>1452</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="H25" s="20" t="s">
         <v>1453</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>1454</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>1456</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>266</v>
@@ -34072,10 +34040,10 @@
         <v>587</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>588</v>
@@ -34101,7 +34069,7 @@
         <v>589</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>266</v>
@@ -34130,19 +34098,19 @@
         <v>592</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>266</v>
@@ -34159,13 +34127,13 @@
         <v>596</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>266</v>
@@ -34214,28 +34182,28 @@
     </row>
     <row r="31" spans="1:9" ht="12">
       <c r="A31" s="37" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>1457</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="E31" s="20" t="s">
         <v>1458</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="F31" s="20" t="s">
         <v>1459</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="G31" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>1460</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>1463</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>266</v>
@@ -34243,28 +34211,28 @@
     </row>
     <row r="32" spans="1:9" ht="12">
       <c r="A32" s="37" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>1464</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="F32" s="20" t="s">
         <v>1465</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="G32" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>1466</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>1469</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>266</v>
@@ -34281,10 +34249,10 @@
         <v>266</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>266</v>
@@ -34310,7 +34278,7 @@
         <v>563</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>266</v>
@@ -34339,7 +34307,7 @@
         <v>563</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>266</v>
@@ -34368,7 +34336,7 @@
         <v>563</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>266</v>
@@ -34397,7 +34365,7 @@
         <v>563</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>266</v>
@@ -34426,7 +34394,7 @@
         <v>563</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>266</v>
@@ -34458,7 +34426,7 @@
         <v>266</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>266</v>
@@ -34484,10 +34452,10 @@
         <v>563</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>266</v>
@@ -34542,7 +34510,7 @@
         <v>563</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>266</v>
@@ -34594,7 +34562,7 @@
         <v>667</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>266</v>
@@ -34806,7 +34774,7 @@
         <v>729</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>266</v>
@@ -34832,7 +34800,7 @@
         <v>563</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>266</v>
@@ -34867,7 +34835,7 @@
         <v>266</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>266</v>
@@ -34890,13 +34858,13 @@
         <v>563</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>266</v>
@@ -34919,7 +34887,7 @@
         <v>563</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>266</v>
@@ -34931,7 +34899,7 @@
         <v>266</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>266</v>
@@ -34977,13 +34945,13 @@
         <v>563</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>266</v>
@@ -35018,7 +34986,7 @@
         <v>266</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>266</v>
@@ -35035,7 +35003,7 @@
         <v>563</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>266</v>
@@ -35064,7 +35032,7 @@
         <v>563</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>266</v>
@@ -35093,13 +35061,13 @@
         <v>563</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>266</v>
@@ -35122,10 +35090,10 @@
         <v>563</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>266</v>
@@ -35134,7 +35102,7 @@
         <v>266</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>266</v>
@@ -35151,13 +35119,13 @@
         <v>563</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>266</v>
@@ -35183,7 +35151,7 @@
         <v>631</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="F64" s="20" t="s">
         <v>266</v>
@@ -35241,16 +35209,16 @@
         <v>634</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>266</v>
@@ -35267,7 +35235,7 @@
         <v>563</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>266</v>
@@ -35299,7 +35267,7 @@
         <v>266</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>266</v>
@@ -35331,13 +35299,13 @@
         <v>266</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>266</v>
@@ -35366,7 +35334,7 @@
         <v>266</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>266</v>
@@ -35383,19 +35351,19 @@
         <v>563</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>266</v>
@@ -35441,7 +35409,7 @@
         <v>563</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>266</v>
@@ -35453,7 +35421,7 @@
         <v>266</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>266</v>
@@ -35482,7 +35450,7 @@
         <v>266</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>266</v>
@@ -35551,13 +35519,13 @@
         <v>668</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>266</v>
@@ -35609,25 +35577,25 @@
         <v>950</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>266</v>
@@ -35638,25 +35606,25 @@
         <v>952</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>266</v>
@@ -35664,22 +35632,22 @@
     </row>
     <row r="81" spans="1:9" ht="12">
       <c r="A81" s="37" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G81" s="20" t="s">
         <v>266</v>
@@ -35789,7 +35757,7 @@
         <v>658</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>658</v>
@@ -35818,7 +35786,7 @@
         <v>660</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>660</v>
@@ -35838,28 +35806,28 @@
     </row>
     <row r="87" spans="1:9" ht="12">
       <c r="A87" s="37" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I87" s="16" t="s">
         <v>266</v>
@@ -35867,28 +35835,28 @@
     </row>
     <row r="88" spans="1:9" ht="12">
       <c r="A88" s="37" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I88" s="16" t="s">
         <v>266</v>
@@ -35896,28 +35864,28 @@
     </row>
     <row r="89" spans="1:9" ht="12">
       <c r="A89" s="37" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I89" s="16" t="s">
         <v>266</v>
@@ -35925,7 +35893,7 @@
     </row>
     <row r="90" spans="1:9" ht="12">
       <c r="A90" s="37" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>729</v>
@@ -35954,10 +35922,10 @@
     </row>
     <row r="91" spans="1:9" ht="12">
       <c r="A91" s="37" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>266</v>
@@ -36025,9 +35993,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6009FD9C-9508-432A-9D16-8FA7741DDA77}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -36038,7 +36008,7 @@
     <col min="7" max="16384" width="2" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.25" customHeight="1">
+    <row r="1" spans="1:8" ht="11.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36058,7 +36028,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="1.9" customHeight="1">
+    <row r="2" spans="1:8" ht="1.9" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -36079,7 +36049,7 @@
         <v>|:---|:---|:---|:---|:---|</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1">
+    <row r="3" spans="1:8" ht="11.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -36093,8 +36063,11 @@
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|||ドラッグ|矩形選択|</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="11.25" customHeight="1">
+      <c r="H3" s="3" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="11.25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -36109,7 +36082,7 @@
         <v>||Shift||ドラッグ|行選択|</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="11.25" customHeight="1">
+    <row r="5" spans="1:8" ht="11.25" customHeight="1">
       <c r="A5" s="54" t="s">
         <v>0</v>
       </c>
@@ -36121,14 +36094,14 @@
         <v>75</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="F5" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|Shift||f|検索($SEARCH\_REG)|</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="11.25" customHeight="1">
+    <row r="6" spans="1:8" ht="11.25" customHeight="1">
       <c r="A6" s="54" t="s">
         <v>0</v>
       </c>
@@ -36147,7 +36120,7 @@
         <v>|Ctrl|Shift||v|貼り付け($CLIPBOARD)|</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="11.25" customHeight="1">
+    <row r="7" spans="1:8" ht="11.25" customHeight="1">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
@@ -36155,14 +36128,14 @@
         <v>1268</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="F7" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>||||F10|SFTPダイアログを開く($VIEW\_SFTP)|</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="11.25" customHeight="1">
+    <row r="8" spans="1:8" ht="11.25" customHeight="1">
       <c r="A8" s="54"/>
       <c r="B8" s="54" t="s">
         <v>1</v>
@@ -36174,37 +36147,37 @@
         <v>293</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="F8" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>||Shift|Alt|←|接続追加(複製)＋同ペイン($SPLIT\_OVER)|</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A9" s="54"/>
+    <row r="9" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A9" s="54" t="s">
+        <v>0</v>
+      </c>
       <c r="B9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>2</v>
-      </c>
+      <c r="C9" s="54"/>
       <c r="D9" s="53" t="s">
         <v>1266</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>1348</v>
+        <v>1610</v>
       </c>
       <c r="F9" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|↓/→|接続追加(複製)＋縦($SPLIT\_HEIGHT)/横分割($SPLIT\_WIDTH)|</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A10" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="54"/>
+        <v>|Ctrl|Shift||↓/→|縦分割($PANE_HSPLIT)/横分割($PANE_WSPLIT)|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="C10" s="54" t="s">
         <v>2</v>
       </c>
@@ -36212,14 +36185,14 @@
         <v>1266</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="F10" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|↓/→|接続追加(新規)＋縦($SPLIT\_HEIGHTNEW)/横分割($SPLIT\_WIDTHNEW)|</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="11.25" customHeight="1">
+        <v>||Shift|Alt|↓/→|接続追加(複製)＋縦($SPLIT\_HEIGHT)/横分割($SPLIT\_WIDTH)|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="11.25" customHeight="1">
       <c r="A11" s="54" t="s">
         <v>0</v>
       </c>
@@ -36228,170 +36201,172 @@
         <v>2</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>294</v>
+        <v>1266</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="F11" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
+        <v>|Ctrl||Alt|↓/→|接続追加(新規)＋縦($SPLIT\_HEIGHTNEW)/横分割($SPLIT\_WIDTHNEW)|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A12" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F12" s="55" t="str">
+        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl||Alt|↑|ペイン移動($PANE\_ROTATION)|</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v>|Ctrl|/Shift||tab|ペインフォーカス移動(次/前)|</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="53" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F13" s="55" t="str">
-        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F11|ウィンドウ整理(並べて表示($PANE\_TILEHORZ))|</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="11.25" customHeight="1">
+    <row r="14" spans="1:8" ht="11.25" customHeight="1">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
       <c r="D14" s="53" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="F14" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F12|ウィンドウ整理(重ねて表示($PANE\_CASCADE)|</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A15" s="54" t="s">
-        <v>0</v>
-      </c>
+        <v>||||F11|ウィンドウ整理(並べて表示($PANE\_TILEHORZ))|</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A15" s="54"/>
       <c r="B15" s="54"/>
-      <c r="C15" s="54" t="s">
-        <v>2</v>
-      </c>
+      <c r="C15" s="54"/>
       <c r="D15" s="53" t="s">
-        <v>1198</v>
+        <v>1295</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="F15" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|w|分割を閉じる($PANE\_DELETE)|</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A16" s="54"/>
+        <v>||||F12|ウィンドウ整理(重ねて表示($PANE\_CASCADE)|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A16" s="54" t="s">
+        <v>0</v>
+      </c>
       <c r="B16" s="54"/>
       <c r="C16" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>1298</v>
+        <v>1198</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="F16" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|n/w|接続開く($FILE\_NEW)/閉じる($FILE\_CLOSE)|</v>
+        <v>|Ctrl||Alt|w|分割を閉じる($PANE\_DELETE)|</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A17" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A17" s="54"/>
       <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="C17" s="54" t="s">
+        <v>2</v>
+      </c>
       <c r="D17" s="53" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>1342</v>
+        <v>1296</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>1351</v>
       </c>
       <c r="F17" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||,/.|カーソル移動(一文字) 左(\033\[D)/右(\033\[C)|</v>
+        <v>|||Alt|n/w|接続開く($FILE\_NEW)/閉じる($FILE\_CLOSE)|</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1">
       <c r="A18" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>1</v>
-      </c>
+      <c r="B18" s="54"/>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="F18" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||,/.|カーソル移動(単語) 左(\033b)/右(\033f)|</v>
+        <v>|Ctrl|||,/.|カーソル移動(一文字) 左(\033\[D)/右(\033\[C)|</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
       <c r="A19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54" t="s">
-        <v>2</v>
-      </c>
+      <c r="B19" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>1332</v>
+        <v>1331</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>1337</v>
       </c>
       <c r="F19" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|,/.|カーソル移動 行頭(\001)/行末(\005)|</v>
+        <v>|Ctrl|Shift||,/.|カーソル移動(単語) 左(\033b)/右(\033f)|</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A20" s="54"/>
+      <c r="A20" s="54" t="s">
+        <v>0</v>
+      </c>
       <c r="B20" s="54"/>
       <c r="C20" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>1343</v>
+        <v>1331</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>1330</v>
       </c>
       <c r="F20" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|||Alt|o|オプション設定($OPTION\_SET)|</v>
+        <v>|Ctrl||Alt|,/.|カーソル移動 行頭(\001)/行末(\005)|</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1">
@@ -36399,16 +36374,18 @@
         <v>0</v>
       </c>
       <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="C21" s="54" t="s">
+        <v>2</v>
+      </c>
       <c r="D21" s="53" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="F21" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|||s|全状態保存($FILE\_ALLSAVE)|</v>
+        <v>|Ctrl||Alt|o|オプション設定($OPTION\_SET)|</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1">
@@ -36416,10 +36393,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36433,10 +36410,10 @@
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="D23" s="53" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F23" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36452,10 +36429,10 @@
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="53" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E24" s="53" t="s">
         <v>1334</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>1336</v>
       </c>
       <c r="F24" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36463,9 +36440,20 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1">
-      <c r="F25" s="3" t="str">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F25" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|||Alt|v|貼り付け($CLIPBOARD)|</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1">
@@ -36805,13 +36793,7 @@
       </c>
     </row>
     <row r="82" spans="6:6" ht="11.25" customHeight="1">
-      <c r="F82" s="3" t="str">
-        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="6:6" ht="11.25" customHeight="1">
-      <c r="F83" s="7" t="str">
+      <c r="F82" s="7" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
@@ -36819,13 +36801,13 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A25:A83 A3:A24" xr:uid="{116FEBE6-4FAB-42F5-BE87-0D3EF9DA0D8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A26:A82 A3:A25" xr:uid="{116FEBE6-4FAB-42F5-BE87-0D3EF9DA0D8E}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B25:B83 B3:B24" xr:uid="{AC90D523-C0BE-4B6C-8BA1-5D36EDEB16D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B26:B82 B3:B25" xr:uid="{AC90D523-C0BE-4B6C-8BA1-5D36EDEB16D2}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C25:C83 C3:C24" xr:uid="{BB0A3E2E-59EE-4DE5-A0D1-12733582344C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C26:C82 C3:C25" xr:uid="{BB0A3E2E-59EE-4DE5-A0D1-12733582344C}">
       <formula1>"Alt"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36845,7 +36827,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -37179,7 +37161,7 @@
         <v>221</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>670</v>
@@ -37208,7 +37190,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>670</v>
@@ -37536,7 +37518,7 @@
         <v>670</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>670</v>
@@ -37545,12 +37527,12 @@
         <v>670</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A25" s="35" t="s">
@@ -37566,23 +37548,21 @@
         <v>670</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1476</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>670</v>
+        <v>1471</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>1608</v>
       </c>
       <c r="G25" s="59" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H25" s="59" t="s">
         <v>1291</v>
       </c>
-      <c r="H25" s="59" t="s">
-        <v>1293</v>
-      </c>
       <c r="I25" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="J25" s="64" t="s">
-        <v>1481</v>
-      </c>
+      <c r="J25" s="62"/>
     </row>
     <row r="26" spans="1:10" s="17" customFormat="1" ht="12">
       <c r="A26" s="35" t="s">
@@ -37598,16 +37578,16 @@
         <v>670</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1477</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>670</v>
+        <v>1472</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>1609</v>
       </c>
       <c r="G26" s="59" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="H26" s="59" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>266</v>
@@ -37627,13 +37607,13 @@
         <v>670</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>670</v>
       </c>
       <c r="G27" s="59" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>670</v>
@@ -37653,13 +37633,13 @@
         <v>266</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>665</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>665</v>
@@ -38094,13 +38074,13 @@
         <v>670</v>
       </c>
       <c r="F43" s="59" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H43" s="59" t="s">
         <v>1323</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="H43" s="59" t="s">
-        <v>1325</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>266</v>
@@ -38123,13 +38103,13 @@
         <v>670</v>
       </c>
       <c r="F44" s="59" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H44" s="59" t="s">
         <v>1324</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="H44" s="59" t="s">
-        <v>1326</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>266</v>
@@ -38494,7 +38474,7 @@
         <v>563</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>670</v>
@@ -38557,7 +38537,7 @@
       <c r="E59" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F59" s="62" t="s">
+      <c r="F59" s="59" t="s">
         <v>1277</v>
       </c>
       <c r="G59" s="20" t="s">
@@ -38610,19 +38590,19 @@
         <v>563</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F61" s="59" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H61" s="62" t="s">
-        <v>1473</v>
+      <c r="H61" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>266</v>
@@ -38697,7 +38677,7 @@
         <v>563</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>670</v>
@@ -38726,13 +38706,13 @@
         <v>563</v>
       </c>
       <c r="D65" s="59" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F65" s="59" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>670</v>
@@ -38815,8 +38795,8 @@
       <c r="D68" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="E68" s="63" t="s">
-        <v>1285</v>
+      <c r="E68" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>670</v>
@@ -38824,7 +38804,7 @@
       <c r="G68" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H68" s="62" t="s">
+      <c r="H68" s="59" t="s">
         <v>1285</v>
       </c>
       <c r="I68" s="16" t="s">
@@ -38928,8 +38908,8 @@
       <c r="C72" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D72" s="59" t="s">
-        <v>1286</v>
+      <c r="D72" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>670</v>
@@ -38987,7 +38967,7 @@
         <v>563</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>670</v>
@@ -39021,14 +39001,14 @@
       <c r="E75" s="59" t="s">
         <v>1278</v>
       </c>
-      <c r="F75" s="63" t="s">
+      <c r="F75" s="59" t="s">
         <v>1278</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H75" s="62" t="s">
-        <v>1474</v>
+      <c r="H75" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>266</v>
@@ -39640,7 +39620,7 @@
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="61" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>1271</v>
@@ -39694,7 +39674,7 @@
         <v>371</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F8" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39729,10 +39709,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="F10" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39744,10 +39724,10 @@
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
       <c r="D11" s="57" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="F11" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39764,7 +39744,7 @@
         <v>341</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F12" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39778,10 +39758,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F13" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39797,10 +39777,10 @@
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="57" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F14" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39814,10 +39794,10 @@
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
       <c r="D15" s="57" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F15" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39831,10 +39811,10 @@
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
       <c r="D16" s="57" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F16" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39850,10 +39830,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="57" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E17" s="61" t="s">
         <v>1304</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>1306</v>
       </c>
       <c r="F17" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39869,10 +39849,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F18" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39888,10 +39868,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F19" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39905,10 +39885,10 @@
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
       <c r="D20" s="57" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F20" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>
@@ -39924,10 +39904,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F21" s="58" t="str">
         <f>IF(ISBLANK(テーブル17810111718[[#This Row],[機能]]),"","|"&amp;テーブル17810111718[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Shift]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Alt]]&amp;"|"&amp;テーブル17810111718[[#This Row],[Key]]&amp;"|"&amp;テーブル17810111718[[#This Row],[機能]]&amp;"|")</f>

--- a/ショートカットキー一覧.xlsx
+++ b/ショートカットキー一覧.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074B9E07-1F67-4581-B79C-E4D2BBC9995C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB3A28D-19CC-4598-AB09-F8B62C02597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="-120" windowWidth="26700" windowHeight="16440" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
+    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{43490DDC-BDDE-46A2-A177-1DE0A5EB93B9}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="40" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7331" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7336" uniqueCount="1619">
   <si>
     <t>Ctrl</t>
   </si>
@@ -6048,17 +6048,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>↓/→</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ペインフォーカス移動(次/前)</t>
-    <rPh sb="8" eb="10">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>F10</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -7569,6 +7558,63 @@
   </si>
   <si>
     <t>縦分割($PANE_HSPLIT)/横分割($PANE_WSPLIT)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ブロードキャスト送信($BROADCAST)</t>
+  </si>
+  <si>
+    <t>ブロードキャスト送信($BROADCAST)</t>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>h/v</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>d/r</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ウィンドウ切り替え(次/前)</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>方向キー</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ウィンドウ切り替え</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>u/k</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>文字削除(行頭まで/行末まで)</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -12543,8 +12589,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B3B06C47-0783-4864-BFA7-B306B0811F6A}" name="テーブル178101117" displayName="テーブル178101117" ref="A1:F82" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:F82" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B3B06C47-0783-4864-BFA7-B306B0811F6A}" name="テーブル178101117" displayName="テーブル178101117" ref="A1:F81" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:F81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7074AF62-75A2-46EA-8E94-9E786E84646D}" name="Ctrl" totalsRowLabel="集計" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" xr3:uid="{F02671C4-0209-4380-B7DA-CF9B477E89B2}" name="Shift" dataDxfId="21"/>
@@ -13058,7 +13104,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5"/>
@@ -13071,21 +13117,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="67" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>1598</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="D1" s="67" t="s">
         <v>1599</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="64" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B2" s="65" t="str">
         <f>$A2</f>
@@ -13099,7 +13145,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="64" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B3" s="65" t="str">
         <f t="shared" ref="B3:B21" si="1">$A3</f>
@@ -13113,7 +13159,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="64" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B4" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13127,7 +13173,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="64" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B5" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13144,7 +13190,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="64" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B6" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13158,7 +13204,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="64" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B7" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13172,7 +13218,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="64" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B8" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13186,7 +13232,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="64" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B9" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13200,7 +13246,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="64" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B10" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13217,7 +13263,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="64" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B11" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13231,7 +13277,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="64" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B12" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13245,7 +13291,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="64" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B13" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13259,7 +13305,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="64" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B14" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13276,10 +13322,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="64" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B15" s="65" t="s">
         <v>1602</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>1604</v>
       </c>
       <c r="C15" s="66" t="str">
         <f t="shared" si="0"/>
@@ -13289,10 +13335,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="64" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="66" t="str">
@@ -13302,7 +13348,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="64" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B17" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13319,7 +13365,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="64" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B18" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13333,7 +13379,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="64" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B19" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13347,7 +13393,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="64" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B20" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13364,7 +13410,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="64" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B21" s="65" t="str">
         <f t="shared" si="1"/>
@@ -23281,7 +23327,7 @@
         <v>215</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>266</v>
@@ -23310,7 +23356,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>266</v>
@@ -23374,7 +23420,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>266</v>
@@ -23432,13 +23478,13 @@
         <v>266</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>266</v>
@@ -23455,7 +23501,7 @@
         <v>224</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>266</v>
@@ -23464,7 +23510,7 @@
         <v>266</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>266</v>
@@ -23484,13 +23530,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>266</v>
@@ -23513,7 +23559,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>266</v>
@@ -23571,7 +23617,7 @@
         <v>221</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>266</v>
@@ -23632,16 +23678,16 @@
         <v>266</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>266</v>
@@ -23661,10 +23707,10 @@
         <v>266</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>1220</v>
@@ -23690,13 +23736,13 @@
         <v>266</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>266</v>
@@ -23719,13 +23765,13 @@
         <v>266</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>266</v>
@@ -23754,7 +23800,7 @@
         <v>266</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>266</v>
@@ -23783,10 +23829,10 @@
         <v>266</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>266</v>
@@ -23803,7 +23849,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>266</v>
@@ -23812,7 +23858,7 @@
         <v>266</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>266</v>
@@ -23838,13 +23884,13 @@
         <v>266</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>266</v>
@@ -23870,7 +23916,7 @@
         <v>266</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>266</v>
@@ -23899,7 +23945,7 @@
         <v>266</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>266</v>
@@ -23928,7 +23974,7 @@
         <v>266</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>266</v>
@@ -23957,7 +24003,7 @@
         <v>266</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>266</v>
@@ -23983,10 +24029,10 @@
         <v>266</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>266</v>
@@ -24012,10 +24058,10 @@
         <v>266</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>266</v>
@@ -24041,13 +24087,13 @@
         <v>266</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>266</v>
@@ -24061,19 +24107,19 @@
     </row>
     <row r="29" spans="1:9" ht="12">
       <c r="A29" s="37" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>266</v>
@@ -24082,7 +24128,7 @@
         <v>266</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>266</v>
@@ -24090,13 +24136,13 @@
     </row>
     <row r="30" spans="1:9" ht="12">
       <c r="A30" s="37" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>266</v>
@@ -24180,7 +24226,7 @@
         <v>854</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>266</v>
@@ -24209,7 +24255,7 @@
         <v>855</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>266</v>
@@ -24296,7 +24342,7 @@
         <v>601</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>266</v>
@@ -24305,10 +24351,10 @@
         <v>477</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>266</v>
@@ -24331,7 +24377,7 @@
         <v>266</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>266</v>
@@ -24351,7 +24397,7 @@
     </row>
     <row r="39" spans="1:9" ht="12">
       <c r="A39" s="37" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>266</v>
@@ -24360,7 +24406,7 @@
         <v>266</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>266</v>
@@ -24409,7 +24455,7 @@
     </row>
     <row r="41" spans="1:9" ht="12">
       <c r="A41" s="38" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>266</v>
@@ -24418,7 +24464,7 @@
         <v>266</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>266</v>
@@ -24438,7 +24484,7 @@
     </row>
     <row r="42" spans="1:9" ht="12">
       <c r="A42" s="37" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>266</v>
@@ -24467,7 +24513,7 @@
     </row>
     <row r="43" spans="1:9" ht="12">
       <c r="A43" s="37" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>266</v>
@@ -24505,7 +24551,7 @@
         <v>266</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>266</v>
@@ -24534,13 +24580,13 @@
         <v>266</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>266</v>
@@ -24853,13 +24899,13 @@
         <v>266</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>266</v>
@@ -24882,13 +24928,13 @@
         <v>266</v>
       </c>
       <c r="D57" s="20" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>1503</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>1505</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>266</v>
@@ -24911,13 +24957,13 @@
         <v>266</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>266</v>
@@ -24940,7 +24986,7 @@
         <v>266</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>266</v>
@@ -24969,13 +25015,13 @@
         <v>266</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="G60" s="20" t="s">
         <v>266</v>
@@ -24998,7 +25044,7 @@
         <v>266</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>266</v>
@@ -25010,7 +25056,7 @@
         <v>266</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>266</v>
@@ -25027,13 +25073,13 @@
         <v>266</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>266</v>
@@ -25062,13 +25108,13 @@
         <v>266</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>266</v>
@@ -25085,7 +25131,7 @@
         <v>266</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>266</v>
@@ -25097,7 +25143,7 @@
         <v>266</v>
       </c>
       <c r="H64" s="20" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>266</v>
@@ -25114,7 +25160,7 @@
         <v>266</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>266</v>
@@ -25143,7 +25189,7 @@
         <v>266</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>266</v>
@@ -25172,7 +25218,7 @@
         <v>266</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>266</v>
@@ -25201,13 +25247,13 @@
         <v>266</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="G68" s="20" t="s">
         <v>266</v>
@@ -25236,7 +25282,7 @@
         <v>266</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>266</v>
@@ -25259,7 +25305,7 @@
         <v>266</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>266</v>
@@ -25288,7 +25334,7 @@
         <v>266</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>266</v>
@@ -25317,7 +25363,7 @@
         <v>266</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>266</v>
@@ -25346,13 +25392,13 @@
         <v>266</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="G73" s="20" t="s">
         <v>266</v>
@@ -25375,19 +25421,19 @@
         <v>266</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="G74" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>266</v>
@@ -25404,7 +25450,7 @@
         <v>266</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>266</v>
@@ -25462,7 +25508,7 @@
         <v>266</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>266</v>
@@ -25491,13 +25537,13 @@
         <v>266</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="G78" s="20" t="s">
         <v>266</v>
@@ -25520,7 +25566,7 @@
         <v>266</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>266</v>
@@ -25549,7 +25595,7 @@
         <v>266</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>266</v>
@@ -25578,7 +25624,7 @@
         <v>266</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>266</v>
@@ -25601,7 +25647,7 @@
         <v>668</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C82" s="20" t="s">
         <v>266</v>
@@ -25888,22 +25934,22 @@
     </row>
     <row r="92" spans="1:9" ht="12">
       <c r="A92" s="37" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C92" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="G92" s="20" t="s">
         <v>266</v>
@@ -25917,22 +25963,22 @@
     </row>
     <row r="93" spans="1:9" ht="12">
       <c r="A93" s="37" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B93" s="20" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F93" s="20" t="s">
         <v>1540</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>1542</v>
       </c>
       <c r="G93" s="20" t="s">
         <v>266</v>
@@ -25946,10 +25992,10 @@
     </row>
     <row r="94" spans="1:9" ht="12">
       <c r="A94" s="37" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="C94" s="20" t="s">
         <v>266</v>
@@ -30741,7 +30787,7 @@
         <v>266</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" ht="12">
@@ -33337,7 +33383,7 @@
         <v>215</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>266</v>
@@ -33349,7 +33395,7 @@
         <v>266</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>266</v>
@@ -33361,7 +33407,7 @@
         <v>266</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="17" customFormat="1" ht="12">
@@ -33369,7 +33415,7 @@
         <v>154</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>266</v>
@@ -33393,7 +33439,7 @@
         <v>266</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="17" customFormat="1" ht="12">
@@ -33404,7 +33450,7 @@
         <v>240</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>266</v>
@@ -33518,7 +33564,7 @@
         <v>224</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>266</v>
@@ -33547,7 +33593,7 @@
         <v>238</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>266</v>
@@ -33556,7 +33602,7 @@
         <v>266</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>266</v>
@@ -33605,7 +33651,7 @@
         <v>141</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>266</v>
@@ -33663,7 +33709,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>266</v>
@@ -33701,7 +33747,7 @@
         <v>266</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>266</v>
@@ -33730,7 +33776,7 @@
         <v>266</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>266</v>
@@ -33759,7 +33805,7 @@
         <v>266</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>266</v>
@@ -33788,7 +33834,7 @@
         <v>266</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>266</v>
@@ -33817,7 +33863,7 @@
         <v>266</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>266</v>
@@ -33846,7 +33892,7 @@
         <v>266</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>266</v>
@@ -33875,7 +33921,7 @@
         <v>266</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>266</v>
@@ -33904,7 +33950,7 @@
         <v>266</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>266</v>
@@ -33933,7 +33979,7 @@
         <v>266</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>266</v>
@@ -33962,7 +34008,7 @@
         <v>266</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>266</v>
@@ -33982,25 +34028,25 @@
         <v>573</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>1441</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="E24" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>1442</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="G24" s="20" t="s">
         <v>1443</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="20" t="s">
+      <c r="H24" s="20" t="s">
         <v>1444</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>1445</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>1446</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>266</v>
@@ -34011,25 +34057,25 @@
         <v>580</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>1447</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>1448</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="F25" s="20" t="s">
         <v>1449</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="G25" s="20" t="s">
         <v>1450</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="H25" s="20" t="s">
         <v>1451</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>1452</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>1453</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>266</v>
@@ -34040,10 +34086,10 @@
         <v>587</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>588</v>
@@ -34069,7 +34115,7 @@
         <v>589</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>266</v>
@@ -34098,19 +34144,19 @@
         <v>592</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>266</v>
@@ -34127,13 +34173,13 @@
         <v>596</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>266</v>
@@ -34182,28 +34228,28 @@
     </row>
     <row r="31" spans="1:9" ht="12">
       <c r="A31" s="37" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>1454</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="D31" s="20" t="s">
         <v>1455</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>1456</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="F31" s="20" t="s">
         <v>1457</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="G31" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="20" t="s">
         <v>1458</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>1460</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>266</v>
@@ -34211,28 +34257,28 @@
     </row>
     <row r="32" spans="1:9" ht="12">
       <c r="A32" s="37" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>1461</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="E32" s="20" t="s">
         <v>1462</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="F32" s="20" t="s">
         <v>1463</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="G32" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="20" t="s">
         <v>1464</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>1466</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>266</v>
@@ -34249,10 +34295,10 @@
         <v>266</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>266</v>
@@ -34278,7 +34324,7 @@
         <v>563</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>266</v>
@@ -34307,7 +34353,7 @@
         <v>563</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>266</v>
@@ -34336,7 +34382,7 @@
         <v>563</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>266</v>
@@ -34365,7 +34411,7 @@
         <v>563</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>266</v>
@@ -34394,7 +34440,7 @@
         <v>563</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>266</v>
@@ -34426,7 +34472,7 @@
         <v>266</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>266</v>
@@ -34452,10 +34498,10 @@
         <v>563</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>266</v>
@@ -34510,7 +34556,7 @@
         <v>563</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>266</v>
@@ -34562,7 +34608,7 @@
         <v>667</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>266</v>
@@ -34774,7 +34820,7 @@
         <v>729</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>266</v>
@@ -34800,7 +34846,7 @@
         <v>563</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>266</v>
@@ -34835,7 +34881,7 @@
         <v>266</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="G53" s="20" t="s">
         <v>266</v>
@@ -34858,13 +34904,13 @@
         <v>563</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="G54" s="20" t="s">
         <v>266</v>
@@ -34887,7 +34933,7 @@
         <v>563</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>266</v>
@@ -34899,7 +34945,7 @@
         <v>266</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>266</v>
@@ -34945,13 +34991,13 @@
         <v>563</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G57" s="20" t="s">
         <v>266</v>
@@ -34986,7 +35032,7 @@
         <v>266</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>266</v>
@@ -35003,7 +35049,7 @@
         <v>563</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>266</v>
@@ -35032,7 +35078,7 @@
         <v>563</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>266</v>
@@ -35061,13 +35107,13 @@
         <v>563</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>266</v>
@@ -35090,10 +35136,10 @@
         <v>563</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F62" s="20" t="s">
         <v>266</v>
@@ -35102,7 +35148,7 @@
         <v>266</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>266</v>
@@ -35119,13 +35165,13 @@
         <v>563</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>266</v>
@@ -35151,7 +35197,7 @@
         <v>631</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="F64" s="20" t="s">
         <v>266</v>
@@ -35209,16 +35255,16 @@
         <v>634</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H66" s="20" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>266</v>
@@ -35235,7 +35281,7 @@
         <v>563</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>266</v>
@@ -35267,7 +35313,7 @@
         <v>266</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>266</v>
@@ -35299,13 +35345,13 @@
         <v>266</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G69" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H69" s="20" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>266</v>
@@ -35334,7 +35380,7 @@
         <v>266</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>266</v>
@@ -35351,19 +35397,19 @@
         <v>563</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="G71" s="20" t="s">
         <v>266</v>
       </c>
       <c r="H71" s="20" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>266</v>
@@ -35409,7 +35455,7 @@
         <v>563</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>266</v>
@@ -35421,7 +35467,7 @@
         <v>266</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>266</v>
@@ -35450,7 +35496,7 @@
         <v>266</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>266</v>
@@ -35519,13 +35565,13 @@
         <v>668</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>266</v>
@@ -35577,25 +35623,25 @@
         <v>950</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>266</v>
@@ -35606,25 +35652,25 @@
         <v>952</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>266</v>
@@ -35632,22 +35678,22 @@
     </row>
     <row r="81" spans="1:9" ht="12">
       <c r="A81" s="37" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>266</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G81" s="20" t="s">
         <v>266</v>
@@ -35757,7 +35803,7 @@
         <v>658</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>658</v>
@@ -35786,7 +35832,7 @@
         <v>660</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>660</v>
@@ -35806,28 +35852,28 @@
     </row>
     <row r="87" spans="1:9" ht="12">
       <c r="A87" s="37" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="H87" s="20" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I87" s="16" t="s">
         <v>266</v>
@@ -35835,28 +35881,28 @@
     </row>
     <row r="88" spans="1:9" ht="12">
       <c r="A88" s="37" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="I88" s="16" t="s">
         <v>266</v>
@@ -35864,28 +35910,28 @@
     </row>
     <row r="89" spans="1:9" ht="12">
       <c r="A89" s="37" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="I89" s="16" t="s">
         <v>266</v>
@@ -35893,7 +35939,7 @@
     </row>
     <row r="90" spans="1:9" ht="12">
       <c r="A90" s="37" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>729</v>
@@ -35922,10 +35968,10 @@
     </row>
     <row r="91" spans="1:9" ht="12">
       <c r="A91" s="37" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>266</v>
@@ -35993,11 +36039,9 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6009FD9C-9508-432A-9D16-8FA7741DDA77}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
@@ -36064,7 +36108,7 @@
         <v>|Ctrl|||ドラッグ|矩形選択|</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="11.25" customHeight="1">
@@ -36086,110 +36130,110 @@
       <c r="A5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54" t="s">
+        <v>2</v>
+      </c>
       <c r="D5" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>1342</v>
+      <c r="E5" s="60" t="s">
+        <v>1340</v>
       </c>
       <c r="F5" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||f|検索($SEARCH\_REG)|</v>
+        <v>|Ctrl||Alt|f|検索($SEARCH\_REG)|</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A6" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="D6" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>1265</v>
+        <v>1266</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>1341</v>
       </c>
       <c r="F6" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||v|貼り付け($CLIPBOARD)|</v>
+        <v>||||F10|SFTPダイアログを開く($VIEW\_SFTP)|</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11.25" customHeight="1">
       <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>2</v>
+      </c>
       <c r="D7" s="53" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>1343</v>
+        <v>205</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>1342</v>
       </c>
       <c r="F7" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||||F10|SFTPダイアログを開く($VIEW\_SFTP)|</v>
+        <v>||Shift|Alt|a|接続追加(複製)＋同ペイン($SPLIT\_OVER)|</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54" t="s">
-        <v>1</v>
-      </c>
+      <c r="A8" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="54"/>
       <c r="C8" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>1344</v>
+        <v>1612</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>1608</v>
       </c>
       <c r="F8" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|←|接続追加(複製)＋同ペイン($SPLIT\_OVER)|</v>
+        <v>|Ctrl||Alt|h/v|縦分割($PANE_HSPLIT)/横分割($PANE_WSPLIT)|</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A9" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="A9" s="54"/>
       <c r="B9" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54" t="s">
+        <v>2</v>
+      </c>
       <c r="D9" s="53" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>1610</v>
+        <v>1613</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>1343</v>
       </c>
       <c r="F9" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|Shift||↓/→|縦分割($PANE_HSPLIT)/横分割($PANE_WSPLIT)|</v>
+        <v>||Shift|Alt|d/r|接続追加(複製)＋縦($SPLIT\_HEIGHT)/横分割($SPLIT\_WIDTH)|</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54" t="s">
-        <v>1</v>
-      </c>
+      <c r="A10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="54"/>
       <c r="C10" s="54" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>1345</v>
+        <v>1613</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>1344</v>
       </c>
       <c r="F10" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>||Shift|Alt|↓/→|接続追加(複製)＋縦($SPLIT\_HEIGHT)/横分割($SPLIT\_WIDTH)|</v>
+        <v>|Ctrl||Alt|d/r|接続追加(新規)＋縦($SPLIT\_HEIGHTNEW)/横分割($SPLIT\_WIDTHNEW)|</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="11.25" customHeight="1">
@@ -36201,33 +36245,29 @@
         <v>2</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>1346</v>
+        <v>352</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>1345</v>
       </c>
       <c r="F11" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|↓/→|接続追加(新規)＋縦($SPLIT\_HEIGHTNEW)/横分割($SPLIT\_WIDTHNEW)|</v>
+        <v>|Ctrl||Alt|p|ペイン移動($PANE\_ROTATION)|</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A12" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F12" s="55" t="str">
+      <c r="D12" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F12" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl||Alt|↑|ペイン移動($PANE\_ROTATION)|</v>
+        <v>|||Alt|方向キー|ウィンドウ切り替え|</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1">
@@ -36240,12 +36280,12 @@
       <c r="D13" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>1267</v>
+      <c r="E13" s="11" t="s">
+        <v>1614</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v>|Ctrl|/Shift||tab|ペインフォーカス移動(次/前)|</v>
+        <v>|Ctrl|/Shift||tab|ウィンドウ切り替え(次/前)|</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="11.25" customHeight="1">
@@ -36253,10 +36293,10 @@
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
       <c r="D14" s="53" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>1348</v>
+        <v>1292</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>1346</v>
       </c>
       <c r="F14" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36268,10 +36308,10 @@
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
       <c r="D15" s="53" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>1349</v>
+        <v>1293</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>1347</v>
       </c>
       <c r="F15" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36289,8 +36329,8 @@
       <c r="D16" s="53" t="s">
         <v>1198</v>
       </c>
-      <c r="E16" s="53" t="s">
-        <v>1350</v>
+      <c r="E16" s="60" t="s">
+        <v>1348</v>
       </c>
       <c r="F16" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36304,10 +36344,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>1351</v>
+        <v>1294</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>1349</v>
       </c>
       <c r="F17" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36321,10 +36361,10 @@
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F18" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36340,10 +36380,10 @@
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F19" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36359,10 +36399,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>1330</v>
+        <v>1329</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>1328</v>
       </c>
       <c r="F20" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36378,10 +36418,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F21" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36393,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>1333</v>
+        <v>1330</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>1331</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36410,10 +36450,10 @@
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
       <c r="D23" s="53" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>1336</v>
+        <v>1333</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>1334</v>
       </c>
       <c r="F23" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36429,10 +36469,10 @@
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="53" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E24" s="60" t="s">
         <v>1332</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>1334</v>
       </c>
       <c r="F24" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
@@ -36446,9 +36486,9 @@
         <v>2</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E25" s="53" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E25" s="60" t="s">
         <v>1265</v>
       </c>
       <c r="F25" s="55" t="str">
@@ -36457,15 +36497,37 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1">
-      <c r="F26" s="3" t="str">
+      <c r="A26" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F26" s="55" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl||Alt|b|ブロードキャスト送信($BROADCAST)|</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1618</v>
+      </c>
       <c r="F27" s="3" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
+        <v>|Ctrl|||u/k|文字削除(行頭まで/行末まで)|</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1">
@@ -36787,13 +36849,7 @@
       </c>
     </row>
     <row r="81" spans="6:6" ht="11.25" customHeight="1">
-      <c r="F81" s="3" t="str">
-        <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="6:6" ht="11.25" customHeight="1">
-      <c r="F82" s="7" t="str">
+      <c r="F81" s="7" t="str">
         <f>IF(ISBLANK(テーブル178101117[[#This Row],[機能]]),"","|"&amp;テーブル178101117[[#This Row],[Ctrl]]&amp;"|"&amp;テーブル178101117[[#This Row],[Shift]]&amp;"|"&amp;テーブル178101117[[#This Row],[Alt]]&amp;"|"&amp;テーブル178101117[[#This Row],[Key]]&amp;"|"&amp;テーブル178101117[[#This Row],[機能]]&amp;"|")</f>
         <v/>
       </c>
@@ -36801,13 +36857,13 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A26:A82 A3:A25" xr:uid="{116FEBE6-4FAB-42F5-BE87-0D3EF9DA0D8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A27:A81 A3:A26" xr:uid="{116FEBE6-4FAB-42F5-BE87-0D3EF9DA0D8E}">
       <formula1>"Ctrl"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B26:B82 B3:B25" xr:uid="{AC90D523-C0BE-4B6C-8BA1-5D36EDEB16D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B27:B81 B3:B26" xr:uid="{AC90D523-C0BE-4B6C-8BA1-5D36EDEB16D2}">
       <formula1>"Shift"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C26:C82 C3:C25" xr:uid="{BB0A3E2E-59EE-4DE5-A0D1-12733582344C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C27:C81 C3:C26" xr:uid="{BB0A3E2E-59EE-4DE5-A0D1-12733582344C}">
       <formula1>"Alt"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36827,7 +36883,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -37132,7 +37188,7 @@
         <v>141</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>670</v>
@@ -37161,7 +37217,7 @@
         <v>221</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>670</v>
@@ -37190,7 +37246,7 @@
         <v>225</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>670</v>
@@ -37518,7 +37574,7 @@
         <v>670</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>670</v>
@@ -37526,8 +37582,8 @@
       <c r="G24" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H24" s="59" t="s">
-        <v>1288</v>
+      <c r="H24" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>266</v>
@@ -37548,16 +37604,16 @@
         <v>670</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>1471</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>1608</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>1291</v>
+        <v>1469</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>266</v>
@@ -37578,16 +37634,16 @@
         <v>670</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>1609</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H26" s="59" t="s">
-        <v>1290</v>
+        <v>1470</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>266</v>
@@ -37607,13 +37663,13 @@
         <v>670</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G27" s="59" t="s">
-        <v>1293</v>
+      <c r="G27" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>670</v>
@@ -37633,13 +37689,13 @@
         <v>266</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>665</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>665</v>
@@ -38068,19 +38124,19 @@
         <v>563</v>
       </c>
       <c r="D43" s="59" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F43" s="59" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H43" s="59" t="s">
         <v>1321</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="H43" s="59" t="s">
-        <v>1323</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>266</v>
@@ -38088,7 +38144,7 @@
     </row>
     <row r="44" spans="1:9" ht="12">
       <c r="A44" s="37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>563</v>
@@ -38097,19 +38153,19 @@
         <v>563</v>
       </c>
       <c r="D44" s="59" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F44" s="59" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="H44" s="59" t="s">
         <v>1322</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="H44" s="59" t="s">
-        <v>1324</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>266</v>
@@ -38395,8 +38451,8 @@
       <c r="F54" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>670</v>
+      <c r="G54" s="59" t="s">
+        <v>1291</v>
       </c>
       <c r="H54" s="20" t="s">
         <v>670</v>
@@ -38427,8 +38483,8 @@
       <c r="G55" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H55" s="20" t="s">
-        <v>670</v>
+      <c r="H55" s="59" t="s">
+        <v>1610</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>266</v>
@@ -38474,7 +38530,7 @@
         <v>563</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>670</v>
@@ -38482,11 +38538,11 @@
       <c r="F57" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G57" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>670</v>
+      <c r="G57" s="59" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H57" s="59" t="s">
+        <v>1289</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>266</v>
@@ -38537,14 +38593,12 @@
       <c r="E59" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F59" s="59" t="s">
-        <v>1277</v>
-      </c>
+      <c r="F59" s="59"/>
       <c r="G59" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H59" s="20" t="s">
-        <v>670</v>
+      <c r="H59" s="59" t="s">
+        <v>1275</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>266</v>
@@ -38590,19 +38644,19 @@
         <v>563</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F61" s="59" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G61" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H61" s="20" t="s">
-        <v>670</v>
+      <c r="H61" s="59" t="s">
+        <v>1606</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>266</v>
@@ -38677,7 +38731,7 @@
         <v>563</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>670</v>
@@ -38706,13 +38760,13 @@
         <v>563</v>
       </c>
       <c r="D65" s="59" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>670</v>
       </c>
       <c r="F65" s="59" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G65" s="20" t="s">
         <v>670</v>
@@ -38767,7 +38821,7 @@
         <v>670</v>
       </c>
       <c r="E67" s="59" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>670</v>
@@ -38805,7 +38859,7 @@
         <v>670</v>
       </c>
       <c r="H68" s="59" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>266</v>
@@ -38833,8 +38887,8 @@
       <c r="G69" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H69" s="20" t="s">
-        <v>670</v>
+      <c r="H69" s="59" t="s">
+        <v>1286</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>266</v>
@@ -38888,11 +38942,11 @@
       <c r="F71" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G71" s="20" t="s">
-        <v>670</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>670</v>
+      <c r="G71" s="59" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>1288</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>266</v>
@@ -38967,7 +39021,7 @@
         <v>563</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>670</v>
@@ -38999,16 +39053,16 @@
         <v>670</v>
       </c>
       <c r="E75" s="59" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F75" s="59" t="s">
-        <v>1278</v>
+        <v>1276</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="H75" s="20" t="s">
-        <v>670</v>
+      <c r="H75" s="59" t="s">
+        <v>1607</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>266</v>
@@ -39028,7 +39082,7 @@
         <v>670</v>
       </c>
       <c r="E76" s="59" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F76" s="20" t="s">
         <v>670</v>
@@ -39037,7 +39091,7 @@
         <v>670</v>
       </c>
       <c r="H76" s="59" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>266</v>
@@ -39528,7 +39582,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
   